--- a/news_data/2016_07.xlsx
+++ b/news_data/2016_07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,21 +22,99 @@
     <t>naver_news_articles</t>
   </si>
   <si>
-    <t>전기차 올인 제주도, 관광진흥기금 500억원 융자</t>
+    <t>제주도 안전관리실장 홍성택, 신설 관광국장 이승찬 발탁</t>
+  </si>
+  <si>
+    <t>제주도·관광공사, '일본인관광객 유치' 대대적 홍보</t>
+  </si>
+  <si>
+    <t>제주도 전국 최초 관광局 신설...초대 국장에 이승찬 예산담당관</t>
+  </si>
+  <si>
+    <t>제주도, 사상 최대 관광객 몰이…여름휴가 2주간 80만명 ‘우르르’</t>
+  </si>
+  <si>
+    <t>제주도, 전기차 충전기 230기 관광지등에 설치</t>
+  </si>
+  <si>
+    <t>[내수를 살리자]T멤버십 고객에 제주도 인기 관광지 16곳 최대 58% 할인 혜택</t>
+  </si>
+  <si>
+    <t>[내수를 살리자]2GB 데이터를 하루 2000원으로 관광특화 요금제 ‘제주도 프리...</t>
+  </si>
+  <si>
+    <t>[내수를 살리자]제주도서 ‘스마트 관광’ 즐기고, 전통시장에서 와이파이 누...</t>
+  </si>
+  <si>
+    <t>제주도 서귀포시 중문관광단지 내 별장형 오피스텔 '더바른' 분양</t>
+  </si>
+  <si>
+    <t>SKT, 제주도 인기 관광지 16곳 T멤버십 할인</t>
+  </si>
+  <si>
+    <t>[프로필] 신설 제주도 관광국장에 이승찬 서기관 발탁</t>
+  </si>
+  <si>
+    <t>성산 일출봉 관광객, 제주도 흑돼지 맛보기</t>
+  </si>
+  <si>
+    <t>이완섭 서산시장, 제주도 방문…연이은 관광 벤치마킹 '눈길'</t>
+  </si>
+  <si>
+    <t>[양양]제주도서 설악권 관광 홍보</t>
+  </si>
+  <si>
+    <t>'제주도 운전면허 취득 관광단'모집하고 운전교섭까지 한 중국인, 벌금형</t>
+  </si>
+  <si>
+    <t>제주도, 관광안내소·안내사 서비스 개선 사업 추진</t>
+  </si>
+  <si>
+    <t>제주도, 전기렌터카 구매에 초저리 관광진흥기금 지원</t>
+  </si>
+  <si>
+    <t>제주도, 관광안내소·안내사 서비스 개선</t>
+  </si>
+  <si>
+    <t>제주도·제주관광공사, ‘맛있는 제주일기’ 다음웹툰 연재</t>
+  </si>
+  <si>
+    <t>‘황금알’ 면세점에 관광기금 부과? 제주도 “기재부가 반대”</t>
+  </si>
+  <si>
+    <t>제주도, 전기차 구매업체에 관광진흥기금 지원</t>
+  </si>
+  <si>
+    <t>SKT '제주도 프리' 출시…관광하며 모바일 데이터 마음껏</t>
+  </si>
+  <si>
+    <t>충남관광협회, 제주도에서 오는 10월 전국체전 홍보</t>
+  </si>
+  <si>
+    <t>"제주도로 의료관광 오세요"</t>
+  </si>
+  <si>
+    <t>[이슈 분석]제주도 스마트시티, 중국인 관광객이 이끈다</t>
+  </si>
+  <si>
+    <t>제주도 맛집 찾는 관광객 늘어나…'제주대게회타운'에 식객 눈길</t>
+  </si>
+  <si>
+    <t>제주도vs의회, 오라관광단지 놓고 '시각차'</t>
+  </si>
+  <si>
+    <t>국내 여행지 제주도, 중문 관광단지·흑돼지구이 등 즐길 요소 가득</t>
+  </si>
+  <si>
+    <t>이통사, 관광명소 '제주도'에 시선집중…"사물인터넷 효과 톡톡"</t>
   </si>
   <si>
     <t>제주도, 전기차 구입 관광기금 500억원 융자</t>
   </si>
   <si>
-    <t>국내 여행지 제주도, 중문 관광단지·흑돼지구이 등 즐길 요소 가득</t>
-  </si>
-  <si>
     <t>SK텔레콤, 제주도 관광객 위한 데이터 쿠폰 출시</t>
   </si>
   <si>
-    <t>이통사, 관광명소 '제주도'에 시선집중…"사물인터넷 효과 톡톡"</t>
-  </si>
-  <si>
     <t>제주도관광협회, 관광종사자 대상 '중국문화 향상과정' 교육</t>
   </si>
   <si>
@@ -52,31 +130,103 @@
     <t>제주도 중문관광단지 별장형 오피스텔 '더바른' 분양</t>
   </si>
   <si>
-    <t>전기차 올인 제주도, 관광진흥기금 500억원 융자 &lt; 제주특별자치도 &lt; 행정 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-04 10:15 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주형 구직청년 재난지원금 8365명 지급...19~29세 60% 제주대-창원대-목포해양대 ‘지역연계 상호발전’ 맞손 ‘인민의 정의’의 혼란: 다중 해석 횡단보도 건너던 중학생 택시 치여 보름만 숨져…60대 기사 입건 [날씨] 제주, 시간당 20mm 내외 강한 비…기온 큰 폭으로 ‘뚝↓’ 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 전기차 올인 제주도, 관광진흥기금 500억원 융자 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 행정 제주특별자치도 전기차 올인 제주도, 관광진흥기금 500억원 융자 기자명 이승록 기자					(leerevol@naver.com) 입력 2016.07.08 10:33 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 전기차 보급에 팔을 걷어붙인 제주도가 전기렌터카 구입에 관광진흥기금 500억원을 융자한다.제주도는 2016년 하반기 제주관광진흥기금 융자지원 계획에 대한 심의를 벌여 8일부터 26일까지 신청·접수를 받을 계획이라고 밝혔다.하반기 융자지원은 총 1000억원 규모다. 1000억원 중 절반인 500억원은 렌터카업체 및 관광사업체(법인)의 전기차 구입에  지원한다.또 관광이용시설업 및 관광편의시설업 등 건설자금 100억원, 관광·일반숙박업과 관광시설 개보수자금 100억원, 관광사업체 경영안정자금 300억원을 각각 지원한다.객실 과잉 공급이 예상됨에 따라 수급 안정을 위해 관광숙박업 신증축 자금 지원은 배제된다. 렌터카 업체의 전기자동차 구입시 보조금을 제외한 자부담분에 대한 이자차액보전(2.8%)으로 3년 상환을 조건으로 지원되며, 2020년까지 한시적으로 추진할 계획이다. 신청자는 별도의 절차없이 전기차 공모기간에 맞춰 전기차 대리점에 신청서를 제출하면 된다. 관련기사 아이오닉 전기차 1900만원, 제주도민 파격 혜택 섣부른 정책 11일만에 철회...'행정 실추' 자초한 제주도 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 2 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 3 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 4 제주 구좌읍 평대리 단독주택서 화재…인명피해 없어 5 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 6 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 7 개천절 제주, 30도 넘는 깜짝 더위...5일부터는 찬바람 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 10 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 1 미덥지 못한 ‘관광청 제주 설치’ 尹정부 공약, 용두사미 되나? 2 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 3 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 4 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 5 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 6 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 7 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 10 돌아온 일상, 한층 더 책과 친숙해진 ‘2022 제주독서대전’ 1 니들 역사 잘모르자나 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ그냥 노는 날이 다 정도로 안는 거같음 ㅋㅋㅋㅋ 곰이 사람되고 그런 거야 ㅋㅋㅋ 겨레가 뭐냐? 카자흐스탄좀 갔다와 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ겨레의 뜻도 모르는 것들이 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ고조선이 뭐냐 조선 조선의 뜻이 뭐냐 ㅋㅋㅋㅋㅋㅋ주스야 ㅋㅋㅋ 달 태양 금성 왜 조선이라고 하는줄을 모른 ㅋㅋ그냥 개천절은 노는날 정도임 마늘 처먹은 곰탱이 이러구 알고 있음 ㅋㅋㅋㅋ 조선의 뜻을 알아야 되는거 임 우리의 뿌리 을 알아야되는것임 그런 놈들이 43을 안다고 하냐 ㅋㅋㅋ 우리가 케레이 다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 2 왜 이걸 제주도만 시범으로 빠따 맞아야 하나? 만만한 제주도라서 그런가? 시범시범시범 3 제주도의원들은 할일이 없겠음 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ제주자치도인지 서울자치도인지 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 4 아래 댓처럼 일 못하는 고문관들이 회사와 사회발전의 암이다 이런새끼들의 특징 1. 기본 계산도 못한다 2. 좆도 모르는 일에 나대면서 아는척은 존나게 한다 3. 그런 주제에 양심도 도덕도 없어서 여러사람 눈 찌푸리게 하는걸 지만 모른다 5 급식비가 얼마냐 가 아니라 급식 수준이 봐야 되는거지 ㅋㅋㅋㅋㅋㅋ 급식은 처먹으면서 애들 급식수준이 떨어지면 조사해 보던가 하지 무조건 돈돈하는 건니들 같어 ㅋㅋㅋ 물가가 오르던 말던 급식이 애들 불만 없이 잘되면 그만이지 기준없이 잘만 하는 지역도 많쿠만 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ이런 미친 돈 또라이들 6 썬오브 비치 7 당시 기준에서 재판해야한다. 남로당에 부역한 전원에 대해 엄중한 책임을 부과하고 잘못을 인식시켜야 한다. 용서는 사실인정과 반성이 있어야 가능하다. 당시 재판이 가장 사실에 부합하다. 8 1948년 한림동국민학교에서 조선민주애국청년동맹대회 때 사회를 보아 명예의장으로 남조선노동당 박헌영을 추대함과 동시에 남조선노동당 박헌영 체포령 취소 요구 진정서를 미군정청사령관 하지 중장에 보내는 데 앞장을 선 사람을 무죄를 오늘 선고한다면 대한민국의 정체성은 더욱 더 흔들린다. 9 4.3위원회 폐지법안 원희룡, 제주의 아픔 말할 자격 있나?" 윤철수 headlinejeju@headlinejeju.co.kr 승인 2014.03.21 김우남, "원희룡 4.3위원회 폐지법안 공동발의" 지난 2008년 한나라당 의원들을 중심으로 제주4.3위원회 폐지를 내용으로 하는 제주4.3특별법 개정안의 국회 제출당시 새누리당 원희룡 제주도지사 예비후보도 공동발의한 사실이 확인돼 논란이 일고 있다. 10 묻지도 따지지도 말라 하니 참 ㅋㅋㅋㅋㅋ니들이 말이통하는 세상인게 부럽다 ㅋㅋㅋㅋㅋㅋ예를 들면 역사의 증거는 가물거리고 주변 생존자가 있어 울며 불며 뭐라 하니 동요된 여론과 뭐 잇딴 감성파리로 법을 뒤집는다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 이듸 일름 적읍서 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 제주 제2공항, 전·현지사 머리 맞대라 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 어룬 방둥인 애기 이상 엇나 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 있을 법하지 않은, 낯선 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 올리 추석 멩질상엔 고사리육개장 올렴수다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, 전기차 구입 관광기금 500억원 융자 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-04 (화) 08:29 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도, 전기차 구입 관광기금 500억원 융자 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 제주도, 전기차 구입 관광기금 500억원 융자 기자명 강승남 기자 입력 2016.07.08 11:14 수정 2016.07.10 11:44 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 하반기 1000억원 관광기금 접수…관광숙박업 신·증축 지원대상서 제외제주도는 8일부터 26일까지 2016년 하반기 제주관광진흥기금 융자지원 신청 접수를 받는다고 밝혔다.하반기 융자지원 규모는 총 1000억 원이다.관광이용시설업 및 관광편의시설업 등의 건설자금 100억원, 관광·일반숙박업과 관광시설 등의 개보수자금 100억 원, 관광사업체 등의 경영안정자금 300억원 등 기존 융자대상에 대해 총 500억원 규모로 지원된다.하지만 관광숙박업을 비롯해 객실 수급을 위한 신·증축 자금 지원은 배제된다.도는 관광숙박업 등 일부 건설자금 지원 중단에 따른 재원을 렌터카업체 및 관광사업체(법인)에서 전기차를 구입할 수 있도록 500억원 규모로 신규 지원한다.전기차 구입시 보조금을 제외한 자부담분에 대한 이자차액보전 2.8%를 지원한다. 3년 상환 조건으로 지원되며, 2020년까지 한시적으로 추진된다.이와 함께 우수 관광기념품 개발육성 지원 기준을 보다 완화한다.종전에는 공고일 2년 이내 국내 대회서 본선 이상에 진출하거나 제주도내 대회서 예선 입상자에 한해 지원돼 왔다. 이를 공고일로부터 5년 전까지의 입상자로 신청할 수 있도록 대폭 늘렸다.이외에도 일반야영장을 비롯해 기타유원시설업에 대한 융자지원도 추가됐다. 이에 따라 일반야영장으로 등록된 업체와 기타유원시설 등으로 등록된 도내 30여개 업체도 시설자금 또는 경영안정자금 지원을 받을 수 있게 됐다.한편 올해 상반기 관광진흥기금 지원 실적은 260억원이다. 이는 지원규모의 70∼80%를 차지하던 관광숙박시설 건설자금 지원이 중단됐기 때문이다. 강승남 기자 stipool@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의 운세 10월4일 (음력9월 9일) 2022년 미디어 콘테스트 부문별 최우수상 [무공침] "안전산행 위해 예방수칙 준수" [사설] 低임금 제주경제 언제까지 놔둘건가 [사설] 고령화 속도가 보내는 신호를 읽어라 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 20년 이상 아파트 33곳 '재건축' 계획 제시 2 제주 국악인들 전국대회 대상 쾌거 3 폐현수막 의상 '눈길'..."제주 탐라문화제 새바람 기대" 4 환경과 문화가 만나면, 푸르게 더 푸르게 5 저금리 갈아타기 제주 소상공인 '사각' 6 한라산 백록담 60대 응급환자...헬기 이송 7 제주도선수단 제103회 전국체전 '출전'…"메달 68개 이상 목표" 8 [시론담론]인사와 임기, 그리고 권력 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>국내 여행지 제주도, 중문 관광단지·흑돼지구이 등 즐길 요소 가득 검색 본문 바로가기 회사정보 바로가기 2022.10.04 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방국제생활/문화연예스포츠여행국내해외바이크관광레저호텔ㆍ크루즈이벤트TVBBC 홈 &gt; 여행 &gt; 국내 여행지 제주도, 중문 관광단지·흑돼지구이 등 즐길 요소 가득 (서울=뉴스1) 전민기 기자					| 2016-07-01 14:20 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 © News1 한 소셜커머스 업체가 최근 조사한 자료에 따르면 한 달간 6~8월 출발 여행상품 판매 현황을 조사한 결과, 국내 여행상품 판매량 중 제주도 여행상품이 전체 약 40%를 차지하며 최다 방문 여행지라고 밝혔다. 이는 제주도에 가는 저가항공이 증가하면서 제주도 여행을 떠나는 사람들이 많아진 것으로 보이는데 특히 휴가철 직전인 요즘은 비행기 표가 저렴하다. 대표적인 제주 여행지로는 여미지식물원·중문해수욕장·천제연 폭포가 있는 중문 관광단지가 있다.제주도 현지인들은 숙박시설로 게스트하우스를 꼽았으며 관광지 방문을 하거나 중문 흑돼지맛집을 찾아가는 것을 추천한다. 제주도 흑돼지는 생리활성물질인 불포화지방산 파미트올레인산이 일반 돼지보다 15% 많아 콜레스테롤의 축적을 막아주며 단백질, 비타민A가 다량 함유돼 있어 건강과 맛을 모두 챙길 수 있다.중문동에 위치한 ‘쌍둥이돼지꿈’은 중문흑돼지 전문 식당으로 참숯으로 흑돼지를 구워서 먹기 때문에 고기가 익으면서 참숯향이 스며 들면서 육즙이 풍부하다. 삼겹살·목살·항정살 등 부위별로 먹을 수 있으며 생구이를 주문하면 여러 부위를 동시에 먹을 수 있다.이곳은 흑돼지생구이를 주메뉴로 판매하고 있으며 점심메뉴에는 흑돼지두루치기와 된장찌개·김치찌개를 판매한다. 중문 흑돼지 맛집에서 멜젓이라고 부르는 멸치젓이 흑돼지고기의 맛을 더욱 살리고 소화를 돕는다. 취향에 따라서 비빔냉면에 흑돼지생구이를 같이 먹으면 색다른 맛을 느낄 수 있다. 또한 제주도 현지인들이 추천하는 업체인 만큼 제주도 지역손님이 많고 지역손님들이 추천하는 양념갈비와 생갈비도 같이 판매한다. 한편, 제주도 관광청은 여름을 맞아 증가한 여행객들을 위해 관광자료를 배포하고 있으며, 시설물 안전 전검 실시 등 관광객들의 안전을 위해 점검을 강화하겠다고 밝혔다. akdrkffk@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 이런 일&amp;저런 일 황보라♥차현우, 혼인신고…임신 때문에 먼저 최성국, 24세 연하 연인과 결혼 "올가을 예식" 13세연하 우즈벡 아내에 폭언+손가락욕 충격 '임신' 허니제이, 언더붑 시스루 파격 패션 "살인 싫다" 러시아 래퍼, 동원령에 극단 선택 송혜교, 흰 티에도 '만찢녀' 비주얼…독보적 미모 오늘의 핫 포토 쌀쌀해진 아침 윤 대통령 "北 무모한 도발, 국제사회 결연한 대응 직면할 것" 민주당 ‘감사원의 문재인 전 대통령 조사’ 항의 제주는 여름? 10월 낮 기온 31.2도 기록 ‘새출발기금’, 4일부터 공식 출범 우비 입은 수문장들 단기 4355년 개천절, '홍익정신 되새기며…' 탭메뉴 스포츠 연예 스타일 스포츠 [인터뷰] 'SSG 유일 3할타자' 최지훈 "몸이 찢어지더라도 우승할 것" 2경기만 남은 이대호, 이대호 없는 미래를 준비해야 할 롯데 임성재, 시즌 첫 미션은 '타이틀 방어'…슈라이너스 오픈 7일 개막 '나폴리의 벽' 김민재, 월드컵서 만날 '가나 신성' 쿠두스를 막아라 연예 소이현 "출산 후 거울 속 내 모습 싫었다"…인교진 반응은? [RE:TV] 레인보우 고우리, 5세 연상 사업가와 오늘 결혼 [N디데이] "미스터리 섹시" 자신했던 위하준…'작은아씨들'의 탁월한 캐스팅 [N초점] '파격' 김예원 "간절하게 합류한 '수리남'…출연 반대도 있었지만" [N인터뷰]① 스타일 구준엽♥서희원, 샤워 가운만 입고 소파에서...눈에서 꿀떨어지는 투샷 [N화... 송혜교, 그림 같은 미모...우아함 넘치는 '가을여신' [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
-  </si>
-  <si>
-    <t>SK텔레콤, 제주도 관광객 위한 데이터 쿠폰 출시 주메뉴 바로가기 본문 바로가기 시작페이지로 즐겨찾기 2022.10.04 (화) 흐림동두천 17.2℃ 흐림강릉 20.3℃ 흐림서울 17.3℃ 비대전 20.6℃ 비대구 24.8℃ 흐림울산 25.1℃ 비광주 19.9℃ 흐림부산 24.8℃ 흐림고창 18.5℃ 구름많음제주 27.6℃ 흐림강화 15.7℃ 흐림보은 20.7℃ 흐림금산 20.9℃ 흐림강진군 21.7℃ 흐림경주시 26.0℃ 구름많음거제 24.7℃ 기상청 제공 로그인 종합뉴스 세무ㆍ회계 정책 내국세 국제조세 관세 지방세 업계 예규·판례 금융 정책 은행 증권 보험 카드ㆍ제2금융 예규ㆍ판례 세ㆍ재테크 경제ㆍ산업 정책 경제일반 기업ㆍ재계 건설ㆍ부동산 식품ㆍ유통 글로벌동향 정치 LIFE 문화 교육 사회보험 인사ㆍ동정 개업ㆍ이전 결혼ㆍ부음 과학 HEALTH &amp; BEAUTY TF로 증권로 서적몰 조세금융TV 세꼬무 알기 쉬운 세금 10분세금 굿바이! 세금폭탄 조금뉴스 파워 인터뷰 세미나 현장취재 김하나 장보원의 이런稅上 연말정산 詩가 있는 아침 검색어를 입력해주세요. 검색하기 기업 · 재계 홈 경제 · 산업 기업 · 재계 SK텔레콤, 제주도 관광객 위한 데이터 쿠폰 출시 최일혁 기자 mydream@tfnews.co.kr 등록 2016.07.01 13:25:42 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 (조세금융신문=최일혁 기자) SK텔레콤이 ‘지역 특화’ 데이터 상품인 ‘제주도 프리’를 1일 출시했다. 이 상품은 관광객들이 제주도 전역 및 인근 도서에서 하루 종일 데이터를 마음껏 쓸 수 있는 데이터 쿠폰이다. ‘제주도 프리’를 구입한 고객은 사용 요금제의 기본 데이터와 별도로 하루 2GB의 데이터를 제공 받으며, 2GB를 다 써도 초당 3Mb의 속도로 데이터를 무제한 이용 가능하다. 데이터 2GB는 관광지 정보 검색 4천여회나 여행 사진 업로드 700여장 또는 음악 스트리밍을 약 24시간 이용할 수 있는 양이다. ‘제주도 프리’는 1~5일권을 온라인·모바일 T월드 또는 모바일 전용 홈페이지에서 구입한 후, 간단한 등록 절차를 거쳐 사용 가능하다. 1일권의 가격은 2천원(VAT포함)이며, 5일권은 20% 할인된 8천원(VAT포함)이다. SK 텔레콤은 관광객들 편의를 위해 ‘제주도 프리’를 출시와 함께 온라인 오픈마켓 및 모바일 상품권 몰, 여행사 홈페이지 등에서도 판매하고, 추후 제주도 편의점에서도 판매할 예정이다. SK 텔레콤 관계자는 “제주도 주요 관광지에서 데이터 사용량이 꾸준히 증가하는 추세에 맞춰, 제주도 전용 상품을 선보이게 됐다”며, “향후 데이터 사용량이 많은 지역 중심으로 특화 상품 출시를 확대할 것”이라고 밝혔다. [조세금융신문(tfmedia.co.kr), 무단전재 및 재배포 금지] 최일혁 기자 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 최신기사 1청년‧신혼부부 버팀목 대출, 오늘부터 한도 인상…최대 3억원 까지 2[예규·판례] 대법 "비리로 승진하고 하는 일 그대로면 오른 월급 반납" 3새출발기금, 공식 출범…코로나 피해 소상공인 채무조정 돕는다 4[시론] 부부간 자산의 무상이전으로 인한 세금의 완화방안 5국토부, 오늘부터 공간정보 활용 창업아이디어 공모전 신청 6포스코건설, 신반포 청구아파트 리모델링 1천810억원에 수주 7LH, 청년·신혼부부 매입임대 3,310호 공급…내일부터 청약 8"4억원 이하 1주택자, 6일부터 안심전환대출 신청받는다" 9중진공·소진공 '3년 만기연장·1년 상환유예' 추가지원 10금감원, 횡령사고 방비 위해 금융사 '순환근무·명령휴가제' 강화 전문가 코너 더보기 [전문가칼럼] 인후두염과 후비루로 본 목이물감과 입냄새 혜은당클린한의원 김대복 원장​ [전문가칼럼] 만성 뇌경색 진단은 보험에서 뇌졸중이 아닌가요? 한규홍 손해사정사 [전문가칼럼] 구매확인서 발급 의무화 제도 서판수 관세사 [전문가칼럼] 수용시 이것만은 꼭 기억하자! 이재홍 세무사 [전문가칼럼] 삶과 경제를 어렵게 하는 것들, 세력경쟁과 국론분열 구기동 신구대 교수 [전문가칼럼] RCEP의 불완전함을 대변하는 ‘관세차별’ 조항 고태진 관세사·경영학 박사 [전문가칼럼] 대한민국 글로벌 금융의 미래, 증권형 토큰 박은수 플랫타익스체인지 부대표 [전문가칼럼] 폐업과 해고의 관계 최문광 노무사 [전문가칼럼] 부동산 증여, 절세의 마지막 타이밍은 2022년 이장원 세무사 [전문가칼럼] 우리는 왜《논어》를 읽어야 하는가? 나단(Nathan) 작가 예규 · 판례 더보기 [예규·판례] 잔금일 앞당겼다가 일시적 3주택 보유…행법 "중과세 부당" [예규·판례] 대법 "근로복지공단, 파산기업 경매서 임금채권 우선 배당 가능" [예규·판례] 신용카드사 분담금의 소득구분 방식 및 용역의 공급 장소 [예규·판례] 대법 "세무사는 '상인' 아니므로 직무 채권 10년간 유효" [예규‧판례] 세금 감면받은 토지 공장 신축 후 남은 토지에 취득세 부과는 잘못 칼럼 인터뷰 [시론] 부부간 자산의 무상이전으로 인한 세금의 완화방안 (조세금융신문=안경봉 국민대 법대 교수) 부부간 자산의 무상이전으로 인한 세금문제에 대해 살펴보면, 현행 상속세 및 증여세법(상증세법)에서는 원칙적으로 배우자에 대한 증여나 상속에 대해 과세하지 않는다는 규정이 없으므로 생전에 부부 사이에 무상으로 재산을 증여하면 증여세, 부부 일방이 사망함으로써 타방이 재산을 상속하면 상속세가 부과된다. 다만, 배우자간 증여는 10년간 6억원까지 과세되지 않으며, 상속은 30억원까지 공제해 준다. 부부간 자산의 무상이전으로 인한 상속세와 증여세 실효세율 격차 상속세 배우자공제가 증여세 배우자공제에 비해 규모가 크다 보니 부부간 자산의 무상이전으로 인한 증여세의 실효세율이 상속세의 실효세율에 비해 일반적으로 높게 나타난다. 그러나 실증연구(강성훈·오종현, 상속과 증여에 대한 세부담 격차 연구, 2020)에 의하면 배우자 일방이 배우자 타방과 자녀들에게 상속 또는 증여하는 경우, 자녀수가 증가할 수록 상속세와 증여세의 실효세율 격차는 감소하는 것으로 밝혀졌다. 이와 같은 결과가 나타나는 것은 공동상속인의 수가 늘어날수록 배우자 상속분이 감소하게 되고, 이로 인해 상속세 배우자공제액도 작아지기 때문이다. 뿐만 아니라 상속세는 유 [데스크칼럼] 건강보험 국고지원금이 주머니 쌈짓돈인가 [김우일의 세상 돋보기] 대통령의 국정 독대보고, 故김우중 회장 본받아야 [시론] 금리인상이 부른 환율전쟁 [인터뷰] 이상민 나라살림연구소 수석전문위원, 첫 세제개편안…"반시장주의적 요소 넘쳐난다" (조세금융신문=고승주 기자) 정부가 고금리·고환율·고물가 경제위기에 대응해 감세정책의 시동을 걸었다. 법인세 인하와 다주택자 종부세 중과세 폐지 등을 두고 의견이 분분하다. 찬성 측에서는 이러한 조치가 곳간에 쌓여 있는 돈을 투자 등으로 흐르게 할 것이란 해석을 내놓는 반면, 거꾸로 돈이 한 곳에 더 고일 것이란 비판도 만만치 않다. 우리의 행동은 앞으로 수년, 수십 년, 수백 년에 걸쳐 영향을 미친다. 1000조에 가까운 사내유보금이 풀려 경제회복을 이끌어낼지 감세 조치로 인한 재정건전성에 미치는 영향은 없는 것인지 조세·재정 전문가이자 시장경제주의자의 진단을 들어봤다. 법인세 Q. 시장주의 입장에서는 돈이 한 곳에 머물러 있는 것을 제일 나쁘다고 본다. 윤석열 정부의 첫 세제개편이 고여 있는 돈을 풀리게 하는 효과가 있다고 보는가. 그렇지 않다. 돈이 고이는 거는 촉진하는데 돈이 빠지는 것에 대한 고려는 없었다. Q. 정부는 법인세를 내리면, 투자가 늘어날 것이라고 보는데. 개인적 가치판단을 배제하고 말씀드리자면 감세를 해도 장단점이 있고 증세를 해도 장단점이 있다. 감세를 했을 때 장단점이 무엇인지 국민에게 정확하고 솔직하게 말해야 한다. 장점은 기업의 [초대석] 수소인프라 구축 선도 기업, 한국가스기술공사 조용돈 사장 [인터뷰] 주영진 연수지역세무사회장, 소통과 화합의 '코로나프리' 지역세무사회 만들어야 [인터뷰] 형천호 안산중앙로타리클럽 신임회장 “회장은 자긍심 갖도록 하는 역할” 인기뉴스 1올해 보험계리사·손해사정사 시험 666명 최종 합격 2[분양 톡톡] 10월 첫째 주(10월 03일~10월 09일) 분양일정 3[지속가능경영] KB금융이 ESG에 꽂힌 이유…“선택 아닌 생존 문제” 4KT&amp;G, ‘반려해변’ 돌보기 등… 친환경 경영에 앞장 5“저금리로 갈아타세요”…오늘부터 자영업자‧소상공인 대환대출 시작 인사/동정 더보기 [인사] ABL생명 [인사] 금호타이어 승진 및 신규임원 [인사] 주택금융공사 전보 [인사] 산업통상자원부 국-과장급 전보 [인사] 행정중심복합도시건설청 승진 및 전보 회사소개 매체소개 광고문의 사업분야 개인정보취급방침 청소년보호정책 (책임자 : 송기현) 이메일 무단수집거부 기사제보 문의하기 알립니다 회사명 : 주식회사 조세금융신문 사업자 등록번호 : 107-88-12727 주소 : 서울시 강서구 마곡중앙로 161-8(마곡동) 두산더랜드파크 B동 8층 인터넷신문등록번호 : 서울, 아01713 등록일자 : 2011. 07. 25 제호 : 조세금융신문 발행인:김종상 편집인:양학섭 발행일자 : 2014. 04. 20 TEL : 02-783-3636 FAX : 02-3775-4461 Copyright @ All rights reserved. UPDATE: 2022년 10월 04일 09시 23분 최상단으로</t>
-  </si>
-  <si>
-    <t>이통사, 관광명소 '제주도'에 시선집중…"사물인터넷 효과 톡톡" 검색 2022-10-04 화요일 홈 경제 경제일반 산업 자동차/항공 조선/철강 화학/에너지 제약/바이오 중기 금융 증권 IT 전자 게임 유통 부동산 칼럼 정치 사회 연예 최신 영화 연예 스포츠 스포츠종합 축구 야구 농구 골프 여행 문화 기업PR 이통사, 관광명소 '제주도'에 시선집중…"사물인터넷 효과 톡톡" 2016-07-16 07:06:01 | 고이란 기자 | gomp0403@mediapen.com 페이스북 트위터 카카오톡 프린트 가 + 가 - [미디어펜=고이란 기자] 제주도를 방문하는 연간 관광객이 빠른 속도로 증가하고 있는 가운데 이동통신사들도 관광객을 위한 서비스 향상에 힘쓰고 있다. ▲ 제주도를 방문하는 연간 관광객이 빠른 속도로 증가하고 있는 가운데 이동통신사들도 관광객들을 위한 서비스 향상에 힘쓰고 있다. /사진=SK텔레콤 13일 제주도관광협회에 따르면 지난달 19일까지 제주도를 찾는 누적 관광객은 702만7130명으로 사상 최단 기간 연간 관광객 700만명을 돌파했다. 내국인은 553만690명, 외국인은 149만6440명이 방문했다. 협회는 여름 휴가가 본격적으로 시작되는 7~8월에 200만명의 관광객들이 찾을 것이라 전망했다. 이에 발맞춰 SK텔레콤은 제주도 내 인기 관광지 16곳과 새롭게 제휴해 T멤버십 고객에게 할인 혜택을 제공한다.이번 제휴를 통해 T멤버십 혜택을 받을 수 있는 곳은 제주도 내 ▲테마파크 6곳 ▲박물관 4곳 ▲수목원 3곳 ▲공연 1개 ▲체험 활동 2개 등으로 고객은 제휴처에 따라 20%에서 최대 58% 할인을 받을 수 있다.8월까지 T멤버십 고객이 제주도에서 관광 유형별로 한 곳씩 방문할 경우, 11만7000원~5만700원으로 약 56% 할인된 금액에 모두 이용할 수 있다. (제주 도라에몽 엑스포, 한울랜드, 상효원, 페인터즈 히어로, 세리월드 등 )SK텔레콤은 지난 1일 제주도를 방문한 관광객이 제주도 전역과 인근 도서에서 하루 종일 데이터를 마음껏 쓸 수 있는 데이터 쿠폰 ‘제주도 프리’를 선보이는 등 제주 지역 특화 서비스를 잇따라 출시하고 있다.제주도 프리 쿠폰을 구입한 고객은 사용 요금제의 기본 데이터와 별도로 하루 2GB의 데이터를 제공 받으며, 2GB를 다 써도 초당 3MB의 속도로 데이터를 한도 없이 이용할 수 있다. KT도 지난 2월 제주도와 ‘제주 스마트 관광섬 구축을 위한 업무협약’을 체결한 바 있다. 제주도를 ‘스마트 관광섬’으로 탈바꿈하겠다는 의지가 담겼다. KT는 제주도에 기가 사물인터넷(IoT)와 인프라 구축 노하우를 바탕으로 미래관광 사업모델을 제시해 왔다.KT그룹은 총 225억원 규모를 투자해 스마트 관광섬 인프라를 구축하고 제주 지역의 외국인 관광객 증가와 주민의 실질적 소득 증대에 기여할 계획이다.KT는 5년간 143억원을 투자해 ‘기가 와이파이’, ‘기가 인터넷’, ‘기가 비콘’ 등 기가 인프라 기반의 네트워크 서비스를 제공한다. 주요 관광지와 공공장소에 관광객이 무료로 사용할 수 있는 기가 와이파이 네트워크 1100여곳이 구축될 예정이다. BC카드와 KTH 등 그룹사도 82억원을 투자하는 등 전 KT그룹 차원에서 힘을 모은다.또한 KT는 그룹사인 BC카드, KTH, KT IS와 공동으로 지리정보시스템(GIS) 기반의 스마트관광 플랫폼을 구축한다. 스마트관광 플랫폼은 관광객의 빅데이터를 활용한 소비패턴 분석 등으로 관광정책 수립에 도움을 주고 외국인 관광객들이 보다 쉽게 내국세 환급(Tax Refund) 등 혜택을 누리는 데 기여할 것으로 예상된다. 황창규 KT 회장은 지난 협약식에서 “스마트 관광섬이 구축되면 외국인들이 한국을 찾았을 때 느끼는 언어 장벽, 정보 부족 등을 해결돼 더욱 많은 외국인 관광객이 제주도를 찾을 것으로 예상한다”며 “KT는 제주도가 한국 여행의 1번지에서 ‘한국 여행의 보물섬’으로 거듭날 수 있도록 그룹 차원의 지원을 아끼지 않겠다”고 강조 한 바 있다.[미디어펜=고이란 기자] ▶다른기사보기 [이런 기사 어때요?] ▶ "충성" 이통사, 장병들 위한 행보 '눈길'▶ 이통사, 사물인터넷(IoT) 향한 광폭행보…"이제 편리함이 달라요"▶ '여름휴가' 해외로 떠나는 당신, 이통사 로밍서비스 '주목'▶ '갤럭시7·G5' 수혜 예고…이통사 훨훨 날아오르나? &lt;저작권자 © 미디어펜 무단전재 및 재배포금지&gt; 회사소개 연혁 광고·제휴문의 청소년보호정책 이메일무단수집거부 인터넷신문 ( 윤리강령 | 심의규정 ) 서울특별시 종로구 새문안로3길 30 세종로대우빌딩 복합동 508호 전화번호 : 02)6241-7700 팩스 : 02)6241-7708 정기간행물ㆍ등록번호 : 서울 아 00574 등록일.발행일 2008.5.8 발행인 : 이의춘 편집인·편집국장 : 김태균 청소년보호책임자:김사성 Copyright © 2013 미디어펜. All rights reserved.</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 관광종사자 대상 '중국문화 향상과정' 교육 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 관광종사자 대상 '중국문화 향상과정' 교육 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 관광종사자 대상 '중국문화 향상과정' 교육 박성우 기자 headlinejeju@headlinejeju.co.kr 승인 2016.07.05 18:13 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(회장 김영진)와 제주한라대학교 직업훈련센터(소장 부순환)는 지난 4일부터 도내 관광종사원을 대상으로 하는 '중국문화 향상과정' 교육 프로그램을 운영중에 있다고 5일 밝혔다.이 교육 프로그램은 중화권 개별 관광객 증가 추세에 대비해 도내 관광사업체의 효과적인 현장 응대 서비스를 지원하기 위해 마련됐다. 원어민 강사를 초빙해 중국 문화, 중국어 회화 중심으로 집중 교육하게 된다.제주도관광협회 관계자는 "도내 관광산업의 질적성장을 위해서는 관광객의 만족도 증진이 우선시 돼야 하며, 그 기본은 원활한 의사소통이 돼야한다"며 "앞으로도 지속적인 외국어 및 글로벌 마인드 함양 교육 제공을 통해 대고객 서비스와 글로벌 마인드 함양에 기여할 것"이라고 말했다. &lt;헤드라인제주&gt;&lt;박성우 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 박성우 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도, 관광정보안내소 안내서비스 표준 매뉴얼 마련 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 관광정보안내소 안내서비스 표준 매뉴얼 마련 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 관광정보안내소 안내서비스 표준 매뉴얼 마련 편집팀 headlinejeju@headlinejeju.co.kr 승인 2016.07.12 14:18 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주도내 관광안내소 및 안내사의 서비스 향상을 위해 관광안내 서비스에 관한 표준 매뉴얼이 마련됐다.제주특별자치도는 '제주관광 질적성장 기본계획'의 후속조치로, 지난 5월 관광안내소를 운영하는 행정시, 관광협회, 제주관광공사 등 4개 기관이 참여해 실무협의체를 구성해 안내서비스 개선방안을 마련하는 한편, 고품질 안내서비스를 위한 표준화 작업을 추진 중에 있다고 12일 밝혔다.지난달 확정된 관광안내서비스 표준 매뉴얼에는 관광안내 기본사항을 비롯해, 대면 응대시 관광안내 요령 및 관광객 특성별․국적별 응대방법 등이 담겨있다.올 하반기에는 제주도내 관광안내사가 통일된 근무복을 입고 근무하면서 관광객에게 신뢰감을 줄 수 있도록 추진할 계획이다. &lt;헤드라인제주&gt;&lt;헤드라인제주 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도 내 구입한 관광 상품, 부가세환급 규정 신설 - 日刊 NTN(일간NTN) S2N98 × 전체기사 정책 전체 재정 /예산 / 결산 금융/증권/보험 건설 /주택/ 부동산 자원/에너지/환경 보건 / 복지 / 의료 /건강 고용 / 노동 / 창업 수출 / 무역 /교통 /물류 임금 / 소득 / 재테크 통계 / 지표 / 가계소득 세법 / 세제 / 조세 / 관세 IT/산업/과학 /미래 환율 / 물가 / 경기 생활/ 문화 / 교육 /기타 공무원 /공기업 / 공사 산업·기업 전체 기업일반 / 중소기업 /상공인 IT /과학 / 산업정책 유통/소비자 / 백화점 주류/담배/면세점 기업 공시 /경제 단신 대기업/ 임원/ 총수 자동차 / 물류 / 운송 /해운 자원 / 환경 / 전기,에너지 건설업 / 주택/ 부동산 예술/문화/ 연예/스포츠 은행 / 증권/ 보험 /카드 고용 / 노동/ 임금/ 노조 /소득 의료/건강/생활/여행 財테크/금융가이드/주식/펀드 CEO / 기업 동정 광고/ 이벤트/기타 유권해석 전체 예규 판례 심판례 심사례 헌재결정 상담사례 기타 조세행정 전체 내국세 지방세 관세 기금/부담금 사회보험 국제조세 기타 연말정산 / 환급 오피니언 전체 세정칼럼 데스크칼럼 취재수첩 오피니언 기타 건강칼럼 특별기고 시사영어 해외화제 오늘의 영어 유사단어 세종砲音 테마여행 사람들 전체 프리즘 거꾸로한마디 말말말 기타 동정 인사 부음 잔치 기타 인사기타 인터뷰/르뽀 안테나 전문가 전체 세무사 회계사 변호사 관세사 기타 연구소/ 연구원 교수 / 학계 법무법인/ 회계법인/ 세무법인 동서남북 전체 청와대 / 총리실 /감사원/외교부/통일부/국방부 기재부/통계청/조달청 국세청 / 조세심판원 관세청/지방세관 행자부/지방자치단체/인사혁신처/권익위 금감원/ 금융위 /한은/결제원 검찰 / 경찰/ 법원 /헌재/사고 공정거래위 국토교통부 국회/국회의원/당정회의 공공기관/협회 및 단체/기타 산업통상자원부 /중기청 한국거래소/증권선물위 보건복지/문화체육/미래창조/농림축사/환경/노동부 지방청/세무서 이슈/기획 전체 포커스 기획특집 탐사보도 기고 기타 현장탐방 뉴스브리핑 연재 전체 13th 월급, ‘연말정산 절세포인트’ 최동현세무사, ‘CEO의 절세비법’ 쟁점세법, 금주의 법령해석 성종헌 세무사의 알아두면 유익한 세금구제사례 알기쉬운 OECD모델 조세협약 국세청 법인세 사후검증 사례 한성수 세무학 박사의 알기 쉽게 번역된 2012년 OECD모델조세 협약 김종관 세무사의 조세불복 비법 창간축사 만화 연합뉴스 전체 기타 정치 경제 사회 문화 스포츠/레저 국제 지방 IT/과학 북한 민족 경제 금융 일반 스포츠 특집 연예 UPDATED. 2022-10-04 10:01 (화) 로그인 회원가입 모바일웹 전체 정책 재정 /예산 / 결산 금융/증권/보험 건설 /주택/ 부동산 자원/에너지/환경 보건 / 복지 / 의료 /건강 고용 / 노동 / 창업 수출 / 무역 /교통 /물류 임금 / 소득 / 재테크 통계 / 지표 / 가계소득 세법 / 세제 / 조세 / 관세 IT/산업/과학 /미래 환율 / 물가 / 경기 생활/ 문화 / 교육 /기타 공무원 /공기업 / 공사 산업·기업 기업일반 / 중소기업 /상공인 IT /과학 / 산업정책 유통/소비자 / 백화점 주류/담배/면세점 기업 공시 /경제 단신 대기업/ 임원/ 총수 자동차 / 물류 / 운송 /해운 자원 / 환경 / 전기,에너지 건설업 / 주택/ 부동산 예술/문화/ 연예/스포츠 은행 / 증권/ 보험 /카드 고용 / 노동/ 임금/ 노조 /소득 의료/건강/생활/여행 財테크/금융가이드/주식/펀드 CEO / 기업 동정 광고/ 이벤트/기타 유권해석 예규 판례 심판례 심사례 헌재결정 상담사례 기타 조세행정 내국세 지방세 관세 기금/부담금 사회보험 국제조세 기타 연말정산 / 환급 오피니언 오피니언 세정칼럼 데스크칼럼 취재수첩 기타 건강칼럼 특별기고 시사영어 해외화제 오늘의 영어 유사단어 세종砲音 테마여행 사람들 프리즘 거꾸로한마디 말말말 기타 동정 인사 부음 잔치 기타 인사기타 인터뷰/르뽀 안테나 동서남북 청와대 / 총리실 /감사원/외교부/통일부/국방부 기재부/통계청/조달청 국세청 / 조세심판원 관세청/지방세관 행자부/지방자치단체/인사혁신처/권익위 금감원/ 금융위 /한은/결제원 검찰 / 경찰/ 법원 /헌재/사고 공정거래위 국토교통부 국회/국회의원/당정회의 공공기관/협회 및 단체/기타 산업통상자원부 /중기청 한국거래소/증권선물위 보건복지/문화체육/미래창조/농림축사/환경/노동부 지방청/세무서 본청 서울청 중부청 대전청 광주청 대구청 부산청 기사검색 검색 이전 다음 제주도 내 구입한 관광 상품, 부가세환급 규정 신설 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 동서남북 국회/국회의원/당정회의 제주도 내 구입한 관광 상품, 부가세환급 규정 신설 이혜현 기자 승인 2016.07.15 10:39 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × S2N98 강창일 의원, 조세특례제한법 일부개정 법률안 대표발의 제주특별자치도 여행객에 대한 부가가치세 환급제도가 실시되지 못하고 있는 실정을 개선하려는 움직임이 일고 있다.강창일 더불어민주당 의원은 제주특별자치도 여행객에 대한 부가가치세 환급을 규정하는 것을 골자로 조세특례제한법 일부개정안을 대표 발의했다고 15일 밝혔다.국회는 2011년 5월 제주특별자치도 여행객이 도내에서 구입·소비하는 관광 관련 재화·용역에 대해 조세특례제한법에서 정하는 바에 따라 부가가치세액을 환급할 수 있도록 하는 제주특별자치도 설치 및 국제자유도시 조성을 위한 특별법을 의결해 시행했다.하지만 현재까지 조세특례제한법 개정이 이뤄지지 않아 제주특별자치도 여행객에 대한 부가가치세환급제도가 실시되지 못하고 있는 실정이다.이에 대해 강 의원은 “제주특별자치도 여행객에 대한 부가가치세 환급을 규정함으로써 제주특별자치도의 관광경쟁력을 높일 필요가 있다”고 밝혔다.또 “현행법은 버스, 지하철 등 대중교통수단의 이용대가를 신용카드 등으로 지급 시 해당 금액의 100분의 30을 소득공제하고 있으나 제주특별자치도 도민들은 육지로 이동하기 위해서 주로 항공기를 이용하는 실정을 고려해 신용카드 등을 사용해 항공기의 이용대가를 지급한 경우소득공제 대상으로 규정해야 한다”고 주장했다.강 의원이 발의한 조세특례제한법이 일부 개정안의 주요 내용은 다음과 같다.제주특별자치도 여행객이 제주특별자치도 설치 및 국제자유도시 조성을 위한 특별법 제255조에 따른 관광 관련 재화·용역을 구입·소비하는 경우, 부가가치세액을 환급하는 내용을 담은 제121조의 14 제1항을 신설했다.제주특별자치도 여행객 1인이 환급받을 수 있는 부가가치세액의 한도는 제주특별자치도 방문 1회당 10만원 이하로 정하고 연도별로 6회까지 환급받을 수 있다는 내용을 담은 제121조의 14 제2항 신설했다.그 밖에 제주특별자치도 도민들이 육지로 이동하기 위해 신용카드 등을 사용해 항공기 이용대가를 지급한 경우, 신용카드 등 사용금액에 대한 소득공제를 받을 수 있도록 제126조의 2제2항을 신설했다. 저작권자 © 日刊 NTN(일간NTN) 무단전재 및 재배포 금지 이혜현 기자 che8411@intn.co.kr 다른기사 보기 부산국세청,중소기업 세무컨설팅 제도 현장 설명회 개최 김창기 청장, 디지털세 2024년 집행 국제협력 방안 등 논의 거주 이전 위한 ‘부득이한 3주택’…중과세율 적용 안 돼 ‘최저가 강요’ 배달앱 요기요, 공정거래법 위반 혐의 1심서 무죄 30일 시간 외 화일약품 종가대비 9.18% 하락 마감 [정창영 칼럼] 정부 정책 믿어야 하나, 세법도 걱정이다 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 가장 많이 본 기사 1[정창영 칼럼] 정부 정책 믿어야 하나, 세법도 걱정이다 229일 시간외 네이처셀·흥국화재2우B…9.97·9.86%↓ 3HL만도 조성현 수석 사장· HL홀딩스 김광헌 사장 임명 등 HL그룹 인사 단행 4최저신용자 특례보증 기본대출금리 15.9%,금융위 대부업자인가? 528일 시간외 이엔플러스·SCI평가정보·비엘팜텍…9.99·9.87·9.64%↑ 6국세청, "잊고 있던 소득세 환급금 2744억원 찾아가세요" 7수상한 해외송금 10조 수사압박 본격화… 우리·신한은행 압수수색 8[세무법인 다솔의 ‘절세 노하우’ 세무상담] 상속세와 부동산의 물납 95년간 행안부 국고보조금 부정수급 2억 3천만원 적발, 절반 미환수 10[국세 예규] “적격 합병, 피합병법인 ‘기한 경과 결손금’ 승계 안 돼” 최신 판례 거주 이전 위한 ‘부득이한 3주택’…중과세율 적용 안 돼 ‘최저가 강요’ 배달앱 요기요, 공정거래법 위반 혐의 1심서 무죄 업무 관련 지인과 골프모임 가진 공무원 “정직 처분 정당” GS그룹 오너 일가도 주식 양도세 소송 승소…“23억 부과 취소” "물가변동 급등 '계약 분쟁' 곳곳에서 터진다"...적극 대응 시급 이시각 헤드라인 기업뉴스 30일 시간 외 화일약품 종가대비 9.18% 하락 마감 30일 시간외 시티랩스·오픈엣지테크놀로지…10·5.21%↑ 검찰, 대명종합건설 조세포탈 혐의 수사 착수 서울경찰청, 자본시장법 위반 혐의 일양약품 조사중 KCC, 숲·환경 보호 켐페인 ‘숲디가드’ 프로젝트 실시 세정가 현장리포트 부산국세청,중소기업 세무컨설팅 제도 현장 설명회 개최 부산국세청,중소기업 세무컨설팅 제도 현장 설명회 개최 부산지방국세청(청장 노정석)은 29일 울산세무서 대강당에서 울산지역 자동차·선박 등 중소기업 관계자들이 참석한 가운데 중소기업 세액공제·감면 세무컨설팅 제도 현장 설명회를 개최했다... 김창기 청장, 디지털세 2024년 집행 국제협력 방안 등 논의 김창기 청장, 디지털세 2024년 집행 국제협력 방안 등 논의 국세청은 김창기 청장이 28일부터 30일까지 호주 시드니에서 개최되는 제15차 OECD 국세청장회의에 참석했다고 30일 밝혔다.올해는 OECD 국세청장회의 설립 20주년을 맞이하는... 사람들 동정 인사 잔치 부음 삼정KPMG, 10월 5일 전자-IT산업 대상 ‘ESG 세미나’ 개최 기획재정부의 공공기관 운영 문제점과 개선방안 정책토론회 개최 관세청, 적극행정 우수 직원 선정·포상 관세청 배우 송승헌 홍보대사에 위촉 윤태식 관세청장, 3차 한-인도 관세청장 회의 개최 [인사] 관세청 고위공무원 승진 전보 [인사] 공정위 과장급 전보(2022.09.20.字) [인사] 공정위 과장급 전보(2022.09.19.字) [인사] 공정거래위원회 [인사] 공정위 국장급 전보(2022.09.13.字) [결혼] 정삼진 前 남대문세무서장 아들 [결혼] 이한종 세무법인 화우 대표세무사 장녀 [결혼] 최 훈 세무사(전 중부지방세무사회 부회장) 딸 김재철 전 중부지방국세청장, 세무사로서 제2의 인생 출발 김태윤 전 반포서 재산세과장, 예일세무법인에서 새출발 이동준 골드컨트리클럽·코리아컨트리클럽 회장 별세 [부음] 이헌복 미래에셋자산운용 자산배분부문대표 장인상 [부고] 신한은행 홍보부 수석 김은석 부친상 [부고] 송기봉 전 광주지방국세청장 빙모상 [부고] 황영순 세무사(한국세무사회 이사) 모친상 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 마포구 잔다리로3안길 46(서교동), 국세신문사 대표전화 : 02-323-4145~9 팩스 : 02-323-7451 청소년보호책임자 : 이예름 법인명 : (주)국세신문사 제호 : 日刊 NTN(일간NTN) 등록번호 : 서울 아 01606 등록일 : 2011-05-03 발행일 : 2006-01-20 발행인 : 이한구 편집인 : 이한구 日刊 NTN(일간NTN) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 日刊 NTN(일간NTN) . All rights reserved. mail to ntn@intn.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도 중문관광단지 별장형 오피스텔 ‘더바른’ 분양 - 국토일보 × 전체기사 사설 뉴스 전체 건설 부동산 환경 업계 CM/ENG 자재/장비 철도/항만 에너지 신기술 기획/특집 인터뷰 지방종합 국토문화 기업탐방 인사/동정/부고 입찰공고 입찰정보 특별좌담 논단 글로벌CEO 인터뷰 IT 금융·경제 교통/물류 문화·체육 건설인 축구동호회 탐방 국토정보 안전 오피니언 전체 기자수첩 국토논단 기고/논단 제언 時談事談 (시담사담) 칼럼 전체 의학상식 데스크 칼럼 재테크 칼럼 건설전문가 자유칼럼 국토일보 현장 25時 구인구직 전체 구인/구직 온라인건설일보 건설환경기술대상 건설문화대상 건설사진공모전 카드뉴스 UPDATED. 2022-10-04 10:05 (화) 로그인 회원가입 모바일웹 뉴스 건설 부동산 환경 업계 CM/ENG 자재/장비 철도/항만 에너지 신기술 기획/특집 인터뷰 지방종합 국토문화 안전 칼럼 데스크 칼럼 오피니언 의학상식 기고/논단 전문기자 Review 커뮤니티 공지사항 행사 건설환경기술대상 건설문화대상 건설인 축구대회 건설사진공모전 기사제보 구독신청 국토일보TV 기사검색 검색 이전 다음 제주도 중문관광단지 별장형 오피스텔 ‘더바른’ 분양 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 부동산 제주도 중문관광단지 별장형 오피스텔 ‘더바른’ 분양 이경옥 기자 승인 2016.07.12 11:37 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [국토일보 이경옥 기자] 제주도는 매년 인구가 크게 늘면서 수요가 큰 폭으로 증가 한데 반해 공급이 부족하다 보니 임대수익률이 전국 최고치를 기록하고 있다.통계청 자료에 따르면 2015년 제주도로 유입된 순 이동인구는 1만4,257명으로, 이는 경기도(9만4,768명)와 세종시(5만3,044명)를 제외하고 가장 높은 수치다.이처럼 제주도 인구수는 해마다 증가하고 있는 상태로 이러한 인구증가는 제주도 부동산 시장의 호황으로 이어졌다. 실제로 부동산114에 따르면 지난해 제주도 아파트 평균 매매가격과 평균전세가격은 각각 8.75%, 9.47%가 올랐으며, 땅값도 평균 7.5%가 올랐다.그 중에서도 오피스텔의 수익률이 가장 주목 할만하다. 지난해 제주도의 연간 오피스텔 임대 수익률은 10.1%로 강남권역 수익률 5.0%(2016년 2월 기준)보다 2배 이상 높은 수치를 보였으며, 제주도를 제외하고는 오피스텔 연간 임대수익률이 10%를 넘는 지역이 전무했다.이에 제주도 중에서도 가장 높은 인구 유입률과 개발가능성을 갖추고 있는 서귀포시 일대의 오피스텔이 분양 호황기를 맞고 있는 가운데, 중문관광단지 주변에 위치한 ‘더바른’ 오피스텔이 분양 중이다.서귀포시는 ‘제주 제2공항’ 개발을 비롯해 신화역사공원(외국인카지노, 복합리조트, 컨벤션, 공연장, 쇼핑몰), 헬스케어타운(의료복합단지, 의료연구단지), 영어국제교육도시, 서귀포관광미항, 강정크루즈항 등 다량의 대규모 개발사업들이 집중될 계획으로 더바른 또한 이러한 각종 개발호재를 품을 수 있게 될 전망이다.해당 오피스텔은 전용면적 61.95㎡의 48실과 2가지 타입의 전용면적 35.65㎡ 32실, 총 80실의 2개 단지로 구성되며, 전용면적 61.95㎡은 전 가구 3-bay 평면으로 개방감을 극대화 했다.전 가구 남향배치 된 가구 내로는 시스템에어컨, 세탁기, 냉장고, 제습기 등 생활에 필요한 풀옵션 주거시스템을 갖추고 있으며, 1층 필로티 설계를 통해 넉넉한 주차공간을 확보했다.단지 주변으로 다양한 생활인프라가 조성돼 있는 것도 장점이다. 인근에 대형마트, 체육센터 등이 조성돼 있으며, 도보통학권에 중문초, 중문중학교가 위치하고 있다.또한 입주민들은 서귀포의 대표관광지인 중문해수욕장, 주상절리, 대포항, 중문CC 등을 가깝게 이용할 수 있으며, 단지 1㎞ 내에 조성돼 있는 제주국제컨벤션센터 이용이 편리하다.아시아신탁 및 하이스트 종합건설에서 시공, 현재 계약금 500만원 정액제 및 중도금 60% 무이자 등의 혜택을 제공 중이다. 준공예정일은 2017년 1월이다.이경옥 기자 kolee@ikld.kr 저작권자 © 국토일보 무단전재 및 재배포 금지 이경옥 기자 다른기사 보기 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 뉴스레터 신청하기 이름 회사명 이메일 확인 ​ 인기기사 1롯데건설, ‘창원 롯데캐슬 하버팰리스’ 분양 2계양구에 시세보다 저렴한 아파트 ‘인천 작전 한라비발디’ 본격 분양 3구미국가산업단지 품은 핵심 배후주거지 'e편한세상 구미상모 트리베뉴' 주목 4휴스틸, 상반기 영업이익 1천억원 달성에 이어 과감한 승부수 던져 5만점입지에 낮은 분양가 'e편한세상 사천 스카이마리나' 호평 6우미건설, 10월 '음성 우미린 풀하우스' 분양 앞두고 '우미린 카페' 운영 7대우 vs 롯데, 한남2구역 재개발 한판승부 8매탄동 동남빌라 재건축지역주택조합, 창립총회 개최 9[심층취재] 건축자재 화재 안전성능 검증제도 현실성 결여 ‘문제’ 10첨단 기술력 갖춘 스마트홈 '더샵 군산프리미엘' 본격 분양개시 최신기사 “국토교통부 산하 공공기관 2천명 감축… 대부분 무기직으로 생색내기다” “국토교통부 산하 공공기관 2천명 감축… 대부분 무기직으로 생색내기다” SRT 부정승차 방지 위한 특별 기동검표 강화 현대건설-인천항만공사, ESG 경영 공동추진 업무 협약 체결 현대건설-인천항만공사, ESG 경영 공동추진 업무 협약 체결 포스코건설, 신반포 청구아파트 리모델링 사업 수주 포스코건설, 신반포 청구아파트 리모델링 사업 수주 유경준 의원, LH 수요예측 실패… ‘분양·임대주택 청약미달’ 지적 유경준 의원, LH 수요예측 실패… ‘분양·임대주택 청약미달’ 지적 ‘시화 MTV 디아티크’ 이달 분양 ‘시화 MTV 디아티크’ 이달 분양 중도금 전액 무이자 혜택… 현대ENG '힐스테이트 과천 디센트로' 선착순 분양 중도금 전액 무이자 혜택… 현대ENG '힐스테이트 과천 디센트로' 선착순 분양 신문사소개 윤리강령 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 동작구 사당로 264-1 썬빌딩 2층 대표전화 : 02-712-5678 팩스 : 02-712-6262 청소년보호책임자 : 김광년 명칭 : 주식회사 국토일보 (1994년 건설일보사로 출범) 제호 : 국토일보 인터넷신문 등록번호 : 서울 아 04947 등록일 : 2018-01-24 발행인·편집인 : 김광년 국토일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국토일보. All rights reserved. mail to kld@ikld.kr 위로</t>
+    <t>제주도 안전관리실장 홍성택, 신설 관광국장 이승찬 발탁 - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 제주도 안전관리실장 홍성택, 신설 관광국장 이승찬 발탁 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 제주도 안전관리실장 홍성택, 신설 관광국장 이승찬 발탁 제주CBS 박정섭 기자 메일보내기 2016-07-27 11:29 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 제주도, 2016 하반기 인사 단행…일 중심과 업무 연속성 반영 제주도청 전경. (사진=제주도청 제공) 제주도는 제주도 안전관리실장에 홍성택 수자원본부장을, 전국 최초로 신설되는 제주도 관광국장에 이승찬 예산담당관을 발탁하는 등 28일 자로 2016년도 하반기 인사를 단행했다. 이번 인사는 실질적인 민선6기 첫 조직개편과 미래비전 실행력을 뒷받침할 수 있는 인적 쇄신에 중점을 두면서도 일 중심과 업무의 연속성을 동시에 감안해 이뤄졌다. 올 상반기 57년생 고위 공무원들의 용퇴 결정에 국장급 인사 폭이 커지면서 문화와 환경, 1차산업 등 전략산업 분야 간부공무원은 업무 연속성과 전문성을 고려해 배치했다.청렴도 평가 결과에 따라 공직내부의 잘못된 관행을 단절하기 위해 비위 공무원에 대한 일벌백계 차원의 인사도 반영됐다.이번 인사를 통해 2급 1명, 3급 9명, 4급 14명 등 127명이 승진하고, 562명이 전보됐다.주요 실·국장 보직 인사를 보면 ‘제주형 건전 재정모델’을 구축했던 이승찬 예산담당관이 전국 최초로 신설되는 관광국장으로 승진 발탁됐다.홍성택 수자원본부장은 종합적인 위기관리 능력을 인정받아 안전관리실장으로 발탁되면서 이사관으로 직급 승진하고, 김현민 문화정책과장은 문화산업 육성기반 구축 성과가 인정돼 문화체육대외협력국장으로 승진했다.김창선 해양수산연구원장은 해양수산국장으로, 김영진 국제자유도시건설교통국장은 상하수도본부장으로 발령됐다.감귤과 식품가공산업 등 1차산업의 명품화를 위해 윤창완 감귤특작과장이 농축산식품국장으로 발탁되고, 김창선 해양수산연구원장은 해양수산국장으로, 김영진 국제자유도시건설교통국장은 상하수도본부장으로 발령됐다.문원일 경제통산산업국장이 전략산업 육성과 환경 분야 업무 연속성을 위해 전략산업추진본부장을 겸직하고, 김양보 환경보전국장도 청정제주 이미지 제고를 위해 유임됐다. 세계유산 한라산연구원과 한라산국립공원사무소가 통폐합돼 직급이 3급으로 격상된 세계유산본부장엔 김홍두 평생교육과장이 승진 임용됐다제주시의 활력과 소통, 적극적인 행정 구현을 위해 조상범 특별자치추진단장은 제주시 부시장으로 승진 발령됐다.4급 승진자는 직무대리 발령 순서와 승진후보자 명부 순위를 반영해 총무과장에 김일순, 평화대외협력과장에 강동우, 수산정책과장에 조동근, 생활환경과장에 윤승언, 교통관광기획팀장에 강동우, 수산정책과장에 조동근, 생활환경과장에 윤승언, 교통관광 기획팀장에 현대성, 인재개발원 사회교육과장에 오영복, 상수도부장에 김상운, 동물위생시험소장에 이성래, 돌문화공원관리소장에 한정운, 도의회 전출에 강승옥, 서귀포시 전출에 한상기 김찬호, 환경부 인사교류에 고철주, 중국파견에 현홍직 서기관 등이 승진했다. 이와 함께 평생교육과장에 양석하, 도시재생과장에 김양훈, 도로관리과장에 김창우, 기업통상과장에 고봉구, 미래에너지과장에 임수길, 친환경농정과장에 전병화, 해양산업과장에 이기우, 골목상권살리기추진팀장에 김명옥, 한라산연구부장에 정성호, 감사위원회 심의과장에 고종석 사무관 등이 직위 승진했다.이와 함께 행정시가 소통행정과 적극행정 추진에 박차를 가할 수 있도록 행정시장의 의견을 최우선으로 고려, 5급 이상 교류 40명, 6급 이하 56명이 인사에 반영됐다. 더 클릭 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 15살 성매수·몰카 찍은 30대…요구 거부하자 "전세계로 퍼진다" 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 "좋은 냄새난다" 병사들 상습 추행 …"징계 가혹"하다는 군 간부 [르포]'나눔이·농부' 판치는 다크웹…'마약과의 전쟁' 비웃나 군 "北 저수지 탄도미사일, 한미 '킬 체인' 의식"…실효성은 글쎄? [칼럼]핵위협 공포에 휩싸인 한반도 노벨상 버냉키, 후배 조언 요청에 "내 인생의 교훈은…" 이재명 "종북몰이 공세, 친일파 같아…한미일 훈련, 尹 소명해야" '택시 연 매출, 배달업의 1/3에 불과' 제주CBS 박정섭 기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 전국 최초 관광局 신설...초대 국장에 이승찬 예산담당관 | Save Internet 뉴데일리 기사 공유하기 페이스북 트위터 카카오 블로그·카페 밴드 메일 https://biz.newdaily.co.kr/site/data/html/2016/07/27/2016072710059.html 주소 복사 주소가 복사되었습니다. 원하는 곳에 붙여넣기 하세요 검색 최신기사 정책 산업 부동산 IT·전자 금융·증권 유통 에너지·화학 제약·의료 오피니언 뉴데일리 뉴데일리경제 뉴데일리TV 대구·경북 충청·세종·강원 시장경제신문 브랜드브리프 칸라이언즈 회사소개 광고 및 제휴 Copyright © Newdaily All rights reserved. 제주도 전국 최초 관광局 신설...초대 국장에 이승찬 예산담당관 제주도 하반기 정기인사...2급 안전관리실장에 홍성택 종합 양원석기자의 다른 기사 보기 입력 2016-07-27 14:20 | 수정 2016-07-27 14:48 ▲ 제주특별자치도청. ⓒ 사진 연합뉴스 제주특별자치도가 27일, 올해 하반기 정기인사를 단행했다. 도내 57년생 국장급 간부들의 용퇴 선언으로, 일찌감치 지방부이사관(3급) 승진자가 늘어날 것이란 전망은 그대로 적중해, 국장급 9명의 얼굴이 바뀌었다.이번 인사 최고위직인 2급 안전관리실장에는 ‘종합적인 안전관리 능력’을 인정받은 홍성택 수자원본부장이 직급 승진했으며, 제주도가 전국에서 처음 신설한 관광국장에는 이승찬 예산담당관이 선택을 받았다.도는 이승찬 국장 발탁에 대해 “예산절감, 성과주의 예산, 참여확대 예산 원칙을 바탕으로 ‘제주형 건전 재정모델’을 구축한 성과를 인정받았다”고 설명했다.이번 인사에서 자리를 옮긴 공무원은 승진 127명, 전보 562명이다. 승진자는 직급별로 2급 1명, 3급 9명, 4급 14명 등이다. 제주도는 이번 인사에 대해 “일과 업무연속성을 최우선 기준으로 삼았다”고 총평했다.도는 이어 ▲전기차, 신재생에너지 등 전략산업 및 1차 산업 분야 기능 및 인력보강 ▲공직사회 기강확립을 위한 청령도 평가 반영 ▲행정시(제주시 및 서귀포시) 인력 및 기능강화 ▲도와 행정시의 인적교류 정례화 등의 요소를, 이번 인사에 비중 있게 반영했다고 덧붙였다.도는 실국장 등 주요 보직 인사에 대해서는 “문화와 환경, 1차 산업과 전기차 등 전략산업분야 간부공무원은 업무연속성과 전문성을 고려하고, 젊은 고시출신 간부들은 중앙부처 교류와 행정시 등에 전진 배치했다”고 밝혔다.주요 보직 인사를 보면, 문화체육대회협력국장에 김현민 문화정책과장, 농축산식품국장에는 윤창완 감귤특작과장이 그 동안의 성과 및 능력을 인정받아 내부 승진했다.해양수산국장에는 김창선 해양수산연구원장, 상하수도본부장에는 김영진 국제자유도시건설교통국장이 발령을 받았다.문원일 경제통상산업국장은 업무연속성을 고려해 전략산업추진본부장을 겸직하고, 김양보 환경보전국장은 유임됐다.세계유산 한라산연구원과 한라산국립공원사무소 조직을 흡수해 새로 만들어진 세계유산본부장엔 김홍두 평생교육과장이 부름을 받았으며, 제주시 부시장에는 조상범 특별자치추진단장이 승진 임명됐다. 양원석							wonseok@newdaily.co.kr 기자의 다른 기사 보기 보도자료 및 기사제보 press@newdaily.co.kr [자유민주·시장경제의 파수꾼 – 뉴데일리 newdaily.co.kr] Copyrights ⓒ 2005 뉴데일리뉴스 - 무단전재, 재배포 금지 생생 헤드라인 뉴스 이 시각 주요뉴스와 만나보세요. 기준금리 3%시대 온다… 빅스텝 D-1 집 팔아도 빚 못 값는다… '고위험 가구' 부채 69조4000억원 'GTX-B' 급발진한 국토부… 계약방식 '패싱'당한 철도공단 '씁쓸' 기준금리 3%시대 온다… 빅스텝 D-1 집 팔아도 빚 못 값는다… '고위험 가구' 부채 69조4000억원 'GTX-B' 급발진한 국토부… 계약방식 '패싱'당한 철도공단 '씁쓸' TSMC에 1위 내준 삼성… 반도체 승부수 '파운드리' '쌍둥이 적자' 위기 증폭…재정 -86.8兆·경상 -30.5억불 르노코리아, 빠른 출고·XM3 하이브리드로 '반격' [단독] KT&amp;G '릴' 신제품 11월 출시… 아이코스와 정면 승부 뉴데일리 댓글 운영정책 라이브리 댓글 작성을 위해 Javascript를 활성화 해주세요. 자동차 르노코리아, 빠른 출고·XM3 하이브리드로 ‘반격’.. 제네시스, 부산국제영화제에 ‘브랜드 존’ 운영… G90 LWB 등 5대 전시.. 르노코리아 QM6, 세단 정숙성과 SUV 적재능력 갖춘 '팔방미인'.. 크리에이티비티 [칸 라이언즈 서울 2022] 방종환 트위치코리아 대표 "Z세대가 사회 변화 .. [칸 라이언즈 서울 2022] 성현제 HS애드 팀장 "AI가 대체 어려운 고객.. [칸 라이언즈 서울 2022] 박윤진 서울라이터 발행인 “직장 영원하지 않아... 금융·산업 르노코리아, 빠른 출고·XM3 하이브리드로 ‘반격’.. 인천·수원 KTX 사업 지연이 갑질 때문?… 현대로템 “납품에 최선 다했다”.. 제네시스, 부산국제영화제에 ‘브랜드 존’ 운영… G90 LWB 등 5대 전시.. IT·과학 [데일리 IT 단신] LGU+, 하나은행과 키즈전용 금융서비스 선봬 外.. TSMC에 1위 내준 삼성… 반도체 승부수 '파운드리'.. 中, 美 반도체 통제에 '희토류' 수출 규제 만지작.. 오피니언 [취재수첩] 여야 정쟁으로 얼룩진 과방위 국감, 정책 논의 ‘실종’ [취재수첩] 일상 회복되자 다시 규제… 편의점 자가검사키트, 해답은 없을까 [취재수첩] 일양약품 수사… 꿈만 쫓은 코로나 치료제의 민낯 [취재수첩] '시작이 반', 카카오게임즈의 소통 [취재수첩] 한미약품 '뚝심 R&amp;D' 글로벌 신약 결실… 이제 시작이다 부동산 부동산R114, 개업공인중개사 경쟁력 강화 지원…더비즈와 업무협약.. 대우건설, 우즈벡 민관합동사업(PPP) 적극 참여.. 현대건설, 2조원대 比 남부도시철도공사 본계약 체결.. 회사소개 오시는 길 인재채용 제휴안내 회원약관 저작권안내 이메일 무단수집거부 개인정보처리방침 청소년보호방침(책임자: 국승환) 광고문의 보도자료 : press@newdaily.co.kr 기사제보 제안마당 법인명: 뉴데일리(주) | 제호명: 뉴데일리 | 주소:（100-120） 서울시 중구 남대문로 5가 120 단암빌딩 3층 | 등록번호: 서울 아00115 | 등록일: 2005년 11월 9일 | 발행인: 이성복 · 편집인: 이진광 대표전화: 02-6919-7000 | 정치·사회 편집국: 02-6919-7002 | 경제 편집국: 02-6919-7003 | 광고국: 02-6919-7012 | 팩스: 02-702-2079 Copyright © Newdaily All rights reserved.</t>
+  </si>
+  <si>
+    <t>[내수를 살리자]T멤버십 고객에 제주도 인기 관광지 16곳 최대 58% 할인 혜택 본문바로가기문장공유트위터카카오톡 전체메뉴 검색 최근검색어 최근 검색어 내역이 없습니다. 검색어 저장 끄기 닫기 읽기모드공유하기북마크로그인공유하기닫기 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아일보|경제 [내수를 살리자]T멤버십 고객에 제주도 인기 관광지 16곳 최대 58% 할인 혜택 박성진 기자 입력 2016-07-25 03:00업데이트 2016-07-25 03:00 글자크기 설정 레이어 열기 뉴스듣기 프린트 글자크기 설정 가 가 가 가 닫기 SK그룹은 얼어붙은 국내 경기 활성화에 도움이 되고자 본격적인 여름휴가철에 맞춰 임직원들의 국내 여행을 장려하고 있다. 계열사별로는 국내 관광객들의 편의를 위한 상품과 혜택을 제공하면서 내수경제에 활력을 불어넣고 있다. 우선 임직원들이 여름휴가를 국내에서 보낼 수 있도록 다양한 제도를 마련해 장려하고 있다. 대부분의 SK그룹 관계사는 전국 휴양시설과의 연계를 통해 국내 여행을 위한 편의를 제공하고 있다. 특히 여름철 성수기에 국내 여행을 떠나는 구성원들의 불편함을 덜고자 회사와 제휴한 기존 휴양소들 외 국내 유명 관광지를 중심으로 새롭게 휴양소를 빌려 추가 운영하고 있다. 또한 정해진 여름휴가 외에도 연차 사용 계획을 수립하고 월 단위로 연차 사용 현황을 알려주는 등 연차 사용 촉진 제도를 운영함으로써 휴가 사용을 독려하고 있다. SK그룹 계열사들도 휴가철에 맞춰 다양한 프로모션과 신상품 출시를 통해 국내 관광을 활성화하고 지역 경제에 활기를 불어넣기 위해 애쓰고 있다. SK텔레콤은 이달 1일 관광객들이 제주도 전역 및 인근 도서에서 하루 종일 데이터를 마음껏 쓸 수 있도록 하는 데이터 쿠폰 ‘제주도 프리’를 선보였다. ‘제주도 프리’ 쿠폰을 구입한 고객은 사용 요금제의 기본 데이터 외에 별도로 하루 2GB(기가바이트)의 데이터를 제공받으며 2GB를 다 써도 초당 3Mb(메가비트)의 속도로 한도 없이 이용할 수 있다. SK텔레콤은 휴가철 국내 관광객 편의 확대의 일환으로 제주도 지역 특화 서비스를 선보이고 있다. SK텔레콤은 제주도 내 인기 관광지 16곳과 새롭게 제휴해 13일부터 T멤버십 고객에게 할인 혜택을 제공하기 시작했다. 이번 제휴를 통해 T멤버십 혜택을 받을 수 있는 곳은 제주도 내 △테마파크 6곳 △박물관 4곳 △수목원 3곳 △공연 1개 △체험 활동 2개 등으로 고객은 20%에서 최대 58% 할인을 받을 수 있다. SK에너지는 여름휴가 시즌 동안 국내 자동차 여행을 떠나는 고객들이 실질적 혜택을 누릴 수 있는 프로모션을 실시하고 있다. SK에너지는 이달 초부터 8월 말까지 현재 전국 SK주유소에서 OK캐쉬백 3000포인트로 약 3만 원 상당의 한정판 ‘카센터’ 블록 또는 ‘3M 생활용품 세트’ 중 하나를 받을 수 있는 ‘우리 가족 3천 포인’특권’ 이벤트를 실시하고 있다. 정유업계 대표 이벤트로 자리 잡은 우리 가족 3천포인트 특권은 ‘잠자는 OK캐쉬백 3000포인트로 그 이상의 혜택을 제공한다’는 취지로 2012년부터 시행하고 있는 SK에너지의 대표적 마케팅 행사다. SK네트웍스는 자동차 정비, 패션 등 소비재 사업 분야에서 내수시장 활성화에 나서고 있다. 올해 5월 정부의 임시공휴일 시행에 발맞춰 5월부터 이달까지 스피드메이트 매장에서 고급 엔진오일인 ‘ZIC TOP’과 ‘캐스트롤’ 제품을 각각 40%, 30% 할인된 가격으로 고객에게 제공하고 있으며 미쉐린 등 수입타이어 5종을 20∼30% 할인 판매 중이다. 패션 사업 분야에서는 SK네트웍스의 대표 브랜드인 ‘오즈세컨’이 이달 주말을 브랜드 데이로 정해 토요일과 일요일 상시 10% 할인을 제공 중이다. 또 여름철 국내 소비 진작을 위해 8월 말까지 타미힐피거와 클럽모나코는 30% 할인을, 아메리칸이글은 40% 할인행사를 각각 실시한다.박성진 기자 psjin@donga.com#sk#t멤버십#제주도 구독 박성진 기자 동아일보 편집부 psjin@donga.com 좋아요 이미지좋아요 슬퍼요 이미지슬퍼요 화나요 이미지화나요 후속기사 원해요 이미지후속기사 원해요 기사추천 이미지기사추천 공유 이미지공유 공유하기 닫기 Copyright ⓒ 동아일보 &amp; donga.com 당신이 좋아할 만한 콘텐츠 댓글 0개 의견을 남겨주세요. 동아일보는 독자 여러분의 의견을 경청하겠습니다. 전체 댓글 보기 댓글 0개 닫기 많이 본 뉴스 1 30층 아파트 외벽 청소하던 30대, 밧줄 끊어져 추락사 2 안철수 “유승민·나경원 출마를” vs 홍준표 “배신 경력자는 가라” 3 추락 사고 잇따르는 ‘국내 최장’ 인천대교…“특단 대책 시급” 4 선우은숙 재혼했다…‘4살 연하’ 유영재와 혼인신고 5 서초구 잠원동서 총기 사고 “극단적 선택 추측…현재 수술 중” 6 “‘콩’ 부딪힌 오토바이, 괜찮다더니 합의금 200만원 요구” 7 성일종 “인공기는 괜찮은가” vs 이재명 “해방 후 친일파 행태” 8 ‘횡단보도 앞 일시정지’ 계도 끝…내일부터 본격 단속 9 [단독]3시간 국감서 37초 답변한 기업인… 77%가 5분도 발언 못해 10 TSMC 키운 대만… “국가 지켜주는 건 美무기 아닌 반도체” 최신기사 신혜성 측 “만취해 본인 차 아닌 줄 몰라…변명 여지 없다” 軍, 북한 ‘저수지 SLBM’ 발사에 “‘킬체인’ 의식한 궁여지책” “학교급식 종사자, 폐암 의심 유병률 일반인 35배” “2년 7개월만에 기다리던 일본으로 여행가요” 일본 무비자 여행 재개 첫날 공항마다 긴줄 與, 김용민 ‘尹 퇴진’ 발언에 “불법 쿠데타 획책” “충격적 망언” 베스트 추천 1 한동훈, 김의겸 ‘美출장 의혹’에 “머릿속 상상 쉽게 말해 주위에 피해” 2 김의겸 “한동훈, 이재명 수사 위해 美출장”…한동훈 “머릿속 상상” 3 [단독]‘최대 적자’ 한전, 자회사들은 직원 ‘제주도 가족여행’까지 지원 4 “수도 키이우 등 우크라 곳곳서 폭발음…사상자 발생” 5 ‘마케팅용 공짜 마약’에 20대 초범 양산… 놀이터서 주고받기도 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아일보 회사소개| 문화스포츠사업| 신문박물관| 인촌기념회| 화정 평화재단| 신문광고안내| 구독신청| 독자서비스| 기사제보| 정정보도 신청 주소: 서울특별시 종로구 청계천로 1 | ☎: 02-2020-0114 동아닷컴 회사소개| 광고 (인터넷, 전광판)| 제휴안내| 고객센터| 이용약관| 개인정보처리방침| 청소년보호정책(책임자: 구민회)| 사이트맵| RSS 주소: 서울특별시 서대문구 충정로 29 | Tel: 02-360-0400 | 등록번호: 서울아00741 | 발행일자: 1996.06.18 | 등록일자: 2009.01.16 | 발행·편집인: 박원재 Copyright by dongA.com All rights reserved.</t>
+  </si>
+  <si>
+    <t>[내수를 살리자]2GB 데이터를 하루 2000원으로 관광특화 요금제 ‘제주도 프리’ 내놔 본문바로가기문장공유트위터카카오톡 전체메뉴 검색 최근검색어 최근 검색어 내역이 없습니다. 검색어 저장 끄기 닫기 읽기모드공유하기북마크로그인공유하기닫기 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아일보|경제 [내수를 살리자]2GB 데이터를 하루 2000원으로 관광특화 요금제 ‘제주도 프리’ 내놔 신수정기자 입력 2016-07-25 03:00업데이트 2016-07-25 03:00 글자크기 설정 레이어 열기 뉴스듣기 프린트 글자크기 설정 가 가 가 가 닫기 SK텔레콤은 내수 진작을 위해 관광지에 특화된 요금제와 제휴 할인, 모바일 내비게이션 등의 서비스를 확대하고 있다. 국내 관광지에서 제공하는 혜택을 높여 고객들의 국내 여행을 유도할 계획이다. 우선 SK텔레콤은 국내 최초로 ‘관광 특화’ 요금상품인 ‘제주도 프리’를 1일 내놨다. ‘제주도 프리’는 2000원에 제주도 전역 및 인근 도서에서 하루 2GB(기가바이트)의 데이터를 제공하는 상품이다. 데이터 2GB는 관광지 정보 검색 4000여 회나 여행 사진 업로드 700여 장 또는 음악 스트리밍을 약 24시간 이용할 수 있는 용량이다. SK텔레콤 관계자는 “제주도 주요 관광지에서 데이터 사용량이 꾸준히 증가하는 추세에 맞춰 전용 상품을 선보이게 됐다”며 “국내 최초의 관광지 특화 요금제라는 점에서 의미가 있다”고 밝혔다. ‘제주도 프리’는 SK텔레콤 온라인, 모바일 고객센터에서 구입한 후 간단한 등록 절차를 거쳐 사용 가능하다. 여름철 국내로 휴가를 떠나는 고객들을 위한 ‘T멤버십’ 혜택도 강화된다. SK텔레콤은 국내 주요 관광지인 제주도 내 인기 관광지 16곳과 새롭게 제휴해 13일부터 T멤버십 고객에게 할인 혜택을 제공 중이다. 이번 제휴를 통해 T멤버십 혜택을 받을 수 있는 곳은 제주도 내 테마파크 6곳, 박물관 4곳, 수목원 3곳, 공연 1개, 체험 활동 2개 등으로 고객은 제휴처에 따라 20%에서 최대 58%까지 할인을 받을 수 있다. SK텔레콤은 여름철 고객 혜택 강화를 위해 이번에 가족 단위 고객이 많이 방문하는 제주도 내 인기 관광지를 선정해 지역 특화 멤버십을 선보인 것이라고 설명했다. SK텔레콤은 또 T멤버십 고객에게 국내 콘도 호텔 및 워터파크, 요트 투어 등에 대해 최대 33%의 할인 혜택을 제공하고 있다. 아울러 SK텔레콤은 국내 모바일 내비게이션 1위 ‘T맵’을 19일부터 KT, LG유플러스, 알뜰폰 고객에게도 무료로 개방했다. T맵은 14년간 누적된 교통정보를 통해 여행지까지 가장 빠른 길을 알려주는 서비스이다. T맵을 사용하려면 아이폰 고객은 앱스토어에서, 안드로이드 고객은 원스토어나 구글 플레이스토어에서 ‘T map’ 또는 ‘티맵’으로 검색하면 내려 받을 수 있다. KT와 LG유플러스 고객 중 이미 T맵을 내려받아 사용해온 고객들도 새로 무료 버전을 내려 받아야 한다. 신규 앱을 설치하더라도 기존의 즐겨찾기나 최근 목적지 등의 사용 이력 데이터는 신규 버전에 그대로 연동된다. SK텔레콤은 휴가철을 맞아 T맵에 신규 가입하는 고객 대상으로 25일부터 29일까지 5일간 매일 선착순 1만 명에게 5000원 주유권을 제공한다. 같은 기간 T맵 무료화 소식을 소셜네트워크서비스(SNS)에 공유한 고객을 대상으로 하루 1만 명씩 총 5만 명에게 주유권(5000원)을 제공하는 이벤트도 펼친다. SK텔레콤 관계자는 “T맵은 전국 13개 지역의 주요 관광지 동선을 추천해 주는 ‘거미줄 프로젝트’ 서비스를 강화해 여행 코스에 대한 고객들의 고민을 덜어줄 것”이라며 “SK텔레콤은 휴가철 이후에도 다양한 국내 관광 특화 서비스를 확대해 내수 활성화에 힘을 보탤 계획”이라고 말했다.신수정 기자 crystal@donga.com#sk#sk텔레콤#관광특화 요금제#제주도 프리 구독 신수정 기자 동아일보 미래전략연구소 crystal@donga.com 좋아요 이미지좋아요 슬퍼요 이미지슬퍼요 화나요 이미지화나요 후속기사 원해요 이미지후속기사 원해요 기사추천 이미지기사추천 공유 이미지공유 공유하기 닫기 Copyright ⓒ 동아일보 &amp; donga.com 당신이 좋아할 만한 콘텐츠 댓글 0개 의견을 남겨주세요. 동아일보는 독자 여러분의 의견을 경청하겠습니다. 전체 댓글 보기 댓글 0개 닫기 많이 본 뉴스 1 30층 아파트 외벽 청소하던 30대, 밧줄 끊어져 추락사 2 안철수 “유승민·나경원 출마를” vs 홍준표 “배신 경력자는 가라” 3 추락 사고 잇따르는 ‘국내 최장’ 인천대교…“특단 대책 시급” 4 선우은숙 재혼했다…‘4살 연하’ 유영재와 혼인신고 5 서초구 잠원동서 총기 사고 “극단적 선택 추측…현재 수술 중” 6 “‘콩’ 부딪힌 오토바이, 괜찮다더니 합의금 200만원 요구” 7 성일종 “인공기는 괜찮은가” vs 이재명 “해방 후 친일파 행태” 8 ‘횡단보도 앞 일시정지’ 계도 끝…내일부터 본격 단속 9 [단독]3시간 국감서 37초 답변한 기업인… 77%가 5분도 발언 못해 10 TSMC 키운 대만… “국가 지켜주는 건 美무기 아닌 반도체” 최신기사 신혜성 측 “만취해 본인 차 아닌 줄 몰라…변명 여지 없다” 軍, 북한 ‘저수지 SLBM’ 발사에 “‘킬체인’ 의식한 궁여지책” “학교급식 종사자, 폐암 의심 유병률 일반인 35배” “2년 7개월만에 기다리던 일본으로 여행가요” 일본 무비자 여행 재개 첫날 공항마다 긴줄 與, 김용민 ‘尹 퇴진’ 발언에 “불법 쿠데타 획책” “충격적 망언” 베스트 추천 1 한동훈, 김의겸 ‘美출장 의혹’에 “머릿속 상상 쉽게 말해 주위에 피해” 2 김의겸 “한동훈, 이재명 수사 위해 美출장”…한동훈 “머릿속 상상” 3 [단독]‘최대 적자’ 한전, 자회사들은 직원 ‘제주도 가족여행’까지 지원 4 “수도 키이우 등 우크라 곳곳서 폭발음…사상자 발생” 5 ‘마케팅용 공짜 마약’에 20대 초범 양산… 놀이터서 주고받기도 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아일보 회사소개| 문화스포츠사업| 신문박물관| 인촌기념회| 화정 평화재단| 신문광고안내| 구독신청| 독자서비스| 기사제보| 정정보도 신청 주소: 서울특별시 종로구 청계천로 1 | ☎: 02-2020-0114 동아닷컴 회사소개| 광고 (인터넷, 전광판)| 제휴안내| 고객센터| 이용약관| 개인정보처리방침| 청소년보호정책(책임자: 구민회)| 사이트맵| RSS 주소: 서울특별시 서대문구 충정로 29 | Tel: 02-360-0400 | 등록번호: 서울아00741 | 발행일자: 1996.06.18 | 등록일자: 2009.01.16 | 발행·편집인: 박원재 Copyright by dongA.com All rights reserved.</t>
+  </si>
+  <si>
+    <t>[내수를 살리자]제주도서 ‘스마트 관광’ 즐기고, 전통시장에서 와이파이 누리고… 본문바로가기문장공유트위터카카오톡 전체메뉴 검색 최근검색어 최근 검색어 내역이 없습니다. 검색어 저장 끄기 닫기 읽기모드공유하기북마크로그인공유하기닫기 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아일보|경제 [내수를 살리자]제주도서 ‘스마트 관광’ 즐기고, 전통시장에서 와이파이 누리고… 곽도영기자 입력 2016-07-25 03:00업데이트 2016-07-25 03:00 글자크기 설정 레이어 열기 뉴스듣기 프린트 글자크기 설정 가 가 가 가 닫기 KT는 최근 가라앉은 내수 시장을 살리기 위해 지역 관광 시스템이나 전통시장과 연계한 사업 플랫폼들을 다양하게 제공하고 있다. 이를 통해 국내 대표 관광지와 전통시장에서도 도심지 수준의 다양한 통신 서비스를 누릴 수 있게 했다. 기존에 KT가 갖고 있는 무선 통신 네트워크 인프라를 이용한 ‘미래 관광형 사업 모델’ 구축에 나선 것이다.통신 인프라·지리정보시스템으로 스마트 관광 대표적인 사례로 제주도를 최고 수준의 기가(GiGA) 통신 인프라를 갖춘 ‘스마트 관광섬’으로 만드는 계획을 추진 중이다. KT는 2월 제주특별자치도와 협약을 체결하고 5년간 총 143억 원을 투자해 주요 관광지와 공공장소에 무료 기가 와이파이 네트워크 1100여 곳을 구축하기로 합의했다. 이를 통해 내·외국인 관광객들은 제주도 대표 관광지 안에서 편리한 모바일 환경을 유지할 수 있으며, 제주도는 이를 통해 방문객 증가, 주민 실질적 소득 증대를 이룬다는 목표다. 제주도는 스마트 관광섬이 구축되는 향후 5년간 중국인 관광객들의 소비가 2배 이상 늘어나고, 제주도민의 실질소득은 총 3560억 원이 증대될 것으로 추산했다. 또 그룹사인 BC카드, KTH, KT IS 등과 함께 지리정보시스템(GIS) 기반의 스마트관광 플랫폼도 구축한다. 빅데이터를 활용한 소비패턴 분석 등으로 관광정책 수립에 도움을 주고, 외국인 관광객들이 보다 쉽게 내국세 환급 등 혜택을 누릴 수 있게 할 계획이다. 황창규 KT 회장은 “스마트 관광섬이 구축되면 외국인들이 한국을 찾았을 때 느끼는 언어 장벽, 정보 부족 등이 해결돼 더욱 많은 외국인 관광객이 제주도를 찾을 것으로 예상한다”며 “KT는 제주도가 한국 여행의 1번지에서 ‘한국 여행의 보물섬’으로 거듭날 수 있도록 그룹 차원의 지원을 아끼지 않겠다”고 말했다. 지역 전통시장을 공공 인터넷 존으로 KT는 또 정부와 공동으로 지역 전통시장에 무선인터넷을 구축해 공공 서비스를 제공하기도 한다. 지난해 12월에는 대구시, 미래창조과학부, 한국정보화진흥원(NIA)과 공동으로 대구 서문시장에 80개의 무선인터넷 액세스 포인트(AP)를 신설해 국내 최대 규모의 공공 와이파이 존을 만들었다. 서문시장은 영남권에서 가장 큰 전통시장으로 대구시 등 지역 자치단체는 이를 관광 명소로 육성하기 위해 여러 방안을 모색해왔다. 와이파이 존 구축으로 시장 입구와 광장, 주요 건물 등에서 무료로 인터넷을 사용할 수 있어 시장을 찾는 방문객들은 물론 상인들의 통신비 부담이 경감되고 각종 편의 제공을 통한 전통시장 활성화 효과가 나타났다고 KT는 설명했다. 이에 앞서 KT는 지난해 5월 전북 정읍 샘고을시장에도 무료 와이파이 인터넷 망을 구축했다. 샘고을시장은 문을 연 지 100년이 넘은 상설 전통시장으로 시설 낙후 및 인프라 부족 등 문제를 갖고 있었다. KT는 정읍시와 협력사업을 통해 시장 곳곳에 와이파이 망을 구축하는 것을 시작으로 지역 시장 활성화에 적극 참여하고 있다. 정부는 2018년까지 국내의 거의 모든 공공장소에서 무료로 인터넷을 쓸 수 있게 함으로써 디지털 격차를 해소하고 내수경제 활성화의 발판이 되도록 하는 데 기업의 참여를 적극 유도하고 있다. KT 관계자는 “KT의 지역별 공공 와이파이 네트워크 인프라 구축 역시 이러한 청사진의 일환”이라며 “KT는 지역 관광산업 활성화를 위해 지자체 등과 손잡고 통신 인프라 확대에 적극 나서겠다”고 말했다.곽도영 기자 now@donga.com#kt#제주도#와이파이#전통시장 구독 곽도영 기자 동아일보 산업1부 now@donga.com 좋아요 이미지좋아요 슬퍼요 이미지슬퍼요 화나요 이미지화나요 후속기사 원해요 이미지후속기사 원해요 기사추천 이미지기사추천 공유 이미지공유 공유하기 닫기 Copyright ⓒ 동아일보 &amp; donga.com 당신이 좋아할 만한 콘텐츠 댓글 0개 의견을 남겨주세요. 동아일보는 독자 여러분의 의견을 경청하겠습니다. 전체 댓글 보기 댓글 0개 닫기 많이 본 뉴스 1 30층 아파트 외벽 청소하던 30대, 밧줄 끊어져 추락사 2 안철수 “유승민·나경원 출마를” vs 홍준표 “배신 경력자는 가라” 3 추락 사고 잇따르는 ‘국내 최장’ 인천대교…“특단 대책 시급” 4 선우은숙 재혼했다…‘4살 연하’ 유영재와 혼인신고 5 서초구 잠원동서 총기 사고 “극단적 선택 추측…현재 수술 중” 6 “‘콩’ 부딪힌 오토바이, 괜찮다더니 합의금 200만원 요구” 7 성일종 “인공기는 괜찮은가” vs 이재명 “해방 후 친일파 행태” 8 ‘횡단보도 앞 일시정지’ 계도 끝…내일부터 본격 단속 9 [단독]3시간 국감서 37초 답변한 기업인… 77%가 5분도 발언 못해 10 TSMC 키운 대만… “국가 지켜주는 건 美무기 아닌 반도체” 최신기사 신혜성 측 “만취해 본인 차 아닌 줄 몰라…변명 여지 없다” 軍, 북한 ‘저수지 SLBM’ 발사에 “‘킬체인’ 의식한 궁여지책” “학교급식 종사자, 폐암 의심 유병률 일반인 35배” “2년 7개월만에 기다리던 일본으로 여행가요” 일본 무비자 여행 재개 첫날 공항마다 긴줄 與, 김용민 ‘尹 퇴진’ 발언에 “불법 쿠데타 획책” “충격적 망언” 베스트 추천 1 한동훈, 김의겸 ‘美출장 의혹’에 “머릿속 상상 쉽게 말해 주위에 피해” 2 김의겸 “한동훈, 이재명 수사 위해 美출장”…한동훈 “머릿속 상상” 3 [단독]‘최대 적자’ 한전, 자회사들은 직원 ‘제주도 가족여행’까지 지원 4 “수도 키이우 등 우크라 곳곳서 폭발음…사상자 발생” 5 ‘마케팅용 공짜 마약’에 20대 초범 양산… 놀이터서 주고받기도 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아일보 회사소개| 문화스포츠사업| 신문박물관| 인촌기념회| 화정 평화재단| 신문광고안내| 구독신청| 독자서비스| 기사제보| 정정보도 신청 주소: 서울특별시 종로구 청계천로 1 | ☎: 02-2020-0114 동아닷컴 회사소개| 광고 (인터넷, 전광판)| 제휴안내| 고객센터| 이용약관| 개인정보처리방침| 청소년보호정책(책임자: 구민회)| 사이트맵| RSS 주소: 서울특별시 서대문구 충정로 29 | Tel: 02-360-0400 | 등록번호: 서울아00741 | 발행일자: 1996.06.18 | 등록일자: 2009.01.16 | 발행·편집인: 박원재 Copyright by dongA.com All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 서귀포시 중문관광단지 내 별장형 오피스텔 ‘더바른’ 분양 - 이뉴스투데이 × 전체기사 금융 전체 정책·일반 금융공기업 은행 증권 보험 여신 산업 전체 정책·일반 재계 건설·부동산 자동차·항공·철도 조선·해운·철강 에너지·정유·화학 중기·벤처 IT과학 전체 정책·일반 전기·전자 정보통신 게임·방송 소프트웨어·보안 의료·제약 블록체인·암호화폐 스타트업라운지 생활경제 전체 정책·일반 유통소비자 여행레저 뷰티패션 정치사회 전체 정치 사회 국제 윤석열정부 D+@ 문재인정부D+@ 기획 전체 소문e답 신상e후 솔Car말 e분양 주말e여행 주말e영화 신박한 車담 이츠스토리 상권뽀개기 기타 기획 교육문화 전체 교육 문화 연예 스포츠 오피니언 전체 e사람 기자수첩 칼럼 기고 피플 전체 인사 부고 동정 전국 전체 수도권취재본부 경기취재본부 인천취재본부 충청취재본부 충북취재본부 대전세종취재본부 전북취재본부 광주전남취재본부 강원취재본부 대구경북취재본부 부산경남취재본부 기타 포토 이뉴스TV 전체 씨카고 이츠스토리 육갑박살 콕e영상 위클리e뉴스 기타영상 보도자료 최종편집 : 2022-10-11 12:03 (화) 검색어를 입력해주세요. 검색 독서신문·Readersnews 이뉴스TV 에이원뉴스 전체 금융 정책·일반 금융공기업 은행 증권 보험 여신 산업 정책·일반 재계 건설·부동산 자동차·항공·철도 조선·해운·철강 에너지·정유·화학 중기·벤처 IT과학 정책·일반 전기·전자 정보통신 게임·방송 소프트웨어·보안 의료·제약 블록체인·암호화폐 스타트업라운지 생활경제 정책·일반 유통소비자 여행레저 뷰티패션 정치사회 정치 사회 국제 윤석열정부 D+@ 문재인정부D+@ 기획 소문e답 신상e후 솔Car말 e분양 주말e여행 주말e영화 신박한 車담 이츠스토리 상권뽀개기 기타 기획 교육문화 교육 문화 연예 스포츠 오피니언 e사람 기자수첩 칼럼 기고 피플 인사 부고 동정 전국 수도권취재본부 경기취재본부 인천취재본부 충청취재본부 충북취재본부 대전세종취재본부 전북취재본부 광주전남취재본부 강원취재본부 대구경북취재본부 부산경남취재본부 기타 포토 이뉴스TV 씨카고 이츠스토리 육갑박살 콕e영상 위클리e뉴스 기타영상 보도자료 기획 뉴스 영상 이전 다음 제주도 서귀포시 중문관광단지 내 별장형 오피스텔 ‘더바른’ 분양 페이스북 트위터 카카오톡 URL복사 기사공유하기 상태바 HOME 산업 건설·부동산 제주도 서귀포시 중문관광단지 내 별장형 오피스텔 ‘더바른’ 분양 최형호 기자 승인 2016.07.26 14:25 댓글 0 페이스북 트위터 카카오톡 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × &lt;사진제공=하이스트 종합건설&gt;[이뉴스투데이 최형호 기자] 하이스트 종합건설에서 제주도 서귀포시 중문관광단지 일대에 ‘더바른’ 오피스텔을 분양할 것이라고 26일 밝혔다. 이곳은 전용면적 61.95㎡의 48실과 2가지 타입의 전용면적 35.65㎡ 32실, 총 80실의 2개 단지로 구성된다. 정부는 현재 제주도 서귀포에 약 4조1000억 원을 투자해 2025년 개항을 목표로 한 제주신공항 건설을 진행 중이다. 서귀포시 성산읍 온평, 신산, 난산, 수산, 고성리 일대 4.9㎢에 건설되는 신공항이 완공되면 제주시는 연간 4800만명의 방문객을 수용할 수 있으며, 이에 따른 경제효과는 2조764억 원에 이를 것으로 예상된다.더바른은 신공항을 차량으로 20분대로 이동할 수 있으며, 주변으로 천제연폭포, 여미지식물원, 중문해수욕장, 퍼시픽랜드 등 서귀포의 주요 관광지가 조성돼 있다. 전 가구 남향배치 된 가구 내로는 3bay 평면(전용면적 61.95㎡ 해당)을 적용하여 통풍과 개방감을 극대화 했으며, 생활에 필요한 냉장고, 드럼세탁기, 시스템에어컨, 제습기 등 풀옵션시스템이 마련돼 있다. 단지 주변에는 중문CC, 승마장이 위치해 각종 스포츠를 가깝게 이용할 수 있는 장점이 있으며, 도보통학권에 위치한 중문초, 중문중학교는 자녀들의 안전한 통학을 가능하게 한다. 더바른의 준공예정일은 2017년 1월이며, 계약금 500만원 정액제 및 중도금 60% 무이자 등의 혜택이 주어진다. Tag #N 저작권자 © 이뉴스투데이 무단전재 및 재배포 금지 최형호 기자 rhyma@enewstoday.co.kr 다른기사 보기 페이스북 트위터 카카오톡 URL복사 기사공유하기 [[ARTICLEREPLY]] 주요기사 양평군, 제1회 양평관광페스타 걷기와 여행 포럼 개최 양평군, 제1회 양평관광페스타 걷기와 여행 포럼 개최 부동산R114, AI·디지털 기반 중개업무 경쟁력 강화 부동산R114, AI·디지털 기반 중개업무 경쟁력 강화 의왕 청계동평생학습센터, 평생대학 수강생 모집 의왕 청계동평생학습센터, 평생대학 수강생 모집 광주본플란트치과·광주시장애인체육회, 광주시에 성금 및 현물 기탁 광주본플란트치과·광주시장애인체육회, 광주시에 성금 및 현물 기탁 카카페이손보, 첫 상품 ‘금융안심보험’…카톡으로 보험금 청구 카카페이손보, 첫 상품 ‘금융안심보험’…카톡으로 보험금 청구 충남도, 외국인 대상 지역관광상품 개발 ‘박차’ 충남도, 외국인 대상 지역관광상품 개발 ‘박차’ 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 비회원 글쓰기 계정인증을 통해 댓글을 남기실 수 있습니다. 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 인기뉴스 1김정은, 尹 ‘담대한 구상’ 일축…핵실험 강행 예고 2‘타다 금지법’ 뒤집은 국토부…“타다조차 외면” 3‘킹달러’ 직격탄…철강·해운업계 비상 4방탄소년단 부산 콘서트 특수에 숙박·유통업계도 ‘방긋’ 5[알쓸금융] 왜 1개월 만기 적금은 없을까? 6반도체 생태계 강화 나선 삼성·SK하이닉스…중소 지원해 자생력 키운다 최신뉴스 1양평군, 제1회 양평관광페스타 걷기와 여행 포럼 개최 2부동산R114, AI·디지털 기반 중개업무 경쟁력 강화 3의왕 청계동평생학습센터, 평생대학 수강생 모집 4광주본플란트치과·광주시장애인체육회, 광주시에 성금 및 현물 기탁 5카카페이손보, 첫 상품 ‘금융안심보험’…카톡으로 보험금 청구 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS top 서울특별시 서초구 논현로31길 14 (서울미디어빌딩) 대표전화 : 02-523-8541 팩스 : 02-522-6725 청소년보호책임자 : 김봉연 법인명 : (주)서울미디어그룹 제호 : 이뉴스투데이 등록번호 : 서울 아 00339 등록일 : 2007-03-20 발행일 : 2005-05-23 발행인 : 방재홍 편집인 : 방두철 ⌜열린보도원칙⌟ 당 매체는 독자와 취재원 등 뉴스 이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 김봉연 070-4699-7210 tongno@enewstoday.co.kr 이뉴스투데이 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 이뉴스투데이. All rights reserved. mail to webmaster@enewstoday.co.kr 위로</t>
+  </si>
+  <si>
+    <t>SKT, 제주도 인기 관광지 16곳 T멤버십 할인 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 SKT, 제주도 인기 관광지 16곳 T멤버십 할인 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 SKT, 제주도 인기 관광지 16곳 T멤버십 할인 송고시간2016-07-12 09:31 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 신재우 기자 기자 페이지 (서울=연합뉴스) 신재우 기자 = SK텔레콤[017670]이 제주도 인기 관광지 16곳과 제휴를 맺고 13일부터 T멤버십 할인 혜택을 강화한다고 12일 밝혔다. 제주도에서 새로 T멤버십 혜택을 받을 수 있는 곳은 ▲ 테마파크 6곳 ▲ 박물관 4곳 ▲ 수목원 3곳 ▲ 공연장 1개 ▲ 체험 활동 공간 2개 등으로 제휴처에 따라 20%에서 최대 58% 할인을 받을 수 있다. SK텔레콤은 7∼8월 한시적으로 퍼시픽랜드, 제주 미니랜드, 제주 도라에몽 엑스포 등 7개 관광지에 대해서는 추가 할인 혜택을 준다. SK텔레콤은 지난 1일 제주도를 방문한 관광객이 제주도 전역 및 인근 도서에서 온종일 데이터를 마음껏 쓸 수 있는 데이터 쿠폰 '제주도 프리'를 선보이는 등 제주 지역 특화 서비스를 잇달아 내놓고 있다. 광고 withwit@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2016/07/12 09:31 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 서울서 50대 권총에 맞아…"극단적 선택 추정" 80대 아버지 흉기로 찔러 살해…60대 아들 검거 혼자 사는 70대 여성 살해하고 달아난 50대 검거 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 선우은숙, 4살 연하 아나운서 유영재와 재혼 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 국감 2R '최대 격전지' 감사원 국감, 시작 9분만에 파행 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 댓글수 31 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>[프로필] 신설 제주도 관광국장에 이승찬 서기관 발탁 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 [프로필] 신설 제주도 관광국장에 이승찬 서기관 발탁 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 [프로필] 신설 제주도 관광국장에 이승찬 서기관 발탁 편집팀 headlinejeju@headlinejeju.co.kr 승인 2016.07.27 13:07 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × ▲ 이승찬 신임 제주특별자치도 관광국장. 28일자로 단행된 제주특별자치도 하반기 정기인사에서는 조직개편으로 신설된 관광국장 직무대리에 이승찬 서기관(57)이 직위승진하며 임명됐다.서귀포시 출신인 그는 1978년 공직에 입문해 제주도 회의산업육성담당, 서귀포시 행정기획과장, 대천동장, 주민생활지원국장 등을 역임하고, 민선 6기 도정 출범 직후인 2014년 8월 제주특별자치도 예산담당관을 맡아 일해 왔다.도의회와의 예산갈등, 예산안 부결사태 등으로 큰 홍역을 치르기도 했는데, 이후 예산편성의 투명성 제고 및 민간보조금 편성 제도적 정비 등을 기하며 예산편성시스템의 새로운 기틀을 마련했다는 평을 받고 있다.제주특별자치도는 초대 관광국장으로 그를 발탁한 배경과 관련해, "예산절감, 성과주의예산, 참여확대예산을 통한 '제주형 건전 재정모델'을 구축한 성과가 인정돼 전국 최초로 신설되는 관광국장으로 발탁했다"고 밝혔다. &lt;헤드라인제주&gt;&lt;헤드라인제주 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 제주도 정기인사 단행...'안전실장 홍성택, 행정국장 고창덕' '승진 잔치' 싹 바꾼 국장급...'일 중심'인가, '안배'인가 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>성산 일출봉 관광객, 제주도 흑돼지 맛보기 - 불교공뉴스 × 전체기사 종합 지역뉴스 전체 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 서울시 대구시 강원도 인천시 경기도 광주시 전라남도 전라북도 부산시 울산시 경상남도 경상북도 제주도 충주시 제천시 괴산군 부여군 논산시 공주시 천안시 안동시 담양군 청양군 여수시 금산군 예산군 아산시 고양시 횡성군 증평군 성남시 하동군 속초시 음성군 순천시 경주시 광양시 나주시 화순군 목포시 신안군 무안군 종교 전체 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 전체 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈.기획 연합뉴스 전체 엑셀데이터 선거정보 경제일반 TV동영상 자동생성기사 UPDATED. 2022-10-11 12:14 (화) 로그인 회원가입 보도자료 모바일웹 전체 종합뉴스 지역뉴스 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 청양군 성남시 종교소식 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈·기획 연예뉴스 검색버튼 기사검색 검색 이전 다음 성산 일출봉 관광객, 제주도 흑돼지 맛보기 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 지역뉴스 제주도 성산 일출봉 관광객, 제주도 흑돼지 맛보기 지화 승인 2016.07.22 14:50 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 이 기사를 번역합니다 한국어 영어 일본어 중국어 프랑스어 스페인어 러시아어 인도네시아어 × [불교공뉴스-제주도] 우리나라에 자리하는 수 많은 섬 중 가장 넓은 면적을 자랑 중인 ‘제주도’는 화산에 의해 발생했으며, 이를 통해 만들어진 독특한 자연경관 덕에 국내를 대표하는 여행지로 손꼽힌다. 세계 7대 자연경관에 등재되면서부터는 국내를 뛰어넘어 세계적인 관광지로 거듭나고 있으며, 제주도관광협회는 올해 제주도를 찾은 외국인 방문자수만 500만 명이 넘는다고 전했다. 내국인 관광객수 역시 전년대비 15% 가량 증가했으며, 이들은 성산일출봉, 섭지코지, 천지연폭포, 한라산, 각종 테마박물관 등 제주를 대표하는 각종 관광지를 오가며 제주를 여행 중이다. 활어회, 갈치조림, 오분자기뚝배기, 흑돼지구이 등은 제주도 방문 시 꼭 맛봐야 할 메뉴로 손꼽히고 있는데 그 중 여행객들은 쫄깃한 식감의 흑돼지를 맛보기 위해 성산일출봉을 찾고 있다. 제주 단일 관광지 중 최다 방문객을 자랑하는 성산일출봉 인근에 자리한 흑돼지 전문 식당 ‘해월향’은 최상의 식감과 육즙을 위해 식당만의 까다로운 숙성과정을 고집 중에 있으며, 고소한 흑돼지구이에 감칠맛을 더하는 멸치액젓과 명이나물 덕에 여행객과 현지인 모두에게 성산일출봉 맛집으로 인정받고 있다. 이곳은 흑돼지구이와 갈치조림, 전복뚝배기를 동시에 맛볼 수 있는 맛집으로 대형 입식룸과 좌식룸을 겸비하고 있으며, 365일 연중무휴로 운영되고 있다. 방문 손님에게는 발렛파킹 서비스가 제공된다. 저작권자 © 불교공뉴스 무단전재 및 재배포 금지 지화 다른기사 보기 기사가 마음에 드셨나요? 불교공뉴스는 창간 때부터 클린광고 정책을 유지하고 있습니다. 이것은 작은 언론으로서 쉬운 선택은 아니었습니다. 그럼에도 불구하고 불교공뉴스는 앞으로도 기사 읽는데 불편한 광고는 싣지 않겠습니다. 불교공뉴스는 아이 낳고 기르기 좋은 세상을 만드는 대안언론입니다. 저희 기사가 마음에 드셨다면, 좋은 기사 후원하기에 동참해주세요. 여러분의 기사후원 참여는 아름다운 나비효과를 만들 것입니다. 불교공뉴스 좋은기사 후원 계좌안내 농협 301-0234-1422-61 (손경흥 / 불교공뉴스) ※ 소중한 후원금은 더 좋은 기사를 만드는데 쓰겠습니다. 인기기사 1[영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! 2나태주풀꽃문학관, 제5회 풀꽃문학제 ‘두 사람’ 개최 3증평군, 트로트 가수 박군 홍보대사로 위촉 4[영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 5[영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! 6[영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! 7영동경찰서, 지역치안협의회 정기회의 개최 8계룡세계군문화엑스포 7일 개막 9부여군, “제68회 백제문화제 순항” 10[카메라 뉴스] 2022 괴산세계유기농산업엑스포 개막식 최신기사 천태산 은행나무에 바치는 자연 시편 『천년 동무 천년 등불』 ‘시와에세이’에서 발간 옥천 ㈜더조은숲, 취약계층을 위한 꾸준한 연탄 나눔 한국농촌지도자옥천군연합회, 사랑의 쌀 기부 영동·김천·무주, 올해는 삼도봉 정상에서 변치않는 우정 확인! 영동군, 2022-2023절기 어르신 독감예방접종 12일부터 연령별 순차접종 영동군, AI·IOT기반 어르신건강관리 서비스 ‘만족도UP, 건강UP’ 옥천군 보건소 2022년‘비만예방의 날’기념 캠페인 실시 오늘의 동영상 [영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! [영상뉴스] 유성구, 야경이 아름다운 제13회 ‘유성 국화전시회’ [영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! [영상 / 포토] 충남 부여에서 열리는 제68회 백제문화제! [영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! [영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 [불교공뉴스·TV 힐링대담] JB가든센터 '대림묘목농원' 김정범 대표 [포토뉴스] 지용제, 3년 만에 구읍을 詩끌북적하게 하며 성료 포토뉴스 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 충청북도 옥천군 지용로 142 대성사 사업자명 : 손경흥 사업자번호 : 688-03-01080 대표전화 : 043-733-5559 팩스 : 043-733-5559 명칭 : 불교공뉴스 제호 : 불교공뉴스 등록번호 : 충북아 00049 등록일 : 2010-11-01 발행일 : 2010-11-11 발행인 : 혜철스님(손경흥) 편집인 : 손경흥 청소년보호책임자 : 이한배 불교공뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 불교공뉴스. All rights reserved. mail to webmaster@bzeronews.com 위로</t>
+  </si>
+  <si>
+    <t>이완섭 서산시장, 제주도 방문…연이은 관광 벤치마킹 '눈길' &lt; 사회 &lt; 충남 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 이완섭 서산시장, 제주도 방문…연이은 관광 벤치마킹 '눈길' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 충남 사회 이완섭 서산시장, 제주도 방문…연이은 관광 벤치마킹 '눈길' 기자명 최병민 기자 입력 2016.07.19 10:46 수정 2016.07.19 10:52 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 18일 이완섭 충남 서산시장이 제주도를 방문해 항공우주박물관에 들러 우수사례 벤치마킹을 하고 있다. (서산=국제뉴스) 최병민 기자 = 이완섭 충남 서산시장이 연이은 관광 벤치마킹에 나서 눈길을 끈다.특히, 지자체장이 직접 솔선수범해 벤치마킹 하는 것은 극히 이례적인 것으로 평가된다.시는 관광산업이 지역경제를 이끌어 갈 핵심 고부가가치 산업으로 보고 프란치스코 교황이 다녀간 해미읍성을 비롯해 개심사, 마애여래삼존상 등 대표 관광지의 상품화에 박차를 가하고 있다.아울러 내년 서산 대산항과 중국 롱청시 룡얜항간 국제여객선 취항을 앞두고 중국관광객이 대거 유입될 것으로 전망됨에 따라 이에 따른 관광 인프라 구축이 시급한 실정이다. 이에 이 시장은 평소 다른 시군의 창조관광 우수사례의 벤치마킹을 통해 더 나은 서산시 관광정책의 수립의 필요성을 강조해왔다.아울러 관련부서에 주문하기에 앞서 바쁜 일정 속에서도 시간을 쪼개 타 시군의 관광 우수사례를 벤치마킹하는 솔선수범을 보이고 있다.이 시장은 지난 3일에는 전주시 한옥마을을, 지난 10일에는 부여군 서동공원에서 개최된 서동연꽃축제에 직접 다녀오기도 했다. 이렇게 먼저 발로 뛰며 창의적인 관광아이템 발굴의 중요성을 강조해 온 이 시장이 이번엔 18일부터 19일까지 양일간 관련부서 직원과 함께 제주도를 방문했다.이 시장은 제주도가 자랑하는 대표적인 관광 명소인 ▲항공우주박물관 ▲세계자동차박물관 ▲민속자연사박물관 등을 방문했다.또한 제주물홍보관과 우리나라 유일의 화산암반수 생산 공장인 제주삼다수공장을 견학했다.이와 함께 제주도 자연경관에 상상과 역발상으로 폐자원과 지역특화자원을 관광자원으로 활용해 새로운 관광콘텐츠를 창출한 현장을 둘러보기도 했다. 이완섭 시장은 "제주도의 관광지 벤치마킹으로 항공, 자동차, 관광 등 다양한 영역을 관광과 연계한 사례를 둘러볼 수 있는 기회가 됐다"며 "이번 결과를 서산시 관광자원과 접목시켜 더 나은 새로운 관광콘텐츠 발굴에 힘을 쏟을 계획"이라고 밝혔다. 최병민 기자 mbc4645@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>강원일보</t>
+  </si>
+  <si>
+    <t>'제주도 운전면허 취득 관광단'모집하고 운전교섭까지 한 중국인, 벌금형 | 세계일보 스포츠월드 세계비즈 세계로컬타임즈 종교신문 구독신청 mPaper RSS 로그인 회원가입 로그아웃 회원정보수정 회원탈퇴 세계일보 페이스북 네이버 포스트 트위터 유튜브 스포츠 선학평화상 환경 드론 전체메뉴 검색 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업·기업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS '제주도 운전면허 취득 관광단'모집하고 운전교섭까지 한 중국인, 벌금형 입력 : 2016-07-18 14:41:31 수정 : 2016-07-18 14:41:31 인쇄 메일 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 저비용으로 쉽게 운전면허를 딸 수 있다며 중국인 관광객을 모집해 불법 자동차 운전면허 교육을 중국인들에게 집행유예와 벌금형이 내려졌다. 이들은 여행업 자격증과 운전교육 관련 자격증 없이 운전면허 취득 관광상품을 취급했다. 18일 제주지법 형사2단독 김현희 판사는 관광진흥법 위반과 도로교통법 위반 혐의로 기소된 중국인 C(32·여)씨에게 징역 10월에 집행유예 2년과 벌금 1000만원을, C씨와 결탁해 중국인을 상대로 운전면허 교습을 한 중국인 S(54·남)씨에게 벌금 100만원을 각각 선고했다. 한국 영주권자인 C씨는 여행업체 등록 없이 2015년 1월부터 올해 4월까지 중국인 345명을 모집해 제주도 관광을 시키고, 모집한 관광객 가운데 15명에게 불법 운전면허 교습을 알선한 혐의로 재판에 넘겨졌다. C씨는 1인당 120만∼140만원씩 받고 중국 관광객들의 자동차 운전면허시험 신청을 도와주고, 불법으로 운전 관련 교육을 받도록 알선해 왔다. 박태훈 기자 buckbak@segye.com [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지] 20160718002113 0101080100000 0 2016-07-18 14:41:59 2016-07-18 14:41:31 0 '제주도 운전면허 취득 관광단'모집하고 운전교섭까지 한 중국인, 벌금형 세계닷컴 박태훈 0028f8cc-c883-4815-9315-2c6633fff652 오피니언 [설왕설래] 개운치 않은 불꽃축제 9일 오전 한 지인이 보낸 SNS(사회관계망서비스)에 입을 다물지 못했다. 형형색색 불꽃 사진에 탄성이 절로 나왔다. 실제 현장에서의 감동은 어떨까 싶었다. 전날 불꽃놀이를 보러 남산으로 향한다는 한 후배는 “세계일보가 명당자리인데 아이들 데리고 구경 가지 않느냐”고 묻기까지 했다. 회사에서는 이미 직원 가족들과 지인들을 위한 초청행사를 성대히 준비했다. [박완규칼럼] 위기관리 컨트롤타워 바로 세워야 윤석열정부가 출범한 지 5개월이 지났다. ‘국익과 실용’, ‘공정과 상식’을 국정운영 원칙으로 내세웠지만 나라를 어떻게 이끌어나갈지에 대한 구체적인 청사진을 내놓지 않았다. 국정이 나아갈 방향을 가늠하기 어려울 정도다. 이런 상황에서 외교안보와 경제 등에 어두운 그림자가 짙게 드리워져 있다. 국가적 위기감은 날로 커진다. 어느 틈에 위기관리가 최우선 국정 [기자가만난세상] 런던의 ‘인종적 중국인’ 필자는 1년간 영국 런던에서 대학원 과정을 마치고 최근 복귀했다. ‘민주주의에서의 정치 커뮤니케이션’ 수업의 공공외교 분야 세미나 중 중국 친구와 홍콩 친구 사이 벌어진 논쟁이 잊혀지지 않는다. 백신 개발국들이 타국에 백신을 공급·기부하면서 ‘연성권력(soft power)’을 구축하는 행위에 대한 토론을 하던 중이었다. 홍콩 친구가 라틴아메리카와 동남아 지 [김중백의자유롭게세상보기] 포용적 다양성이 필요한 우리 정치 필자가 속한 대학에서 최근 신임교수 환영 간담회가 열렸다. 신종 코로나바이러스 감염증(코로나19)이 전 세계를 강타한 이후 신임교수들은 최근까지 면접부터 오리엔테이션, 그리고 교수회의 등을 온라인으로만 진행해야 했다. 그러다 보니 새롭게 부임한 학교에 소속감도 느끼기 어려웠고 교수 간 지적 교류에 한계를 절감했다. 이런 아쉬움을 떨어내고자 새로 부임하는 교 HOT뉴스 1 23층 지붕 위 기인…양복 입고 활보, 왜? 2 머스크, 440억달러에 트위터 인수…계약파기 철회 3 허리케인 '이언' 지나간 자리 처참…최소 108명 사망 4 에펠탑 아래 숲, 하마터면 사라질뻔∼ 5 터미네이터 속 ‘심판의 날’ 온다? 포토 회사소개 지면광고 온라인광고 전광판 광고 사업제휴 독자인권위원회 및 고충처리 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 세계일보 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아03959 등록일(발행일) : 2015년 11월 2일 발행인 : 정희택 편집인 : 황정미 전화번호 : 02-2000-1234 청소년보호 책임자 : 박광재 Copyright ⓒ 세계일보 All rights reserved. 문화사업 세계농업기술상 세계문학상 신춘문예 음악콩쿠르 글로벌미디어 Washington Times Tiempos Del Mundo 일본 세계일보</t>
+  </si>
+  <si>
+    <t>제주도, 관광안내소·안내사 서비스 개선 사업 추진 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도, 관광안내소·안내사 서비스 개선 사업 추진 (제주=뉴스1) 고경호 기자					| 2016-07-12 13:13 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 제주특별자치도는 도내 관광정보의 안내 개선을 위해 도내 관광안내소 및 안내사를 대상으로 한 서비스 개선사업이 본격적으로 추진한다고 12일 밝혔다. 이는 제주를 찾는 개별관광객의 증가에 대비하고, ‘제주관광 질적성장 기본계획’ 수립의 후속조치 차원에서 추진되는 것이다.앞서 제주도는 올해 5월 도내 관광안내소를 운영하는 제주시 및 서귀포시, 제주특별자치도관광협회, 제주관광공사 등 4개 기관이 참여해 실무협의체를 구성했다.협의체에서는 관광안내소 신설, 이전, 폐지 등에 대한 의견을 교환하고, 관광안내사의 근무 태도 표준화, 관광안내소의 운영 다각화 방안 등 전반적인 개선사항들을 논의했다. 올해 6월에는 관광안내소 운영실태 진단을 위해 관광안내소 환경 및 응대서비스 등에 대해 기관별 관광안내사들이 교차 점검을 실시했다.또 관광안내의 기본적인 사항을 비롯해 대면 응대 시 관광안내 요령 및 관광객 특성별, 국적별 응대 방법을 담은 ‘관광안내서비스 표준 매뉴얼’을 올해 6월 작성, 배포했다.이어 올해 하반기에는 도내 관광안내사가 통일된 근무복을 입고 근무하면서 관광객에게 신뢰감을 줄 수 있도록 추진할 계획이다.한국관광공사에서 운영 중인 관광정보안내시스템(KOTIS)도 적극적으로 활용하면서 관광객에게 보다 표준화된 관광정보를 제공하고, 관광안내 기록을 자료화해 안내 개선에 활용할 예정이다. 현근협 제주도 관광정책과장은 “중장기적으로는 제주관광의 구심적 역할을 하고, 제주의 정체성을 소화함으로써 관광객들에게 랜드마크로 작용할 수 있는 종합관광안내소를 조성하는 방안을 추진 중”이라고 말했다. uni05@news1.kr &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" 선우은숙, 4살 연하 유영재 아나운서와 결혼 "최근 혼인신고" 안현모, 재혼언급 "원하는 삶 살아줄 女 만나"…라이머 당혹 한동훈 어록 출판사 "韓, 거부땐 제작 중단…아무말 없었다" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 '시즌 5승' 박민지, 세계랭킹 2계단 올라 16위…고진영 1위 유지 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도, 전기렌터카 구매에 초저리 관광진흥기금 지원 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도, 전기렌터카 구매에 초저리 관광진흥기금 지원 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도, 전기렌터카 구매에 초저리 관광진흥기금 지원 송고시간2016-07-08 15:16 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 김호천 기자 기자 페이지 (제주=연합뉴스) 김호천 기자 = 전기차 활성화를 위해 렌터카로 전기차를 구매하는 업체에 관광진흥기금을 지원한다. 제주도는 하반기 관광진흥기금 융자 지원 규모를 1천억원으로 설정하고 오는 26일까지 지원 신청을 받는다고 8일 밝혔다. 세부적으로는 보면 올해 처음으로 렌터카업체의 전기차 구매와 관광사업체(법인)의 전기차 구매에 총 500억원을 배정했다. 광고 렌터카업체가 전기차를 구매하면 민간에 보급할 때와 같은 수준으로 보조금을 지급하고 업체가 부담해야 할 나머지 금액에 대해 100% 관광진흥기금으로 융자 지원한다. 대출 기간은 3년이고, 대출금리는 0.94%다. 올해 2천대 이상의 전기차를 렌터카로 보급할 계획이다. 관광호텔, 리조트, 펜션 등 관광사업자(법인)가 전기차를 구매할 때도 같은 조건으로 관광진흥기금을 지원한다. 도는 2030년 전기차 100% 대체 목표를 성공적으로 추진하기 위해 2020년까지 한시적으로 전기렌터카 구매에 관광진흥기금을 지원하기로 했다. 기존 융자 대상인 관광이용시설업 및 관광편의시설업 등의 건설자금, 관광·일반숙박업과 관광시설 등의 개보수자금으로는 각각 100억원 배정했다. 관광사업체 등의 경영안정자금은 300억원이다. 도는 우수 관광기념품 개발 육성 지원 기준도 공고일 5년 전까지 대한민국 본선, 제주도 예선 입상자로 확대했다. 종전에는 공고일 2년 이내였으나 입상을 하더라도 개발까지 다소 시간이 걸리는 점을 고려해 이같이 변경했다. 입상작 별로 달랐던 지원 한도액은 1억원 이내로 일괄 조정했다. 일반야영장을 비롯한 기타유원시설업에 대한 융자지원도 추가했다. 앞으로 일반야영장으로 등록된 업체와 기타유원시설업으로 등록된 도내 30여개 업체가 시설자금 또는 경영안정자금을 지원받을 수 있게 된다. khc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2016/07/08 15:16 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 서울서 50대 권총에 맞아…"극단적 선택 추정" 80대 아버지 흉기로 찔러 살해…60대 아들 검거 혼자 사는 70대 여성 살해하고 달아난 50대 검거 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 선우은숙, 4살 연하 아나운서 유영재와 재혼 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 국감 2R '최대 격전지' 감사원 국감, 시작 9분만에 파행 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 댓글수 31 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 16 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도·제주관광공사, ‘맛있는 제주일기’ 다음웹툰 연재 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도·제주관광공사, ‘맛있는 제주일기’ 다음웹툰 연재 (제주=뉴스1) 이석형 기자					| 2016-07-06 17:47 송고 | 2016-07-06 17:56 최종수정 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 © News1 제주도와 제주관광공사(사장 최갑열)는 6일부터 제주의 ‘향토음식’을 홍보하기 위해 온라인 포털사이트인 다음웹툰 플랫폼에 ‘맛있는 제주일기’라는 주제로 웹툰 연재를 시작한다고 밝혔다.이번 웹툰 제작은 제주관광 온라인 마케팅 강화의 일환으로 제주 향토음식의 저변확대와 향후 국내외 관광객들의 제주 방문 시 더욱 다양한 먹거리 관광을 즐길 수 있게 하기 위해 기획됐다.공사는 현재 제주에 거주하고 있는 유명 웹툰작가인 ‘올드독 시리즈’ 정우열 작가와 함께 매주 수요일 다음웹툰을 통해 총 20회를 연재할 계획이다.또 제작된 웹툰을 영어, 중국어, 일본어 등 3개 국어로 제작해 해외 네티즌을 대상으로 제주 음식문화를 알리기 위한 콘텐츠로 활용할 예정이다. jejunews77@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 이런 일&amp;저런 일 김수미 "김용건 늦둥이 아들 지 아범 딱 닮아" 공효진♥케빈오, 뉴욕서 결혼식…정려원 참석 클럽 앞 멈춘 소방차 '비키니 여성' 하차…왜? 강민경, 65억 건물로 쇼핑몰 이사 "직원 눈물" 신혜성, 도난차량서 음주측정 거부하다 체포 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 '시즌 5승' 박민지, 세계랭킹 2계단 올라 16위…고진영 1위 유지 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>‘황금알’ 면세점에 관광기금 부과? 제주도 “기재부가 반대” &lt; 도의회 &lt; 정치 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:04 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 지난 8월, 제주 가파도서 발견된 신체 일부 정체 ‘오리무중’ 제주 민관협력의원 최대 난제 의원·약국 임대료 대폭 인하 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 ‘황금알’ 면세점에 관광기금 부과? 제주도 “기재부가 반대” 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 도의회 ‘황금알’ 면세점에 관광기금 부과? 제주도 “기재부가 반대” 기자명 좌용철 기자					(ja3038@hanmail.net) 입력 2016.07.19 16:28 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 문화관광스포츠위원회 “대기업만 배불리는 꼴…제도개선 과제에 반드시 포함돼야”제주도가 추진하는 ‘특별법 6단계 제도개선’과 관련해 이른바 ‘황금 알을 낳는 거위’에 비유되는 면세점의 수익을 지역에 환원하는 문제가 최대 쟁점으로 떠오르고 있다.제주도의회 문화관광스포츠위원회(위원장 김희현)는 19일 제344회 임시회를 속개해 제주도로부터 ‘6단계 제도개선 과제’ 보고를 받는 자리에서 면세점의 지역 환원 문제가 제도개선 과제에서 빠진 이유를 집중 추궁했다.이선화 의원(삼도·오라동, 새누리당)은 “중앙정부 분위기가 우리 제주도에 유리하게 돌아가고 있다. 정치적 풍토도 달라져 유리한 상황인 만큼 제주도의 의지가 중요하다”고 강조했다.김희현 위원장(일도2동을, 더불어민주당)도 “대기업이 부흥해 지역 영세상인이 죽으면 무슨 소용이냐”며 “제주도가 중앙정부에 더 강력하게 건의해야 한다”고 말했다.그러면서 김 위원장은 “면세점 수익의 지역 환원 내용을 6단계 특별법 제도개선안에 반드시 포함시켜야 한다”며 목소리를 높였다.이에 현근협 제주도 관광정책과장이 “5단계 제도개선 때 면세점에 관광진흥기금을 부과하는 방안이 추진됐었지만, 기획재정부가 반대해서 무산됐다”고 답변하자, 이번에는 김명만 의원(이도2동 을, 더불어민주당)이 나서 “제주도의 의지 문제”라고 질타했다.김 의원은 “중앙정부가 ‘형평성’ 때문에 반대한다고 하는데, 제주도가 제대로 대응을 못하고 있다”며 “이는 곧 (정부가) 제주특별자치도를 인정하지 않겠다는 것 아니냐. 다른 지역과 비교해서는 안 된다”고 비판했다.그러면서 김 의원은 “같은 상황이나 조건이 돼야 형평성을 따질 수 있는 것”이라며 “(면세점 수익 환원에 대해서는) 제주특별법에 맞게 논리를 개발해 중앙정부를 설득해야 할 것”이라고 주문했다. 관련기사 관광진흥기금, 카지노는 2배 늘리면서 면세점은 왜? 좌용철 기자 ja3038@hanmail.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 10억원 투입 제주 마을어장에 종자 91만 마리 방류 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 전기차 구매업체에 관광진흥기금 지원 본문바로가기문장공유트위터카카오톡 전체메뉴 검색 최근검색어 최근 검색어 내역이 없습니다. 검색어 저장 끄기 닫기 읽기모드공유하기북마크로그인공유하기닫기 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아일보|사회 제주도, 전기차 구매업체에 관광진흥기금 지원 임재영기자 입력 2016-07-12 03:00업데이트 2016-07-12 03:00 글자크기 설정 레이어 열기 뉴스듣기 프린트 글자크기 설정 가 가 가 가 닫기 8월 26일까지 전기차 민간보급 공모… 구매 보조금 대당 2100만 원으로 전기자동차 구매를 활성화하기 위해 구매 보조금을 상향 조정하고 전기자동차를 렌터카로 구매하는 업체 등에 관광진흥기금이 지원된다. 제주도는 11일부터 다음 달 26일까지 하반기 전기자동차 민간 보급 공모를 한다고 밝혔다. 이번 공모에서 전기자동차 구매 보조금을 기존 대당 1900만 원에서 2100만 원으로 올렸다. 충전기 400만 원을 합치면 전기자동차 구매에 모두 2500만 원이 지원된다. 민간보급 전기자동차는 승용차 7종과 화물차 1종 등 모두 8종이다. 전기자동차로 전환하는 택시에 대해서는 노후택시 교체사업비 등을 포함해 대당 2600만 원을 지원한다. 제주도는 공공 및 유관기관의 차량을 전기자동차로 전환하고 전기자동차 전용주차구역, 주차료 면제 등의 편의 정책을 펼칠 예정이다. 또 올해 하반기 관광진흥기금 융자 지원 1000억 원 가운데 500억 원을 전기자동차를 구매하는 렌터카업체, 법인 관광사업체에 배정할 방침이다. 렌터카업체가 전기자동차를 구매하면 민간 보급과 같은 수준으로 보조금을 지급하고 업체가 부담해야 할 나머지 금액에 대해 관광진흥기금을 융자한다. 대출 기간은 3년으로 대출금리는 0.94%다. 올해 2000대 이상의 전기자동차를 렌터카로 보급할 계획이다. 관광진흥기금은 2020년까지 한시적으로 지원된다. 임재영 기자 jy788@donga.com#전기자동차#구매 보조금 구독 임재영 기자 동아일보 광주호남취재본부 jy788@donga.com 좋아요 이미지좋아요 슬퍼요 이미지슬퍼요 화나요 이미지화나요 후속기사 원해요 이미지후속기사 원해요 기사추천 이미지기사추천 공유 이미지공유 공유하기 닫기 Copyright ⓒ 동아일보 &amp; donga.com 당신이 좋아할 만한 콘텐츠 댓글 0개 의견을 남겨주세요. 동아일보는 독자 여러분의 의견을 경청하겠습니다. 전체 댓글 보기 댓글 0개 닫기 많이 본 뉴스 1 30층 아파트 외벽 청소하던 30대, 밧줄 끊어져 추락사 2 안철수 “유승민·나경원 출마를” vs 홍준표 “배신 경력자는 가라” 3 추락 사고 잇따르는 ‘국내 최장’ 인천대교…“특단 대책 시급” 4 선우은숙 재혼했다…‘4살 연하’ 유영재와 혼인신고 5 서초구 잠원동서 총기 사고 “극단적 선택 추측…현재 수술 중” 6 성일종 “인공기는 괜찮은가” vs 이재명 “해방 후 친일파 행태” 7 “‘콩’ 부딪힌 오토바이, 괜찮다더니 합의금 200만원 요구” 8 ‘횡단보도 앞 일시정지’ 계도 끝…내일부터 본격 단속 9 TSMC 키운 대만… “국가 지켜주는 건 美무기 아닌 반도체” 10 [단독]3시간 국감서 37초 답변한 기업인… 77%가 5분도 발언 못해 최신기사 신혜성 측 “만취해 본인 차 아닌 줄 몰라…변명 여지 없다” 軍, 북한 ‘저수지 SLBM’ 발사에 “‘킬체인’ 의식한 궁여지책” “학교급식 종사자, 폐암 의심 유병률 일반인 35배” “2년 7개월만에 기다리던 일본으로 여행가요” 일본 무비자 여행 재개 첫날 공항마다 긴줄 與, 김용민 ‘尹 퇴진’ 발언에 “불법 쿠데타 획책” “충격적 망언” 베스트 추천 1 한동훈, 김의겸 ‘美출장 의혹’에 “머릿속 상상 쉽게 말해 주위에 피해” 2 김의겸 “한동훈, 이재명 수사 위해 美출장”…한동훈 “머릿속 상상” 3 [단독]‘최대 적자’ 한전, 자회사들은 직원 ‘제주도 가족여행’까지 지원 4 ‘마케팅용 공짜 마약’에 20대 초범 양산… 놀이터서 주고받기도 5 “수도 키이우 등 우크라 곳곳서 폭발음…사상자 발생” 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아일보 회사소개| 문화스포츠사업| 신문박물관| 인촌기념회| 화정 평화재단| 신문광고안내| 구독신청| 독자서비스| 기사제보| 정정보도 신청 주소: 서울특별시 종로구 청계천로 1 | ☎: 02-2020-0114 동아닷컴 회사소개| 광고 (인터넷, 전광판)| 제휴안내| 고객센터| 이용약관| 개인정보처리방침| 청소년보호정책(책임자: 구민회)| 사이트맵| RSS 주소: 서울특별시 서대문구 충정로 29 | Tel: 02-360-0400 | 등록번호: 서울아00741 | 발행일자: 1996.06.18 | 등록일자: 2009.01.16 | 발행·편집인: 박원재 Copyright by dongA.com All rights reserved.</t>
+  </si>
+  <si>
+    <t>SKT '제주도 프리' 출시…관광하며 모바일 데이터 마음껏 - 머니투데이 본문영역 바로가기 로그인 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 포토 더차트 더그래픽 영상 MT 영상 더영상 전체기사 증권 뉴스 시세/공시 코스피 코스닥 코넥스 상승/하락 상하한가 시가총액 거래량상위 신규상장 주요공시 포인트&amp;전략 펀드 펀드IR 국내펀드 해외펀드 유형종합 종목대해부 베스트리포트 MY스톡 정치 법률 유니콘팩토리 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 전체핫이슈 이슈키워드 연중기획 실시간급상승 베스트클릭 사람&amp; 피플 MT초대석 인터뷰 대표선배 인사 부고 MT리포트 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 정치 - the300 법률 - the L 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판/e-신문보기 서비스 신청 전체보기 닫기 속보 "농진청 쌀 생산량 예측 능력 정확도 높여야" "미·중 화해 희망 사라졌다"…中반도체주, 시총 12.3조원 증발 제조업 스타트업이세요? 부담금 면제 일몰기한 5년 연장됩니다 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" "한전 자회사라 부실공기업?...해외 우수 자산 매각 막아야" 독일 헤리티지 분쟁 조정 왜 늦어지나... 이복현 원장 "신속히 처리 노력" 이복현 "금투업계 접대비 현황 점검…시행령으로 기준도 찾겠다" 나노씨엠에스, 바이러스 사멸램프 美 알려…백악관·FDA·CDC 관계자 '참석' 연준 "4.5% 위에서 금리 인상 중단"…급격한 경기 둔화 위험 언급 "기후변화 선제 조치"…정부, 기술개발 로드맵 수립 착수 "농진청 쌀 생산량 예측 능력 정확도 높여야" "미·중 화해 희망 사라졌다"…中반도체주, 시총 12.3조원 증발 제조업 스타트업이세요? 부담금 면제 일몰기한 5년 연장됩니다 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" "한전 자회사라 부실공기업?...해외 우수 자산 매각 막아야" 독일 헤리티지 분쟁 조정 왜 늦어지나... 이복현 원장 "신속히 처리 노력" 이복현 "금투업계 접대비 현황 점검…시행령으로 기준도 찾겠다" 나노씨엠에스, 바이러스 사멸램프 美 알려…백악관·FDA·CDC 관계자 '참석' 연준 "4.5% 위에서 금리 인상 중단"…급격한 경기 둔화 위험 언급 "기후변화 선제 조치"…정부, 기술개발 로드맵 수립 착수 검색창 열기 통합검색 검색 닫기 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 정치 - the300 법률 - the L 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판/e-신문보기 서비스 신청 전체보기 닫기 SKT '제주도 프리' 출시…관광하며 모바일 데이터 마음껏 sns공유 더보기 SKT '제주도 프리' 출시…관광하며 모바일 데이터 마음껏 머니투데이 진달래 기자 기자 더보기 sns공유 더보기 2016.07.01 09:02 글자크기 글자크기조절 가나다라마 가나다라마 가나다라마 가나다라마 가나다라마 의견 남기기 1일 2GB 기본 데이터 제공, 소진시 3Mb 속도로 한도없이 제공 /사진제공=SK텔레콤 SK텔레콤 (49,300원 ▼900 -1.79%)이 1일 제주도 전역과 인근 도서에서 모바일 데이터를 부담없이 쓸 수 있는 데이터 쿠폰 '제주도 프리'를 출시한다. '제주도 프리' 이용자는 사용 요금제의 기본 데이터와 별개로 하루 2GB(기가바이트) 데이터를 제공받는다. 2GB 소진시 초당 3Mb 속도로 한도없이 데이터를 쓸 수 있다. 데이터 2GB는 여행 사진 700여장을 올리거나, 음악 스트리밍을 약 24시간 이용할 수 있는 용량이다. SK텔레콤 고객 전용 상품인 '제주도 프리'는 1일권은 2000원(부가세포함)이고 5일권은 20% 할인된 8000원이다. T월드 혹은 모바일 전용홈페이지(m.tdatacoupon.co.kr)에서 구입, 등록해서 쓸 수 있다. 온라인 오픈마켓과 모바일 상품권몰, 여행사 홈페이지에서도 판매한다. 앞으로 제주도 편의점에서도 판매할 예정이다. 오는 9월 말까지 '제주도 프리' 구입 고객은 쿠폰 1매를 추가로 받을 수 있다. 임봉호 SK텔레콤 생활가치전략본부장은 "제주도 주요 관광지에서 데이터 사용량이 꾸준히 증가하는 추세에 맞춰 전용 상품을 선보이게 됐다"며 "향후 데이터 사용량이 많은 지역 중심으로 특화 상품 출시를 확대할 것"이라고 밝혔다. &lt;저작권자 © ‘돈이 보이는 리얼타임 뉴스’ 머니투데이, 무단전재 및 재배포 금지&gt; 공감 0% 비공감 0% 진달래 aza@mt.co.kr 더 나은 사회를 위해 현장을 생생하게 전달하겠습니다. 기자의 다른기사 "매일 밤 아내가 보챕니다" 결혼 10년차 남편의 비결은? 머니투데이 댓글 작성을 위해 JavaScript를 활성화해주세요 머니투데이 주요뉴스 "코스피 바닥 근접, 팔지 마라…반등은 내년 2분기 이후" 한은, 내일 빅스텝 유력…기준금리 3% 시대 온다 채권시장 전문가들이 오는 12일 열리는 금융통화위원회(금통위)에서 한국은행이 기준금리를 0.5%p(포인트) 올리는 이른바 "빅스텝"을 단행할 것으로 내다보는 것으로 나타났다. 한은이 빅스텝 인상에 나선다면 지난 7월 금통위에 이어 역대 두 번째다. 빅스텝이 현실화되면 국내 기준금리는 현행 연 2.5%에서 3.0%로 오른다.7일 머니투데이가 증권사 애널리스트 10명을 대상으로 조사한 결과, 10명 모두 한은이 오는 12일 기준금리를 0.5%p 올릴 것으로 예상했다. 금통위 내에서 "0.25%p 인상"으로 소수의견이 있을 것이란 답변은... 코스피 -2%, 코스닥 -3%…"언제까지 내려가" 개미들 울상 中 '반도체 굴기' 때린 미국…삼성·SK하이닉스 '호재' 원/달러 환율, 4거래일만에 1430원 재돌파 단독 맞춤 패키지로 K원전 수출한다 "빚내 집사라"던 9년 전처럼…얼어붙은 부동산 매수심리 주가 70% 빠진 카카오…"4만원대로 추락" 장초반 신저가도 '아이폰14 프로' 들고 놀이기구 탔더니 911 출동 "밀크티 싸다 기뻐했죠? 우유없다" 中폭로남 "삽시간에 쓸어" 베네수엘라 대규모 산사태 실시간 급상승 9.9 베스트클릭 종합 IT/과학, 헬스 "걸리면 절반 사망, 백신도 없다"…코로나 잠잠해지자 '에볼라 주의보' "횡령 내가 했다" 큰아들 감싼 박수홍 父, 계좌 비밀번호도 몰라 '풀소유 논란'에 사라진 혜민스님, 2년 만에 포착된 근황 "9억 아파트·11억 주택 있다" 대리기사 말에 격분해 폭행한 60대 "돈 많으면 때려" 말에 35차례 종업원 폭행 사망…업주 '징역 7년' "이번주 금리 0.5%p 더 올린다"...전문가 10명 만장일치 "클럽서 따라 놓은 술 마셨다가…" 마약의 늪에 빠진 사람들 "日지배로 韓 발전했다"던 美하버드대…항의하자 돌아온 답변 '화물차 음주 사고' 재판받던 중 또 무면허 음주운전…'감형'받은 이유 한은, 내일 빅스텝 유력…기준금리 3% 시대 온다 이전 다음 "일당 10만원 '금토' 택시 알바"…배달하던 '젊은 기사님' 운전대 잡을까 최수연의 통큰 베팅…투자 혹한기 속 북미 '당근마켓' 2.3조 인수 [영상] 연기 모락모락 '애플워치7' 발화…"애플 사실 은폐 시도" 아이폰·갤럭시 충전단자 이제 하나로…EU, C타입 충전단자법 통과 [속보]누리호 기술이전 입찰, 한화 우선협상대상으로 선정 유튜버 앞세운 구글 반격에…과방위 "망 사용료 법, 안 되겠는데" '오버워치2' 첫날 3만명 우르르…"빨라졌다" vs "바뀐게 뭐지?" 시작부터 난항…오버워치2, 디도스 공격에 서버 불안정 "GOS 때문에 '5만전자' 된 것 아니냐"...삼성전자 "아니다" '아이폰14 프로' 들고 롤러코스터 탔더니 911 출동…무슨일? 이전 다음 MT리포트 '여가부 폐지' 약속 지킨 尹정부…"오히려 기능 강화" 기대와 우려 이슈패키지 2022 국정감사 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" 독일 헤리티지 분쟁 조정 왜 늦어지나... 이복현 원장 "신속히 처리 노력" "한전 자회사라 부실공기업?...해외 우수 자산 매각 막아야" 그린비즈니스위크 2022 K-탄소중립 현재·미래 한 눈에, GBW 2022 D-5.."등록하세요" 탄소중립 미래도 보고 일자리도 잡을 기회…그린 전환 잡콘서트 D-7 기후협상 산증인부터 벽안 석학, 글로벌기업까지..GBW 개막총회 총출동 2023년 예산안 "허리띠 졸라매고"...尹정부 첫 예산안, '역대 최대' 24조 칼질 尹대통령은 반도체 초강대국 주문했는데…'기재부' 벽 못넘은 지원 예산 장관 없어도 '100조 부처' 등극한 복지부·교육부 이전 다음 최신뉴스 IT/과학, 헬스 마켓 "기후변화 선제 조치"…정부, 기술개발 로드맵 수립 착수 'SK 테크서밋 2022' 내달 8~9일 개최…AWS·구글·MS 참가 "기업 보안지출은 증가일로, 견조한 성장매력", 파수 증권가 호평 SKT, 한국능률협회 고객만족도 '25년 연속 1위' LGU+, 국산 광전송장비 신규 도입…양자내성암호 적용 일시적 2주택 미처분 가산세 없애고 하이브리드車 취득세 면제 연장 한올바이오파마 HL161 중국사업권, 하버바이오에서 CSPC로 이전 주가 70% 빠진 카카오…"4만원대로 추락" 장초반 신저가도 JW생명과학, 국내 첫 전용량 종합영양수액제 자동화 라인 가동 SK이노베이션, 이익 개선 방향은 여전-NH투자증권 오늘의 꿀팁 많이 본 뉴스 일주일 1개월 6개월 1년 박수홍 인터넷뱅킹 ID '조카 이름+생일'…"父 횡령 말도 안된다" "우울증, 술에 의지" 최강희 연예계 떠난 근황…고깃집 '알바' 김영민, 윤형빈과 갈등…"나를 죽이려고 해, 10년 넘게 안봤다" 공감 엄앵란, 8년 전 박수홍에 "경제 독립해"…친형 100억 횡령 예견? 비공감 최정원, 자궁내막증 진단→자궁 적출…"수술 후 더 큰 문제 발생" 이휘재, 데뷔 30년만에 활동 중단→가족과 캐나다행…무슨 일? "김신영 첫 녹화인데 서럽다"…'전국노래자랑' 대구서 불만 터진 이유 송일국 삼둥이가 살던 '인천 송도 호수뷰' 아파트…매매가 얼마? 공감 "벨 눌러 아이 깨면 환불" 황당 요청에 '주문 취소' 응징한 사장님 비공감 이휘재, 주요 예능 사실상 퇴출→캐나다행…"큰 상실감 느껴" 이승윤, '자연인' 거액 출연료 왜주나 했더니 "썩은 생선도 먹어" '쇼미' 출신 래퍼, 다이빙 사고로 전신마비…"대소변도 혼자 못봐" 이휘재, 주요 예능 사실상 퇴출→캐나다행…"큰 상실감 느껴" 공감 김연아, 예비 시아버지 '정치성향'도 시끌…무슨 활동했길래 비공감 53세女 "30대 남성들이 너무 대시해"…서장훈 "이해 안돼" '방송 퇴출' 조형기, 한국 떠났나…美 한인타운서 찍힌 사진 보니 이휘재, 주요 예능 사실상 퇴출→캐나다행…"큰 상실감 느껴" 조형기는 어디에…방송 퇴출→유튜브마저 중단 후 소식 끊겨 공감 김신영, '평생 직장' 전국노래자랑 출연료는?…"회당 OOO만원" 비공감 정유라 6년만의 근황 "깡으로 버텼다…조민이 불쌍하다니" 눈물 오피니언 '복합경제위기' 해법은 없어도 돌파구는 있다 광화문 원희룡, '집값 너무 높다'고 말했을 뿐인데 우리가 보는 세상 포켓몬, 열풍이 역풍 된다? 기자수첩 theL 故 이예람 특검, 수사 결과 13일 오후 발표…전익수 기소 여부 주목 티타임즈 [30년 개발자의 애플 주식강의] 누가 차를 장악할까? 테슬라의 자율주행 vs 애플의 자동차 OS? 더리더 '여야 동수' 경기도의회 … 염종현 의장이 그리는 '협치' 스타일M 선미 vs 모델, 어깨 드러낸 오프숄더 룩…같은 옷 다른 느낌 스타뉴스 신화 신혜성, 음주측정 거부 혐의 체포..차량 도난 의심 '충격'[공식] MoneyS 14년 만에 대우조선 품는 한화, '한국의 록히드마틴' 정조준 IZE 도경수는 '진정' 믿고 볼 만해! the300 핵에는 핵, 30년만 '전술핵 재배치' 가능성…총력 대응 나선다 포토 / 영상 7 올가을 최저 기온에 목도리 패딩 등장 6 오늘부터 무비자 일본 관광 재개 15 '주먹 쥔 파퀴아오' 9 레드벨벳 예리 '패딩+미니스커트 귀여운 공항패션' 킹받게 매운 고추, 맵찔이도 외국인도 맛있게 먹을 수 있는 요리법 1020 울리는 댈입 댈구, 연 이자가 무려... '이 번호'로 로또 1등 433명 나온 필리핀 4K 시대에 게임 방송은 720p로 봐야 한다고?! 16 '아이폰14' 국내 출시 6 코스닥 700선 회복, 환율 1402.4원 마감 45 화려한 'TMA 레드카펫' 20 부산국제영화제 찾은 이지은 커피 없는 일상, 현실이 될 수 있다고? 할머니도 놀란다는 요즘 애들 입맛 요즘 명품 로고들이 다 똑같아 보이는 이유 Q. 어제는 900원 오늘은 1000원인 것은? 7 '여가부 폐지·보훈부 격상·재외동포청 신설' 6 北, 이틀만에 또 탄도미사일 발사 9 김유정 'BIFF 반가워요' 28 '아시아 스타 어워즈' ★들의 잔치 '아이폰14' 공개 동시에 조롱거리 된 이유 포토카드 하나가 20만원? 팬덤이 키운 포카 시장 '진짜 한국 같아!' 도한놀이에 빠진 일본 MZ들 찍었다하면 인생샷! 핫플레이스의 정체는? 이전 다음 머니투데이 SERVICE 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; MT리포트 시세판 속보창 전문지·서비스 VIP 머니투데이 스타뉴스 스타일M 스포탈코리아 OSEN 키플랫폼 티타임즈 MnB창업 MT해양 자전거 the300 thebell theL 유니콘팩토리 MTN 노트펫 앱어워드 이로운넷 PIXTA 매거진 머니S 더리더 대학경제 로피시엘 레옹 IZE 캠페인 U클린 쿨머니 머니투데이 공식 SNS 채널 SNS MT 페이스북 MT 인스타그램 MT 트위터 MT 틱톡 MT 네이버포스트 MT 유튜브 싱글파이어 유튜브 부릿지 유튜브 부꾸미 유튜브 MT 비즈센터 머니투데이 회사소개 구독신청 개인정보처리방침 청소년보호정책 이용약관 광고안내 제휴안내 저작권규약 기사제보 고충처리 주소 서울특별시 종로구 청계천로 11 청계한국빌딩 (서린동)   제호 머니투데이   등록번호 서울 아 01084   등록일 2009.12.24사업자등록번호 101-81-50419   발행일 2020.01.01   ISSN 2636-0055대표이사/발행인/편집인 박종면   대표번호 02-724-7700   청소년 보호책임자 신택균 머니투데이의 모든 기사(콘텐츠)는 저작권법의 보호를 받으며, 무단 전재 복사 배포 등을 금지합니다.COPYRIGHT © MONEYTODAY ALL RIGHTS RESERVED. [인증범위]온라인 뉴스 서비스 운영(머니투데이)[유효기간]2020.11.04~2023.11.03</t>
+  </si>
+  <si>
+    <t>충남관광협회, 제주도에서 오는 10월 전국체전 홍보 &lt; 아산시 &lt; 충남 &lt; 기사본문 - 충청투데이 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 Log in facebook twitter youtube rss 전체메뉴 버튼 2022-10-11(화) 헤드라인 점차 늙어가는 충남 농촌… 청년농부 육성 시급 박범인 금산군수 "공직자와 힘 모아 자생력 높이겠다" 서산 천수만에 겨울철새 찾아왔다 관리망 허술한 대전 소하천… 관리 잘 된 하천까지 오염시킨다 與野 대립중인 중앙 정치권… 대전은 ‘협치 분위기’ 고조 답답한 박스권… 충청권 與野 정당 지지도 30% 대 갇혔다 대덕특구, 연구집적단지 넘어 ‘문화의 장’으로 시세차익 때문에… 충청권 주택연금 중도해지 급증 박상돈 천안시장 "시민과 소통하고 현장 목소리 귀 기울일 것" 송인헌 괴산군수 변화·발전 위해 ‘잰걸음’ 기사검색 검색 본문영역 현재위치 홈 충남 아산시 충남관광협회, 제주도에서 오는 10월 전국체전 홍보 이전 기사보기 다음 기사보기 기자명 이봉 기자 승인 2016년 07월 11일 20시 04분 온라인 2016년 07월 12일 화요일 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 충남관광협회가 제주도에서 국내·외 다양한 관광객을 대상으로 안내 리플릿을 나눠주며 오는 10월 아산시를 주 개최도시로 열리는 제97회 전국체전 및 제36회 전국장애인체전 홍보 캠페인을 전개했다. 충남관광협회 관계자는 "제주도는 국내 뿐만 아니라 해외에서도 찾는 유명 관광지인 만큼 전국체전 홍보에 최적이라고 생각돼 캠페인을 전개했다"며 "아무쪼록 오는 10월 7일 개최되는 전국체전의 성공적 개최와 전 국민이 알고 즐기는 스포츠행사가 되도록 지속적으로 노력하겠다" 고 말했다. 아산=이봉 기자 lb1120@cctoday.co.kr 이봉 기자 lb1120@cctoday.co.kr 기자 프로필 보기 저작권자 © 충청투데이 무단전재 및 재배포 금지 주요기사 점차 늙어가는 충남 농촌… 청년농부 육성 시급 박범인 금산군수 "공직자와 힘 모아 자생력 높이겠다" 서산 천수만에 겨울철새 찾아왔다 관리망 허술한 대전 소하천… 관리 잘 된 하천까지 오염시킨다 與野 대립중인 중앙 정치권… 대전은 ‘협치 분위기’ 고조 답답한 박스권… 충청권 與野 정당 지지도 30% 대 갇혔다 Tweet 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 TODAY기획 시리즈 1. [체육발전] 프로시대 본격 도래… 청주 70년대 인프라 언제까지? 2. [안전사고] 고령 운전자 사고 느는데… 저조한 면허 반납률 어쩌나 3. [현안점검] 尹정부 첫 국정감사… 산적한 지역 현안, 반드시 테이블에 올려야 같이가U 대국민힐링프로젝트 [같이가U] 과거와 현재가 공존하는 도시, 가을에는 부여 한 바퀴 [같이가U] 몸의 피로는 온천으로… 마음의 피로는 옥천으로 [같이가U] 세상 볼게 넘치는 세종, 올 여름 아이와 함께 [같이가U] 올 여름 단 꿈에 빠지게 될 여행지 단양 뉴스이슈 저출산 흐름에 나날이 줄어드는 산부인과·조리원 충남 사립 유아교육비 지원 중단 위기… 학부모 부담 커지나 법 바뀌어도… 충청권 청소년 무면허 전동킥보드 사고 ‘쾅쾅’ 수도권으로 떠나는 의사·간호사… 충청 공공의료 공백 어쩌나 데이터뉴스룸 점차 늙어가는 충남 농촌… 청년농부 육성 시급 충청권 추정치매환자 10만명 넘었다 추석도 지났는데… ‘금추’된 배춧값 요지부동 대학 졸업했지만 30대엔 경력단절 육아맘… ‘씁쓸’ 최신뉴스 부스 살펴보는 UCLG 총회 참가자들 점차 늙어가는 충남 농촌… 청년농부 육성 시급 [아줌마 대축제] 마법같은 즐거움… 기적의 마술사 홍수복 공연 [아줌마 대축제] 남녀노소 신나는 공연으로 하나 [아줌마 대축제 화제부스] 단양 흑마늘·아로니아 떡… ‘벌떡’ 일어나는 맛 포토뉴스 부스 살펴보는 UCLG 총회 참가자들 점차 늙어가는 충남 농촌… 청년농부 육성 시급 [아줌마 대축제] 마법같은 즐거움… 기적의 마술사 홍수복 공연 [아줌마 대축제] 남녀노소 신나는 공연으로 하나 문화 스포츠 [아줌마 대축제] 마법같은 즐거움… 기적의 마술사 홍수복 공연 [충청투데이 권혁조 기자] 제20회 아줌마 대축제에서는 다채로운 공연이 관람객들의 눈길을 사로잡았다.이 중 ‘기적의 마술사’ 홍수복(73) 씨는 비가 오는 날씨에도 신기한 마술 공... [아줌마 대축제] 남녀노소 신나는 공연으로 하나 [충청투데이 장심결] ‘제20회 아줌마대축제-우리농수산물큰잔치’에서 신나는 춤을 통해 전 연령층이 소통하는 세대 공감 댄스 페스티발이 성황리에 개최됐다.축제 마지막 날인 9일 열린... [아줌마 대축제 화제부스] 단양 흑마늘·아로니아 떡… ‘벌떡’ 일어나는 맛 [충청투데이 윤경식 기자] 단양군이 지역 특산물인 흑마늘과 아로니아를 활용한 찹쌀떡과 인절미로 제20회 아줌마대축제-우리농수산물큰잔치에서 많은 방문객의 이목을 끌었다. 특히 몸에 ... 3년 연속 최하위 한화이글스 내년엔 다를까 [충청투데이 정민혜 기자] 한화이글스가 지난해에 이어 올해도 리그 최하위인 ‘10위’로 시즌을 마감했다.7일 KBO등에 따르면 한화는 3년 연속 3할대 승률로 리그 순위 최하위, ... 한화이글스, 키움히어로즈와의 마지막 홈경기 연장전 끝에 3-2 승리 [충청투데이 정민혜 기자] 한화이글스가 연장 11회까지 가는 혈투 끝에 마지막 홈경기를 승리로 장식했다.한화이글스는 6일 대전 한화생명이글스파크에서 열린 2022 신한은행 쏠(SO... 대전이 발굴한 탁구 꿈나무 세계에 이름 알렸다 [충청투데이 정민혜 기자] 대전시체육회가 꿈드림 프로젝트로 발굴한 탁구 꿈나무 권혁(동산중2·사진) 선수가 ‘2022 WTT 유스 콘텐더 포드고리차’에서 U-17, U-15 단식을... 충청투데이소개 사회공헌 구독신청 광고안내 제휴안내 독자위원회 편집위원회 고충처리인 개인정보취급방침 청소년보호정책 모바일웹 매체정보 본사 우)35273 대전광역시 서구 갈마중로30번길 67 (갈마동 400) 충청투데이 대표전화 : 042)380-7000 팩스 : 042)380-7019 충북본사 우)28468 충북 청주시 흥덕구 흥덕로 159(운천동 1373) 충청투데이 대표전화 : 043)263-0009 팩스 : 043)263-2297 회사명 : (주)충청투데이 사업자등록번호 : 314-81-46317 정기간행물 등록번호 : 대전 가 00002 등록일자 : 2001-12-08 대표이사·발행인·편집인 : 박신용 청소년보호책임자 : 박신용 Copyright © 2022 충청투데이. All rights reserved. mail to cctoday@cctoday.co.kr .. 위로 전체메뉴 전체기사 뉴스 전체 정치/행정 경제/과학 사회 스포츠 문화 사람들 종합 오피니언 대전 전체 대전시정 서구 중구 동구 대덕구 유성구 충남 전체 충남도정 천안시 공주시 보령시 아산시 서산시 논산시 금산군 부여군 서천군 청양군 홍성군 예산군 태안군 당진시 계룡시 충북 전체 충북도정 청주 충주 제천 음성 진천 괴산 증평 청원 보은 옥천 영동 단양 세종in 충투TV 오피니언 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>"제주도로 의료관광 오세요" &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 "제주도로 의료관광 오세요" 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 "제주도로 의료관광 오세요" 기자명 최병근 기자 입력 2016.07.04 12:51 수정 2016.07.04 12:53 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도.관광공사, 러시아 환자 유치 마케팅 블라디보스토크 설명회 / 사진=제주도관광공사[제주도민일보=최병근 기자] 제주도와 관광공사가 러시아 환자 유치를 위한 본격적인 마케팅에 나섰다.제주도와 관광공사는 29일부터 1일까지 극동러시아 2개 도시 하바롭스크, 블라디보스콕에서 해외 의료관광 설명회 및 비즈니스 미팅을 열었다.이번 해외설명회는 러시아 현지 여행업계 및 병원들에게 제주지역 7개 의료기관의 우수한 의료기술과 의료서비스를 소개하고 제주 의료관광을 활성화하기 위해 마련했다.설명회 참가 의료기관들이 프리젠테이션을 통해 직접 상품을 소개하고 시장개척을 위한 비즈니스 상담을 진행했다. 이를 통해 제주 의료 관광정보를 제공하는 한편 현지 여행업계와 제주 의료상품 다양화를 위한 업무협의를 벌였다.설명회 참여기관으로는 미즈성형외과의원, 한국병원, 제주대학교병원, 서귀포의료원, 에스-중앙병원, 한마음병원, 아름다운피부과의원 등 7곳이다.블라디보스톡에는 러시아 현지 성형외과 10여개가 참여해 성형 및 미용상품에 큰 관심을 보인 것으로 알려졌다. 한국관광공사 블라디보스톡 지사 관계자는 "방한 러시아 관광객이 지난 달 20% 성장해 꾸준한 증가세에 있으며 루블화 안정 및 경기 회복으로 해외여행 아웃바운드 수요가 지속적으로 증가할 것"이라고 밝혔다. 한편 제주를 찾은 외국인환자 수는 4552명으로 이 중 러시아 환자 수는 129명, 전체 2.8%를 차지하며 전년 대비 12.2% 증가(2015년 기준)했다. 가장 많은 국가는 중국 62%, 미국 5.5%, 일본 4.4%, 러시아 2.8% 등의 순이었다. 최병근 기자 whiteworld84@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 1 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 댓글목록 최신순 추천순 욕설, 타인비방 등의 게시물은 예고 없이 삭제 될 수 있습니다. esper 2016-07-04 13:04:51 더보기 삭제하기 지병이 있는 환자의 경우 외국 관광의 가장 중요한 것은 여행 기간에 건강관리...적극적 홍보와 지속적 홍보로 휴양형 관광이 될수 있도록 한다면 좋을듯. 외국 갔을때 외국인 병원 갔다가 감동먹음....우리나라와는 질적 차원이 다름...다시 가고 시은 마음 바로 생김 답글쓰기 0 0 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[이슈 분석]제주도 스마트시티, 중국인 관광객이 이끈다 - 전자신문 Conference allshowTV 검색 뉴스 속보 경제·금융 전자·모빌리티 통신·미디어·게임 소재·부품 SW·보안 산업·에너지·환경 플랫폼·유통 벤처·바이오 뉴스 정치 전국 국제 골프 화제의뉴스 인사·부음 오피니언 특집 연재 비주얼IT 스페셜리포트 뷰포인트 인포그래픽 라이프 연예 포토 공연전시 생활문화 날씨 부가서비스 콘퍼런스 allshowTV IT 전시 컨벤션 ET프리미엄 시사용어 PDF 서비스 English 서비스 안내 신문구독신청 온라인광고안내 콘텐츠구매 초판서비스 번역센터 회원 서비스 로그인 회원가입 패밀리미디어 서울신문 RPM9 EBN 산업경제신문 경제·금융 전자·모빌리티 통신·미디어·게임 소재·부품 SW·보안 산업·에너지·환경 플랫폼·유통 벤처·바이오 정치 전국 국제 [이슈 분석]제주도 스마트시티, 중국인 관광객이 이끈다 발행일 : 2016-07-09 10:00 지면 : 2016-07-11 4면 &lt;ⓒ게티이미지뱅크&gt; 네트워크 신기술이 제주도에 집중되는 배경에는 중국인 관광객(유커) 때문이다. 지난 2011년 57만명 수준이던 제주도 방문 유커는 2014년 280만명을 돌파했다. 지난해에는 일시 감소했지만 꾸준히 늘고 있는 추세다. 호텔 등 신규 네트워크 인프라를 구축하려는 관광 시설에서는 중국인 대상 신규 서비스를 준비하고 있다. 소프트웨어정의네트워크(SDN)와 소프트웨어정의데이터센터(SDDC) 도입에 관심을 기울이는 이유다. 업계 관계자는 “늘고 있는 유커를 유치하려는 관광 시설에서 정보기술(IT) 기반의 독자 서비스를 찾고 있다”면서 “차세대 네트워크 도입으로 서비스를 고도화하길 원한다”고 설명했다. 와이파이와 비콘 등 위치기반 서비스(LBS)도 유커가 주된 대상이다. 지난해 통계청 발표 자료에 따르면 제주도 서비스업 생산 증가율이 6.5%로 다른 지역에 비해 3배 가까이 높았다. 지난해 1분기 소매 판매 증가율 전국 평균은 1.7%인 데 반해 제주도는 8.3%를 기록했다. 유커가 제주를 방문해 호텔에 숙박, 쇼핑을 즐겼기 때문이다. 와이파이와 비콘은 제주도를 찾는 중국인에게 맞춤형 쇼핑 정보와 관광 정보 등을 제공할 수 있다. 특정 지역에 진입하면 인근 쇼핑몰 쿠폰이나 할인 행사 정보를 스마트폰으로 보내 주는 서비스를 대표로 들 수 있다. 중국 네트워크 기업이 직접 중국에 진출한 사례도 있다. 중국 통신업체 스마택은 관광 명소인 제주도를 공략하고 있다. 유커가 통신망에 접속하면 지역별 정보를 받을 수 있다. 업계 관계자는 “와이파이 식별번호를 공유하면서 중국 모바일 서비스도 (제주도)현지에서 직접 받을 수 있다”면서 “국내 통신사업자도 와이파이 존을 통해 중국인 대상 맞춤 서비스를 구현할 수 있다”고 말했다. 유커 대상 온·오프라인연계(O2O) 서비스도 확산될 전망이다. 전자상거래플랫폼 기업은 제주도 현지에 있는 상점과 온라인 마켓을 연동, 신규 서비스를 제공할 수 있다. 권동준기자 djkwon@etnews.com 스페셜리포트 이번 주 HOT 콘텐츠 AI와 빅데이터, 어디까지 활용해봤니? RPA의 성장에 실패한 기업들이 간과했던 여섯 가지- 역량 내재화와 프로세스 자동화 CoE를 중심으로 BRAND NEWSROOM 마이스터즈천홍준 마이스터즈 대표, "대기업·중소기업과 소비자까지, 모두의 ‘ESG’ 함께 하겠다"'4차산업'이라는 이름 아래 산업계가 탄력적으로 변화하고 있다. 특히 상품이나 서비스는 물론 조직구조나 인력활용 면에서도 상당한 유연성을 보인다. 한국무라타전자한국무라타전자, 국내 최대 전자·IT 전시회 '한국전자전' 참가한국무라타전자(대표이사 요시오카 켄이치)는 오는 10월 4일부터 7일까지 개최되는 국내 최대 전자·IT 전시회인 한국전자전(KES 2022)에 참가한다고 13일 밝혔다. 시큐어링크시큐어링크, AI 기술 접목한 고성능 UTM 출시 예정시큐어링크(대표 고준용)는 자사의 특허기술인 행동분석 랜섬웨어 차단 엔진을 기반으로 AI 기술을 접목, 엔드포인트 및 네트워크 등 다양한 인프라에 적용가능한 UTM 신제품을 준비중이라고 7일 밝혔다. 버넥트버넥트, XR 엔터테인먼트 사업 본격 시동버넥트(대표 하태진)는 기존의 산업용 XR 솔루션 사업을 넘어 XR 엔터테인먼트 사업에 본격적인 시동을 걸었다고 29일 밝혔다. 여의시스템여의시스템, 인텔 vPro 기술 기반 원격 관리 및 모니터링 ELMS 솔루션 론칭스마트팩토리/자동제어 솔루션 리딩 기업 ㈜여의시스템이 인텔의 파트너 프로그램인 MRS (Market Ready Solution) 을 통해 인텔 vPro 기술 기반 엣지 라인 원격 관리 및 모니터링 솔루션인 ELMS를 성공적으로 런칭 하였다고 밝혔다. 유니온커뮤니티유니온커뮤니티-스위스 바이오인식 TBS, 유럽 시장 확대 MOU 체결국내 최대 멀티모달 생체인식 보안 솔루션기업 유니온커뮤니티(대표 신요식)는 스위스 바이오식 기술 전문 TBS(Touchless Biometric Systems) AG와 MOU를 체결했다고 30일 밝혔다. 많이 본 뉴스 1 '갤럭시S23', 카메라로 아이폰14 잡을까 2 베트남 넷플릭스 1위 달리던 ‘작은 아씨들’, 돌연 방영 중단…이유는? 3 'ㅅㅏㅁㅅㅓㅇ', 삼성전자 한글날 맞아 한글 로고 선보여 4 저 얼음 밑에 생명체?... 목성 위성 '유로파'의 선명한 주름 5 LG전자, 3분기 영업이익 7466억원...매출은 역대 최고 BIZPLUS 디지털전환을 위한 VMware Cloud on AWS 트랜드 따라잡기 "구글 클라우드 AlloyDB 알아보기" 10월 25일 생방송 제조분야 스마트 혁신을 이끄는 AI기반 분석 기술 반도체 인프라 구축을 위한 하이테크 BIM 설계 자동화 웨비나 구글 클라우드 AlloyDB로 데이터베이스 워크로드 혁신하기 데이터와 시뮬레이션 모델을 활용한 건전성 예측관리 솔루션 개발 전자신문 회사소개 지면광고 행사문의 주소: 서울시 서초구 양재대로2길 22-16 호반파크1관 8~9층 대표번호: 02-2168-9200 구독문의: 02-2671-1806~7 전자신문인터넷 회사소개 이용약관 개인정보취급방침 고충처리 사이트맵 주소: 서울시 서초구 양재대로2길 22-16 호반파크1관 7층 대표번호: 02-857-0114 사업자번호: 107-81-80959 등록번호: 서울 아04494 제호: 전자신문인터넷 등록일자: 2017년 04월 27일 발행일자: 1996년 04월 10일 발행·편집인: 심규호 청소년보호책임자: 김인기 Copyright © Electronic Times Internet. All Rights Reserved. 패밀리미디어 RPM9 서울신문 EBN 산업경제신문</t>
+  </si>
+  <si>
+    <t>제주도 맛집 찾는 관광객 늘어나제주대게회타운에 식객 눈길 | 한국경제TV 닫기 와우넷 와우파 한경 KVINA 로그아웃 마이페이지 로그인 고객의견 고객센터 열기 뉴스 SITE MAP 검색하기 검색 최신뉴스 증권 경제 부동산 부동산 뉴스 부동산 컨설팅 산업·IT 가상화폐 국제 취업 취업일반 취·창업뉴스 직업의세계 스타트업CEO 많이 본 뉴스 한국경제TV 와우넷 와우파 회원가입 한경구독 지역별채널 편성표 온에어 HOT "우크라에 무더기 미사일 쏜 푸틴, 러 강경파 압력에 굴복" ‘솔로 데뷔 D-1’ 백호, 미니 1집 ‘Absolute Zero’ 기대 포인트는? 6년만에 자카르타 찾은 해군 순항훈련전단…인니서 위용과시 한미약품-한미정밀화학, 인적자원개발 우수기관 2년연속 인증 [포토] 유인나, '예쁘다~예뻐~' [포토] 김혜준-정해인, '다정한 손인사~' (27th BIFF) [온에어] 정오의 머니머니 [굿모닝 한경글로벌마켓] 간만의 연이틀 큰폭 상승... 배경은? - 당신이 잠든 사이 LIVE 코스피 2,183.39 (49.45 2.21%) 코스닥 670.39 (28.10 4.02%) 버튼 가상화폐 시세 관련기사 보기 정보제공 : 빗썸 닫기 TV 증권 주식상담 경제 기업·CEO 생활경제 특집 전체 프로그램 LIVE 한국경제TV 굿모닝 한경 글로벌마켓 1부 굿모닝 한경 글로벌마켓 2부 오늘장 뭐사지? 코리아마켓 [#내여주] 경주마 (경제주식마무리) 뉴스플러스 매수자들 프리뷰 뉴욕 경제전쟁 꾼 (금요일) 뉴스 최신뉴스 증권 경제 부동산 산업·IT 가상화폐 국제 취업 많이 본 뉴스 칼럼·연재 출근전 꼭 글로벌 브리핑 글로벌 시황&amp;이슈 GO WEST 증시프리즘 용와대에선 글로벌마켓 A/S 국제경제읽기 글로벌 구루에게 듣는다 슬기로운 금융생활 권영훈의 집중탐구 증권 국내증시 해외증시 특징주 매매신호 인기검색종목 연예·스포츠·여행 연예·스타 스포츠 국내여행 해외여행 HOME 뉴스 최신뉴스 ​ 제주도 맛집 찾는 관광객 늘어나…`제주대게회타운`에 식객 눈길 핀핀하기 페이스북 페이스북 트위터 트위터 카카오스토리 카카오스토리 블로그 블로그 링크 복사 링크 복사 페이스북 노출 0 입력 2016-07-15 17:37 목록으로 댓글달기 댓글 인쇄하기 인쇄 글자 크게 글자 작게 제주도 맛집 찾는 관광객 늘어나…`제주대게회타운`에 식객 눈길 SITE MAP [와우넷 오늘장전략] 나스닥 27개월래 최저..일본 무비자 관광 허용-와우넷 오늘장전략 휴가철 성수기 시즌인 이번 달부터 오는 9월까지 약 2개월 정도는 제주도로 여행을 떠나는 관광객이 급증하는 기간이다.최근 제주도관광협회는 제주도 방문 관광객수가 지난 5월 기준 500만명을 넘어섰다고 밝혔다. 특히 내국인 관광객의 경우 지난해 동기간 대비 14.8% 증가한 것으로 집계됐다.이처럼 요즘에는 가까운 제주도를 찾는 사람들이 많아지고 있다. 관광을 목적으로 오는 사람들도 많지만 제주도의 맛있는 음식을 먹기 위해서 오는 사람들도 많다.용두해안도로 인근에 위치한 `제주대게회타운`은 맛집 때문에 제주도를 찾는 관광객들이 즐겨 찾는 음식점으로 알려져 있다.대게와 랍스타, 킹크랩 등이 주요 메뉴이며 바다를 바로 앞에 두고 감상할 수 있다. 메뉴 중 랍스타 버터구이의 경우 랍스타의 부드러운 육질과 고소함을 느낄 수 있으며 대게는 살을 발라먹은 후 게딱지에 밥을 볶아준다. 업장은 제주도공항 근처에 위치해 있다. 제주도 맛집 제주도 관광객 랍스타 와우넷 오늘장전략 핀핀하기 페이스북 페이스북 트위터 트위터 카카오스토리 카카오스토리 블로그 블로그 링크 복사 링크 복사 좋아요 00 싫어요 00 후속기사 원해요 00 목록으로 목록 인쇄하기 인쇄 관련뉴스 마이핀 코로나연준반도체러시아 tab area 뉴스 기자 방송 파트너 한옥석소장 임종혁대표 우슬초대표 샤프슈터 와우캐시 와우넷에서 실제 현금과동일하게 사용되는 사이버머니 캐시충전 서비스 상품 파트너방송 증권·부동산 교육 월정액 서비스 파트너 방송 GOLD 한국경제 TV 실시간 방송 구매하기 이용안내 GOLD PLUS 골드서비스 + VOD 주식강좌 구매하기 이용안내 파트너 방송 파트너방송 + 녹화방송 + 회원전용게시판+SMS증권정보 + 골드플러스 서비스 구매하기 이용안내 고객센터 강연회·행사 더보기 7일간 등록된 일정이 없습니다. 이벤트 7일간 등록된 일정이 없습니다. 공지사항 더보기 [한국경제TV] [고지] 한국경제TV 이용약관 개정 안내 1:1문의하기 시민제보하기 open ​​ 뉴스 목록 보기 arrow 뉴스 최신뉴스 증권 경제 부동산 산업·IT 가상화폐 국제 취업 칼럼·연재 출근전 꼭 글로벌 브리핑 글로벌 시황&amp;이슈 GO WEST 증시프리즘 용와대에선 글로벌마켓 A/S 국제경제읽기 글로벌 구루에게 듣는다 슬기로운 금융생활 권영훈의 집중탐구 증권 국내증시 해외증시 특징주 매매신호 인기검색종목 연예·스포츠·여행 연예·스타 스포츠 국내여행 해외여행 많이 본 뉴스 RSS | 구독 TV 목록 보기 증권 K-스탁 라이브 굿모닝 한경 글로벌마켓 1,2부 [홈] 마켓인사이트 성공투자 오후증시 1-2부 [홈] HOT 정오의 머니머니 증시투데이 출발증시 투데이 한경 코리아마켓 HOT 한경 글로벌마켓 HOT 대박천국 1-3부 [홈] HOT 대박천국 1부 대박천국 2부 대박천국 3부 대박천국 선데이 1-3부 [홈] 대박천국 프리미엄 주식상담 국고처 프라이데이 1-2부 [홈] 국고처 프라임 국민주식고충처리반 1~5부 [홈] 경제 경제전쟁 꾼 시즌2 경주마 HOT 뉴스플러스 HOT 미네르바 클래스 HOT 쓰리고 아이돌 경제학교 생활경제 건강매거진 1-3부 [홈] 버추얼토크 가상자산 치아건강 닥터스 기업·CEO 기업가정신 콘서트 기업가정신을 말하다 혁신성장코리아 특집방송 바이오 1번지 보스턴에 가다 1-2부 [홈] 와우넷 스페셜 [홈, 19人] HOT 추석 이후 투자전략 1-4부 [홈] 전체 프로그램 고객 참여 기사정정삭제 | 의견 이벤트 이용약관 개인정보처리방침 기사배열기본방침 YouTube 서비스 약관 Google 개인정보처리방침 패밀리사이트 패밀리사이트 한국경제TV 와우넷 와우파 한경 KVINA 한경미디어그룹 한국경제신문 한국경제매거진 BOOK 한경아카데미 텐아시아 모바일앱 한국경제TV앱 주식창앱 와우넷앱 와우밴드앱 한경 KVINA앱 회사소개 상시채용 고객센터 광고안내(인터넷·TV) 제휴문의 사이트맵 고객센터 안내 1599-0700 월 ~ 금 08:00 ~ 23:00 일요일 12:30 ~ 22:30 토·공휴일 10:00 ~ 15:00 (주)한국경제티브이 대표이사 조주현 서울특별시 중구 청파로 463(중림동, 한국경제신문사) (우:04505) 사업자등록번호 : 107-81-70183 통신판매업신고번호 : 서울중구 2022-0572호 호스팅제공자 : (주)한국경제티브이 기사배열 책임자 : 유은길 Copyright&amp;copy 한국경제TV. All Rights Reserved. 인쇄하기 닫기 인쇄하기 인쇄 2016-07-15 17:37 제주도 맛집 찾는 관광객 늘어나…`제주대게회타운`에 식객 눈길 휴가철 성수기 시즌인 이번 달부터 오는 9월까지 약 2개월 정도는 제주도로 여행을 떠나는 관광객이 급증하는 기간이다.최근 제주도관광협회는 제주도 방문 관광객수가 지난 5월 기준 500만명을 넘어섰다고 밝혔다. 특히 내국인 관광객의 경우 지난해 동기간 대비 14.8% 증가한 것으로 집계됐다.이처럼 요즘에는 가까운 제주도를 찾는 사람들이 많아지고 있다. 관광을 목적으로 오는 사람들도 많지만 제주도의 맛있는 음식을 먹기 위해서 오는 사람들도 많다.용두해안도로 인근에 위치한 `제주대게회타운`은 맛집 때문에 제주도를 찾는 관광객들이 즐겨 찾는 음식점으로 알려져 있다.대게와 랍스타, 킹크랩 등이 주요 메뉴이며 바다를 바로 앞에 두고 감상할 수 있다. 메뉴 중 랍스타 버터구이의 경우 랍스타의 부드러운 육질과 고소함을 느낄 수 있으며 대게는 살을 발라먹은 후 게딱지에 밥을 볶아준다. 업장은 제주도공항 근처에 위치해 있다. 한국경제TV</t>
+  </si>
+  <si>
+    <t>제주도vs의회, 오라관광단지 놓고 '시각차' - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:15 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도vs의회, 오라관광단지 놓고 '시각차' 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 도의회 제주도vs의회, 오라관광단지 놓고 '시각차' 홍수영 기자 승인 2016.07.18 20:17 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 18일 환도위 "환경자원총량 1·2등급 90% 이상…개발 부적절" 제344회 임시회 환경도시위원회 전경 [제주일보=홍수영 기자]제주시 오라관광단지 조성사업을 둘러싸고 제주특별자치도와 제주도의회가 시각차를 보였다.제주도의회 환경도시위원회(위원장 하민철·새누리당·제주시 연동 을)는 18일 제344회 임시회를 속개, 제주도로부터 제주특별법 6단계 제도개선 과제를 보고받았다.하민철 위원장은 6단계 제도개선 과제로 추진되는 환경자원 총량관리제와 관련, “환경영향평가 및 도시개발계획 등 각종 행정 계획을 수립할 때 기초자료로 삼기 위한 것인데 2009년부터 13억원 이상을 투입하고도 아직까지 제도를 마련하고 있는 것이 말이 되느냐”고 질타했다.하 위원장은 “오라관광단지 부지의 경우 환경자원가치가 높은 1~2등급 지역이 90%를 넘어 사실상 개발이 불가한 지역”이라며 “이런 사업의 추진을 허가하는 것은 일반 도민 입장에서 이해하기 어렵다”고 피력했다.김경학 의원(더불어민주당·제주시 구좌읍·우도면)도 “오라관광단지 사업은 사업 승인이 취소가 됐다가 지난해 재승인 요청을 한 사업”이라며 “지금이라도 문제가 있는 부분이 있다면 멈춰야 한다”고 주장했다. 또 “대규모 관광단지 조성 사업의 부문별 영향 등을 검토하는 체크리스트는 제주미래비전이 수립되기 전 2014년부터 언급이 됐었다”며 오라관광단지 조성사업에 적용시켜야 한다는 입장을 피력했다.답변에 나선 김양보 제주도 환경보전국장은 “환경총량제는 아직 법제화되지 않은 제도로 당장 적용시킬 수 있는 부분이 아니”라며 “체크리스트도 관련 법령과 현실적인 부분을 반영해 추진하고자 한다”고 말했다.환경영향평가 동의라는 마지막 열쇠를 쥐고 있는 도의회가 오라관광단지 조성사업에 부정적인 입장을 보이면서 향후 추진 향방에 귀추가 주목된다. 홍수영 기자  gwin1@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 홍수영 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 8외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>국내 여행지 제주도, 중문 관광단지·흑돼지구이 등 즐길 요소 가득 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방국제생활/문화연예스포츠여행국내해외바이크관광레저호텔ㆍ크루즈이벤트TVBBC 홈 &gt; 여행 &gt; 국내 여행지 제주도, 중문 관광단지·흑돼지구이 등 즐길 요소 가득 (서울=뉴스1) 전민기 기자					| 2016-07-01 14:20 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 © News1 한 소셜커머스 업체가 최근 조사한 자료에 따르면 한 달간 6~8월 출발 여행상품 판매 현황을 조사한 결과, 국내 여행상품 판매량 중 제주도 여행상품이 전체 약 40%를 차지하며 최다 방문 여행지라고 밝혔다. 이는 제주도에 가는 저가항공이 증가하면서 제주도 여행을 떠나는 사람들이 많아진 것으로 보이는데 특히 휴가철 직전인 요즘은 비행기 표가 저렴하다. 대표적인 제주 여행지로는 여미지식물원·중문해수욕장·천제연 폭포가 있는 중문 관광단지가 있다.제주도 현지인들은 숙박시설로 게스트하우스를 꼽았으며 관광지 방문을 하거나 중문 흑돼지맛집을 찾아가는 것을 추천한다. 제주도 흑돼지는 생리활성물질인 불포화지방산 파미트올레인산이 일반 돼지보다 15% 많아 콜레스테롤의 축적을 막아주며 단백질, 비타민A가 다량 함유돼 있어 건강과 맛을 모두 챙길 수 있다.중문동에 위치한 ‘쌍둥이돼지꿈’은 중문흑돼지 전문 식당으로 참숯으로 흑돼지를 구워서 먹기 때문에 고기가 익으면서 참숯향이 스며 들면서 육즙이 풍부하다. 삼겹살·목살·항정살 등 부위별로 먹을 수 있으며 생구이를 주문하면 여러 부위를 동시에 먹을 수 있다.이곳은 흑돼지생구이를 주메뉴로 판매하고 있으며 점심메뉴에는 흑돼지두루치기와 된장찌개·김치찌개를 판매한다. 중문 흑돼지 맛집에서 멜젓이라고 부르는 멸치젓이 흑돼지고기의 맛을 더욱 살리고 소화를 돕는다. 취향에 따라서 비빔냉면에 흑돼지생구이를 같이 먹으면 색다른 맛을 느낄 수 있다. 또한 제주도 현지인들이 추천하는 업체인 만큼 제주도 지역손님이 많고 지역손님들이 추천하는 양념갈비와 생갈비도 같이 판매한다. 한편, 제주도 관광청은 여름을 맞아 증가한 여행객들을 위해 관광자료를 배포하고 있으며, 시설물 안전 전검 실시 등 관광객들의 안전을 위해 점검을 강화하겠다고 밝혔다. akdrkffk@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" 선우은숙, 4살 연하 유영재 아나운서와 결혼 "최근 혼인신고" 안현모, 재혼언급 "원하는 삶 살아줄 女 만나"…라이머 당혹 한동훈 어록 출판사 "韓, 거부땐 제작 중단…아무말 없었다" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 '시즌 5승' 박민지, 세계랭킹 2계단 올라 16위…고진영 1위 유지 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>이통사, 관광명소 '제주도'에 시선집중…"사물인터넷 효과 톡톡" 검색 2022-10-11 화요일 홈 경제 경제일반 산업 자동차/항공 조선/철강 화학/에너지 제약/바이오 중기 금융 증권 IT 전자 게임 유통 부동산 칼럼 정치 사회 연예 최신 영화 연예 스포츠 스포츠종합 축구 야구 농구 골프 여행 문화 기업PR 이통사, 관광명소 '제주도'에 시선집중…"사물인터넷 효과 톡톡" 2016-07-16 07:06:01 | 고이란 기자 | gomp0403@mediapen.com 페이스북 트위터 카카오톡 프린트 가 + 가 - [미디어펜=고이란 기자] 제주도를 방문하는 연간 관광객이 빠른 속도로 증가하고 있는 가운데 이동통신사들도 관광객을 위한 서비스 향상에 힘쓰고 있다. ▲ 제주도를 방문하는 연간 관광객이 빠른 속도로 증가하고 있는 가운데 이동통신사들도 관광객들을 위한 서비스 향상에 힘쓰고 있다. /사진=SK텔레콤 13일 제주도관광협회에 따르면 지난달 19일까지 제주도를 찾는 누적 관광객은 702만7130명으로 사상 최단 기간 연간 관광객 700만명을 돌파했다. 내국인은 553만690명, 외국인은 149만6440명이 방문했다. 협회는 여름 휴가가 본격적으로 시작되는 7~8월에 200만명의 관광객들이 찾을 것이라 전망했다. 이에 발맞춰 SK텔레콤은 제주도 내 인기 관광지 16곳과 새롭게 제휴해 T멤버십 고객에게 할인 혜택을 제공한다.이번 제휴를 통해 T멤버십 혜택을 받을 수 있는 곳은 제주도 내 ▲테마파크 6곳 ▲박물관 4곳 ▲수목원 3곳 ▲공연 1개 ▲체험 활동 2개 등으로 고객은 제휴처에 따라 20%에서 최대 58% 할인을 받을 수 있다.8월까지 T멤버십 고객이 제주도에서 관광 유형별로 한 곳씩 방문할 경우, 11만7000원~5만700원으로 약 56% 할인된 금액에 모두 이용할 수 있다. (제주 도라에몽 엑스포, 한울랜드, 상효원, 페인터즈 히어로, 세리월드 등 )SK텔레콤은 지난 1일 제주도를 방문한 관광객이 제주도 전역과 인근 도서에서 하루 종일 데이터를 마음껏 쓸 수 있는 데이터 쿠폰 ‘제주도 프리’를 선보이는 등 제주 지역 특화 서비스를 잇따라 출시하고 있다.제주도 프리 쿠폰을 구입한 고객은 사용 요금제의 기본 데이터와 별도로 하루 2GB의 데이터를 제공 받으며, 2GB를 다 써도 초당 3MB의 속도로 데이터를 한도 없이 이용할 수 있다. KT도 지난 2월 제주도와 ‘제주 스마트 관광섬 구축을 위한 업무협약’을 체결한 바 있다. 제주도를 ‘스마트 관광섬’으로 탈바꿈하겠다는 의지가 담겼다. KT는 제주도에 기가 사물인터넷(IoT)와 인프라 구축 노하우를 바탕으로 미래관광 사업모델을 제시해 왔다.KT그룹은 총 225억원 규모를 투자해 스마트 관광섬 인프라를 구축하고 제주 지역의 외국인 관광객 증가와 주민의 실질적 소득 증대에 기여할 계획이다.KT는 5년간 143억원을 투자해 ‘기가 와이파이’, ‘기가 인터넷’, ‘기가 비콘’ 등 기가 인프라 기반의 네트워크 서비스를 제공한다. 주요 관광지와 공공장소에 관광객이 무료로 사용할 수 있는 기가 와이파이 네트워크 1100여곳이 구축될 예정이다. BC카드와 KTH 등 그룹사도 82억원을 투자하는 등 전 KT그룹 차원에서 힘을 모은다.또한 KT는 그룹사인 BC카드, KTH, KT IS와 공동으로 지리정보시스템(GIS) 기반의 스마트관광 플랫폼을 구축한다. 스마트관광 플랫폼은 관광객의 빅데이터를 활용한 소비패턴 분석 등으로 관광정책 수립에 도움을 주고 외국인 관광객들이 보다 쉽게 내국세 환급(Tax Refund) 등 혜택을 누리는 데 기여할 것으로 예상된다. 황창규 KT 회장은 지난 협약식에서 “스마트 관광섬이 구축되면 외국인들이 한국을 찾았을 때 느끼는 언어 장벽, 정보 부족 등을 해결돼 더욱 많은 외국인 관광객이 제주도를 찾을 것으로 예상한다”며 “KT는 제주도가 한국 여행의 1번지에서 ‘한국 여행의 보물섬’으로 거듭날 수 있도록 그룹 차원의 지원을 아끼지 않겠다”고 강조 한 바 있다.[미디어펜=고이란 기자] ▶다른기사보기 [이런 기사 어때요?] ▶ "충성" 이통사, 장병들 위한 행보 '눈길'▶ 이통사, 사물인터넷(IoT) 향한 광폭행보…"이제 편리함이 달라요"▶ '여름휴가' 해외로 떠나는 당신, 이통사 로밍서비스 '주목'▶ '갤럭시7·G5' 수혜 예고…이통사 훨훨 날아오르나? &lt;저작권자 © 미디어펜 무단전재 및 재배포금지&gt; 회사소개 연혁 광고·제휴문의 청소년보호정책 이메일무단수집거부 인터넷신문 ( 윤리강령 | 심의규정 ) 서울특별시 종로구 새문안로3길 30 세종로대우빌딩 복합동 508호 전화번호 : 02)6241-7700 팩스 : 02)6241-7708 정기간행물ㆍ등록번호 : 서울 아 00574 등록일.발행일 2008.5.8 발행인 : 이의춘 편집인·편집국장 : 김태균 청소년보호책임자:김사성 Copyright © 2013 미디어펜. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 전기차 구입 관광기금 500억원 융자 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 01:47 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도, 전기차 구입 관광기금 500억원 융자 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 제주도, 전기차 구입 관광기금 500억원 융자 기자명 강승남 기자 입력 2016.07.08 11:14 수정 2016.07.10 11:44 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 하반기 1000억원 관광기금 접수…관광숙박업 신·증축 지원대상서 제외제주도는 8일부터 26일까지 2016년 하반기 제주관광진흥기금 융자지원 신청 접수를 받는다고 밝혔다.하반기 융자지원 규모는 총 1000억 원이다.관광이용시설업 및 관광편의시설업 등의 건설자금 100억원, 관광·일반숙박업과 관광시설 등의 개보수자금 100억 원, 관광사업체 등의 경영안정자금 300억원 등 기존 융자대상에 대해 총 500억원 규모로 지원된다.하지만 관광숙박업을 비롯해 객실 수급을 위한 신·증축 자금 지원은 배제된다.도는 관광숙박업 등 일부 건설자금 지원 중단에 따른 재원을 렌터카업체 및 관광사업체(법인)에서 전기차를 구입할 수 있도록 500억원 규모로 신규 지원한다.전기차 구입시 보조금을 제외한 자부담분에 대한 이자차액보전 2.8%를 지원한다. 3년 상환 조건으로 지원되며, 2020년까지 한시적으로 추진된다.이와 함께 우수 관광기념품 개발육성 지원 기준을 보다 완화한다.종전에는 공고일 2년 이내 국내 대회서 본선 이상에 진출하거나 제주도내 대회서 예선 입상자에 한해 지원돼 왔다. 이를 공고일로부터 5년 전까지의 입상자로 신청할 수 있도록 대폭 늘렸다.이외에도 일반야영장을 비롯해 기타유원시설업에 대한 융자지원도 추가됐다. 이에 따라 일반야영장으로 등록된 업체와 기타유원시설 등으로 등록된 도내 30여개 업체도 시설자금 또는 경영안정자금 지원을 받을 수 있게 됐다.한편 올해 상반기 관광진흥기금 지원 실적은 260억원이다. 이는 지원규모의 70∼80%를 차지하던 관광숙박시설 건설자금 지원이 중단됐기 때문이다. 강승남 기자 stipool@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의운세 10월11일(음력9월16일) 내 영혼이 따뜻해지는 날 장 발장 이야기 진단/포괄적 권한이양 전환 현실성 있나 예술인들 자발적 참여로 빈 땅에 '예술마을' 조성 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 제61회 탐라문화제 9일 일부 일정 10일로 연기 2 오늘의운세 10월11일(음력9월16일) 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [우리회사 창립기념일] 10월 10~16일 5 제주문학학교, 문태준 시인 초청 북토크 6 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 7 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 8 제23회 제주여성영화제 요망진작품상 '나들이' 선정 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>국내 여행지 제주도, 중문 관광단지·흑돼지구이 등 즐길 요소 가득 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방국제생활/문화연예스포츠여행국내해외바이크관광레저호텔ㆍ크루즈이벤트TVBBC 홈 &gt; 여행 &gt; 국내 여행지 제주도, 중문 관광단지·흑돼지구이 등 즐길 요소 가득 (서울=뉴스1) 전민기 기자					| 2016-07-01 14:20 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 © News1 한 소셜커머스 업체가 최근 조사한 자료에 따르면 한 달간 6~8월 출발 여행상품 판매 현황을 조사한 결과, 국내 여행상품 판매량 중 제주도 여행상품이 전체 약 40%를 차지하며 최다 방문 여행지라고 밝혔다. 이는 제주도에 가는 저가항공이 증가하면서 제주도 여행을 떠나는 사람들이 많아진 것으로 보이는데 특히 휴가철 직전인 요즘은 비행기 표가 저렴하다. 대표적인 제주 여행지로는 여미지식물원·중문해수욕장·천제연 폭포가 있는 중문 관광단지가 있다.제주도 현지인들은 숙박시설로 게스트하우스를 꼽았으며 관광지 방문을 하거나 중문 흑돼지맛집을 찾아가는 것을 추천한다. 제주도 흑돼지는 생리활성물질인 불포화지방산 파미트올레인산이 일반 돼지보다 15% 많아 콜레스테롤의 축적을 막아주며 단백질, 비타민A가 다량 함유돼 있어 건강과 맛을 모두 챙길 수 있다.중문동에 위치한 ‘쌍둥이돼지꿈’은 중문흑돼지 전문 식당으로 참숯으로 흑돼지를 구워서 먹기 때문에 고기가 익으면서 참숯향이 스며 들면서 육즙이 풍부하다. 삼겹살·목살·항정살 등 부위별로 먹을 수 있으며 생구이를 주문하면 여러 부위를 동시에 먹을 수 있다.이곳은 흑돼지생구이를 주메뉴로 판매하고 있으며 점심메뉴에는 흑돼지두루치기와 된장찌개·김치찌개를 판매한다. 중문 흑돼지 맛집에서 멜젓이라고 부르는 멸치젓이 흑돼지고기의 맛을 더욱 살리고 소화를 돕는다. 취향에 따라서 비빔냉면에 흑돼지생구이를 같이 먹으면 색다른 맛을 느낄 수 있다. 또한 제주도 현지인들이 추천하는 업체인 만큼 제주도 지역손님이 많고 지역손님들이 추천하는 양념갈비와 생갈비도 같이 판매한다. 한편, 제주도 관광청은 여름을 맞아 증가한 여행객들을 위해 관광자료를 배포하고 있으며, 시설물 안전 전검 실시 등 관광객들의 안전을 위해 점검을 강화하겠다고 밝혔다. akdrkffk@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 이런 일&amp;저런 일 김수미 "김용건 늦둥이 아들 지 아범 딱 닮아" 공효진♥케빈오, 뉴욕서 결혼식…정려원 참석 클럽 앞 멈춘 소방차 '비키니 여성' 하차…왜? 강민경, 65억 건물로 쇼핑몰 이사 "직원 눈물" 신혜성, 도난차량서 음주측정 거부하다 체포 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 '시즌 5승' 박민지, 세계랭킹 2계단 올라 16위…고진영 1위 유지 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>SK텔레콤, 제주도 관광객 위한 데이터 쿠폰 출시 주메뉴 바로가기 본문 바로가기 시작페이지로 즐겨찾기 2022.10.11 (화) 구름많음동두천 11.3℃ 맑음강릉 17.4℃ 맑음서울 12.3℃ 구름조금대전 13.8℃ 맑음대구 14.8℃ 맑음울산 15.5℃ 맑음광주 16.2℃ 맑음부산 16.5℃ 맑음고창 16.3℃ 구름많음제주 18.0℃ 맑음강화 12.1℃ 맑음보은 12.3℃ 구름조금금산 13.3℃ 구름조금강진군 16.6℃ 맑음경주시 15.4℃ 맑음거제 16.4℃ 기상청 제공 로그인 종합뉴스 세무ㆍ회계 정책 내국세 국제조세 관세 지방세 업계 예규·판례 금융 정책 은행 증권 보험 카드ㆍ제2금융 예규ㆍ판례 세ㆍ재테크 경제ㆍ산업 정책 경제일반 기업ㆍ재계 건설ㆍ부동산 식품ㆍ유통 글로벌동향 정치 LIFE 문화 교육 사회보험 인사ㆍ동정 개업ㆍ이전 결혼ㆍ부음 과학 HEALTH &amp; BEAUTY TF로 증권로 서적몰 조세금융TV 세꼬무 알기 쉬운 세금 10분세금 굿바이! 세금폭탄 조금뉴스 파워 인터뷰 세미나 현장취재 김하나 장보원의 이런稅上 연말정산 詩가 있는 아침 검색어를 입력해주세요. 검색하기 기업 · 재계 홈 경제 · 산업 기업 · 재계 SK텔레콤, 제주도 관광객 위한 데이터 쿠폰 출시 최일혁 기자 mydream@tfnews.co.kr 등록 2016.07.01 13:25:42 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 (조세금융신문=최일혁 기자) SK텔레콤이 ‘지역 특화’ 데이터 상품인 ‘제주도 프리’를 1일 출시했다. 이 상품은 관광객들이 제주도 전역 및 인근 도서에서 하루 종일 데이터를 마음껏 쓸 수 있는 데이터 쿠폰이다. ‘제주도 프리’를 구입한 고객은 사용 요금제의 기본 데이터와 별도로 하루 2GB의 데이터를 제공 받으며, 2GB를 다 써도 초당 3Mb의 속도로 데이터를 무제한 이용 가능하다. 데이터 2GB는 관광지 정보 검색 4천여회나 여행 사진 업로드 700여장 또는 음악 스트리밍을 약 24시간 이용할 수 있는 양이다. ‘제주도 프리’는 1~5일권을 온라인·모바일 T월드 또는 모바일 전용 홈페이지에서 구입한 후, 간단한 등록 절차를 거쳐 사용 가능하다. 1일권의 가격은 2천원(VAT포함)이며, 5일권은 20% 할인된 8천원(VAT포함)이다. SK 텔레콤은 관광객들 편의를 위해 ‘제주도 프리’를 출시와 함께 온라인 오픈마켓 및 모바일 상품권 몰, 여행사 홈페이지 등에서도 판매하고, 추후 제주도 편의점에서도 판매할 예정이다. SK 텔레콤 관계자는 “제주도 주요 관광지에서 데이터 사용량이 꾸준히 증가하는 추세에 맞춰, 제주도 전용 상품을 선보이게 됐다”며, “향후 데이터 사용량이 많은 지역 중심으로 특화 상품 출시를 확대할 것”이라고 밝혔다. [조세금융신문(tfmedia.co.kr), 무단전재 및 재배포 금지] 최일혁 기자 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 최신기사 1라이나생명, TMR 6인의 이야기 담아 ‘Hearo’ 캠페인 진행 2[2022 국감] 윤주경 "심평원 인력·예산 부족…보험 수사 걸림돌" 3[2022 국감] BNK금융-한양증권 연결고리 의혹…강민국, 발행채권 급증 지적 4김천세무서, 농촌봉사 및 황옥사과 구매 행사 5대구국세청, 인적용역 2만3천명에 코로나19 소득세 환급 안내 6[수소TF] 수소도 이제 직접 충전...인천공항 수소충전소 현장 르포 7[수소TF] 에너지 자립과 탄소중립 두마리 토끼 다 잡아야 8[인터뷰] 황성필 변리사가 만난 스타트업 4편 (주)파일러 오재호 CEO 9[2022국감] 금융당국에 쏠린 가계부채 책임론…이복현, 아쉬움 인정 10[2022국감] 장애인 상생 외면하는 기재부…우선구매 실적 ‘기재위 꼴찌’ 전문가 코너 더보기 [전문가칼럼] 군자는 하루에 세 번 나 자신을 반성한다 나단(Nathan) 작가 [인터뷰] 황성필 변리사가 만난 스타트업 4편 (주)파일러 오재호 CEO 황성필 변리사 [골프회원권 동향] 기후위기에 내몰린 골프장들 그 해법은? 이현균 애널리스트 [전문가칼럼] 샤머니즘, 하늘과 인간의 화해를 위한 중재자 구기동 신구대 교수 [전문가칼럼] 천국으로 가는 길을 보여주며 상인의 주머니를 턴 교황의 재주 사샤 중세경제사학자 [전문가칼럼] 전세사기대책 보완이 필요하다 권대중 명지대학교 부동산대학원 교수 [전문가칼럼] 인후두염과 후비루로 본 목이물감과 입냄새 혜은당클린한의원 김대복 원장​ [전문가칼럼] 만성 뇌경색 진단은 보험에서 뇌졸중이 아닌가요? 한규홍 손해사정사 [전문가칼럼] 구매확인서 발급 의무화 제도 서판수 관세사 [전문가칼럼] 수용시 이것만은 꼭 기억하자! 이재홍 세무사 예규 · 판례 더보기 [예규·판례] 대법 "영문 투자계약서의 '고의'는 미필적 고의까지 포함" [예규·판례] 행법 "순환근무라며 지점장을 창구로 전보한 인사는 부당" [예규·판례] 대법 "비리로 승진하고 하는 일 그대로면 오른 월급 반납" [예규·판례] 잔금일 앞당겼다가 일시적 3주택 보유…행법 "중과세 부당" [예규·판례] 대법 "근로복지공단, 파산기업 경매서 임금채권 우선 배당 가능" 칼럼 인터뷰 [시론] 부부간 자산의 무상이전으로 인한 세금의 완화방안 (조세금융신문=안경봉 국민대 법대 교수) 부부간 자산의 무상이전으로 인한 세금문제에 대해 살펴보면, 현행 상속세 및 증여세법(상증세법)에서는 원칙적으로 배우자에 대한 증여나 상속에 대해 과세하지 않는다는 규정이 없으므로 생전에 부부 사이에 무상으로 재산을 증여하면 증여세, 부부 일방이 사망함으로써 타방이 재산을 상속하면 상속세가 부과된다. 다만, 배우자간 증여는 10년간 6억원까지 과세되지 않으며, 상속은 30억원까지 공제해 준다. 부부간 자산의 무상이전으로 인한 상속세와 증여세 실효세율 격차 상속세 배우자공제가 증여세 배우자공제에 비해 규모가 크다 보니 부부간 자산의 무상이전으로 인한 증여세의 실효세율이 상속세의 실효세율에 비해 일반적으로 높게 나타난다. 그러나 실증연구(강성훈·오종현, 상속과 증여에 대한 세부담 격차 연구, 2020)에 의하면 배우자 일방이 배우자 타방과 자녀들에게 상속 또는 증여하는 경우, 자녀수가 증가할 수록 상속세와 증여세의 실효세율 격차는 감소하는 것으로 밝혀졌다. 이와 같은 결과가 나타나는 것은 공동상속인의 수가 늘어날수록 배우자 상속분이 감소하게 되고, 이로 인해 상속세 배우자공제액도 작아지기 때문이다. 뿐만 아니라 상속세는 유 [데스크칼럼] 건강보험 국고지원금이 주머니 쌈짓돈인가 [김우일의 세상 돋보기] 대통령의 국정 독대보고, 故김우중 회장 본받아야 [시론] 금리인상이 부른 환율전쟁 [인터뷰] 세무법인 넥스트 조남철 대표세무사 “세상을 바꾸는 세무사가 되겠다” (조세금융신문=이지한 기자) 세무사 개업 10년차인 세무법인 넥스트 조남철 세무사는 법인전환, 가업승계, 상속증여 등 법인과 개인에 대한 전문 세무 컨설팅으로 정평이 나있다. 삼성·서초·역삼 합동세무서 바로 옆에 있는 한라클래식 4층에 위치한 세무법인 넥스트는 본점과 강남지점이 나란히 자리를 잡고 있다. 조남철 대표세무사는 전문 컨설팅 분야를 개척해 온 것은 물론 젊은 후배 세무사들에게도 전문성을 키우기 위한 전략에 대해 노하우를 전승하면서, 또 이를 IT와 연계한 프로그램 개발도 진행하고 있다. “세상을 바꾸는 세무사가 되겠다”는 원대한 비전을 하나씩 실천해 나가고 있다는 조남철 세무사를 만나봤다. Q. 세무법인 넥스트 홈페이지 인사말을 보면 “시시각각 변하는 조세제도에서 기업의 새로운 출구전략과 새로운 전문가 출현이 시대의 소명이라 생각하고 기존과 다른 형태의 세무컨설팅을 위해 출범했다”라고 밝히고 있는데요, 세무법인 넥스트는 어떤 차별점을 갖고 계시나요? 기본적인 법인세, 소득세 신고와 상속세, 증여세, 양도소득세 재산세 신고는 물론 기업에 필요한 부분이라면 공부하고 연구해서 기업에 도움을 줄 수 있어야 한다고 생각합니다. 세무는 물론 법률, 특허, 노 [인터뷰] 이상민 나라살림연구소 수석전문위원, 첫 세제개편안…"반시장주의적 요소 넘쳐난다" [초대석] 수소인프라 구축 선도 기업, 한국가스기술공사 조용돈 사장 [인터뷰] 주영진 연수지역세무사회장, 소통과 화합의 '코로나프리' 지역세무사회 만들어야 인기뉴스 1[2022 국감] 산은 부산이전 파열음 거센데…김주현 “빨리하겠다” 2국세청, MBC세무조사 진행 중…착수 시점은 8월 말 3대통령실 김동조 비서관 과거 ‘조세회피’ 발각…민주당, 즉각 해임 요구 4중부지방세무사회 '추계 회원 세미나'...플랫폼 사업자 대응 방안 등 현안 모색 5자금수혈 임박한 KB부코핀은행…금융노조 “추가 지원 반대” 인사/동정 더보기 [인사] 노사발전재단 팀장-지사장 발령 [인사] 중소벤처기업부 과장급 전보 [인사] 특허청 과장급 승진 [인사] 산업통상자원부 부이사관 승진 [인사] 식품의약품안전처 개방형 직위 임용 회사소개 매체소개 광고문의 사업분야 개인정보취급방침 청소년보호정책 (책임자 : 송기현) 이메일 무단수집거부 기사제보 문의하기 알립니다 회사명 : 주식회사 조세금융신문 사업자 등록번호 : 107-88-12727 주소 : 서울시 강서구 마곡중앙로 161-8(마곡동) 두산더랜드파크 B동 8층 인터넷신문등록번호 : 서울, 아01713 등록일자 : 2011. 07. 25 제호 : 조세금융신문 발행인:김종상 편집인:양학섭 발행일자 : 2014. 04. 20 TEL : 02-783-3636 FAX : 02-3775-4461 Copyright @ All rights reserved. UPDATE: 2022년 10월 11일 11시 52분 최상단으로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 관광종사자 대상 '중국문화 향상과정' 교육 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 관광종사자 대상 '중국문화 향상과정' 교육 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 관광종사자 대상 '중국문화 향상과정' 교육 박성우 기자 headlinejeju@headlinejeju.co.kr 승인 2016.07.05 18:13 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(회장 김영진)와 제주한라대학교 직업훈련센터(소장 부순환)는 지난 4일부터 도내 관광종사원을 대상으로 하는 '중국문화 향상과정' 교육 프로그램을 운영중에 있다고 5일 밝혔다.이 교육 프로그램은 중화권 개별 관광객 증가 추세에 대비해 도내 관광사업체의 효과적인 현장 응대 서비스를 지원하기 위해 마련됐다. 원어민 강사를 초빙해 중국 문화, 중국어 회화 중심으로 집중 교육하게 된다.제주도관광협회 관계자는 "도내 관광산업의 질적성장을 위해서는 관광객의 만족도 증진이 우선시 돼야 하며, 그 기본은 원활한 의사소통이 돼야한다"며 "앞으로도 지속적인 외국어 및 글로벌 마인드 함양 교육 제공을 통해 대고객 서비스와 글로벌 마인드 함양에 기여할 것"이라고 말했다. &lt;헤드라인제주&gt;&lt;박성우 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 박성우 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 관광정보안내소 안내서비스 표준 매뉴얼 마련 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 관광정보안내소 안내서비스 표준 매뉴얼 마련 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 관광정보안내소 안내서비스 표준 매뉴얼 마련 편집팀 headlinejeju@headlinejeju.co.kr 승인 2016.07.12 14:18 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주도내 관광안내소 및 안내사의 서비스 향상을 위해 관광안내 서비스에 관한 표준 매뉴얼이 마련됐다.제주특별자치도는 '제주관광 질적성장 기본계획'의 후속조치로, 지난 5월 관광안내소를 운영하는 행정시, 관광협회, 제주관광공사 등 4개 기관이 참여해 실무협의체를 구성해 안내서비스 개선방안을 마련하는 한편, 고품질 안내서비스를 위한 표준화 작업을 추진 중에 있다고 12일 밝혔다.지난달 확정된 관광안내서비스 표준 매뉴얼에는 관광안내 기본사항을 비롯해, 대면 응대시 관광안내 요령 및 관광객 특성별․국적별 응대방법 등이 담겨있다.올 하반기에는 제주도내 관광안내사가 통일된 근무복을 입고 근무하면서 관광객에게 신뢰감을 줄 수 있도록 추진할 계획이다. &lt;헤드라인제주&gt;&lt;헤드라인제주 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>성산일출봉맛집 장승포식당 해마다 증가하는 제주도 관광객 발길 잡는다 | 한국경제TV 닫기 와우넷 와우파 한경 KVINA 로그아웃 마이페이지 로그인 고객의견 고객센터 열기 뉴스 SITE MAP 검색하기 검색 최신뉴스 증권 경제 부동산 부동산 뉴스 부동산 컨설팅 산업·IT 가상화폐 국제 취업 취업일반 취·창업뉴스 직업의세계 스타트업CEO 많이 본 뉴스 한국경제TV 와우넷 와우파 회원가입 한경구독 지역별채널 편성표 온에어 HOT "우크라에 무더기 미사일 쏜 푸틴, 러 강경파 압력에 굴복" ‘솔로 데뷔 D-1’ 백호, 미니 1집 ‘Absolute Zero’ 기대 포인트는? 6년만에 자카르타 찾은 해군 순항훈련전단…인니서 위용과시 한미약품-한미정밀화학, 인적자원개발 우수기관 2년연속 인증 [포토] 유인나, '예쁘다~예뻐~' [포토] 김혜준-정해인, '다정한 손인사~' (27th BIFF) [온에어] 정오의 머니머니 [굿모닝 한경글로벌마켓] 간만의 연이틀 큰폭 상승... 배경은? - 당신이 잠든 사이 LIVE 코스피 2,183.39 (49.45 2.21%) 코스닥 670.39 (28.10 4.02%) 버튼 가상화폐 시세 관련기사 보기 정보제공 : 빗썸 닫기 TV 증권 주식상담 경제 기업·CEO 생활경제 특집 전체 프로그램 LIVE 한국경제TV 굿모닝 한경 글로벌마켓 1부 굿모닝 한경 글로벌마켓 2부 오늘장 뭐사지? 코리아마켓 [#내여주] 경주마 (경제주식마무리) 뉴스플러스 매수자들 프리뷰 뉴욕 경제전쟁 꾼 (금요일) 뉴스 최신뉴스 증권 경제 부동산 산업·IT 가상화폐 국제 취업 많이 본 뉴스 칼럼·연재 출근전 꼭 글로벌 브리핑 글로벌 시황&amp;이슈 GO WEST 증시프리즘 용와대에선 글로벌마켓 A/S 국제경제읽기 글로벌 구루에게 듣는다 슬기로운 금융생활 권영훈의 집중탐구 증권 국내증시 해외증시 특징주 매매신호 인기검색종목 연예·스포츠·여행 연예·스타 스포츠 국내여행 해외여행 HOME 뉴스 최신뉴스 ​ 성산일출봉맛집 `장승포식당`, 해마다 증가하는 제주도 관광객 발길 잡는다 핀핀하기 페이스북 페이스북 트위터 트위터 카카오스토리 카카오스토리 블로그 블로그 링크 복사 링크 복사 페이스북 노출 0 입력 2016-07-01 15:36 목록으로 댓글달기 댓글 인쇄하기 인쇄 글자 크게 글자 작게 성산일출봉맛집 `장승포식당`, 해마다 증가하는 제주도 관광객 발길 잡는다 SITE MAP [와우넷 오늘장전략] 나스닥 27개월래 최저..일본 무비자 관광 허용-와우넷 오늘장전략 본격적인 여름 휴가철이 시작된 가운데 휴가 계획을 세우는 이들이 많아지고 있다. 특히 지친 일상에서 벗어나 아름다운 풍경 속에서 맛있는 음식을 먹으며 휴식을 취할 수 있는 힐링 여행이 선호되고 있다.그 중에서 우리나라 대표 여행지로 꼽을 수 있는 제주도는 힐링 여행과 맛집 탐방을 모두 즐길 수 있어 해마다 방문객이 증가하고 있다.제주도관광협회 통계에 따르면 올해 방문한 내국인 관광객의 경우 전년 동기 대비 14.8%나 증가했다. 또한 급증하는 중국인 관광객들을 비롯해 외국인 관광객도 지속적인 증가세를 보이고 있다. 올해 제주도를 찾은 외국인 방문자의 수는 벌써 약 500만 명을 넘겼다.제주도가 이처럼 관광객들의 발길을 사로잡을 수 있었던 이유는 사계절 내내 아름다운 풍경과 관광 명소, 다양한 특산물을 꼽을 수 있다.제주도는 성산일출봉, 섭지코지, 천지연폭포, 한라산 등 손으로 셀 수 없을 만큼 많은 관광지를 지닌 가운데 그 중에서도 성산일출봉은 특히 관광객들이 선호하는 곳이다.성산일출봉은 천연기념물 제 420호로 오름이 많은 제주도에서 해 뜨는 오름으로 불리며 아름다운 절경과 제주도 특산물 음식을 활용한 맛집들이 많기 때문이다.성산일출봉맛집 중에서도 제주도의 대표적인 특산물로 꼽히는 갈치를 푸짐하게 즐기고 싶다면 `장승포식당`을 방문하는 것도 고려할 만하다.갈치조림을 조리 후 일반 접시가 아닌 냄비에 끓여 제공한다. 이에 따뜻하고 깊은 제주도갈치의 맛을 느낄 수 있다. 또한 갈치조림을 주문할 경우 메인 음식으로도 손색 없는 갈치회를 서비스로 제공해 다양한 갈치 요리를 즐길 수 있다.이 외에도 여러 가지 음식을 모두 즐길 수 있는 코스요리도 마련돼 있다. 다양한 코스요리 가운데 B코스는 해물뚝배기, 갈치조림, 고등어구이, 한치물회, 갈치회 등 푸짐한 메뉴로 구성돼 있어 관광객들이 만족도가 높다는 평가다.또한 이 곳은 성산일출봉과 섭지코지와 가까워 식사와 동시에 절경 감상까지 가능해 눈과 입 모두를 충족시킬 수 있다. 한편 장승포식당은 제주도 서귀포시 성산읍 인근에 위치해 있으며 자세한 문의는 전화로 확인 가능하다. 성산일출봉맛집 장승포식당 제주도 관광객 성산일출봉 와우넷 오늘장전략 핀핀하기 페이스북 페이스북 트위터 트위터 카카오스토리 카카오스토리 블로그 블로그 링크 복사 링크 복사 좋아요 00 싫어요 00 후속기사 원해요 00 목록으로 목록 인쇄하기 인쇄 관련뉴스 마이핀 코로나연준반도체러시아 tab area 뉴스 기자 방송 파트너 상한가닥터스 박윤진대표 와우넷파트너교육 하채기대표 와우캐시 와우넷에서 실제 현금과동일하게 사용되는 사이버머니 캐시충전 서비스 상품 파트너방송 증권·부동산 교육 월정액 서비스 파트너 방송 GOLD 한국경제 TV 실시간 방송 구매하기 이용안내 GOLD PLUS 골드서비스 + VOD 주식강좌 구매하기 이용안내 파트너 방송 파트너방송 + 녹화방송 + 회원전용게시판+SMS증권정보 + 골드플러스 서비스 구매하기 이용안내 고객센터 강연회·행사 더보기 7일간 등록된 일정이 없습니다. 이벤트 7일간 등록된 일정이 없습니다. 공지사항 더보기 [한국경제TV] [고지] 한국경제TV 이용약관 개정 안내 1:1문의하기 시민제보하기 open ​​ 뉴스 목록 보기 arrow 뉴스 최신뉴스 증권 경제 부동산 산업·IT 가상화폐 국제 취업 칼럼·연재 출근전 꼭 글로벌 브리핑 글로벌 시황&amp;이슈 GO WEST 증시프리즘 용와대에선 글로벌마켓 A/S 국제경제읽기 글로벌 구루에게 듣는다 슬기로운 금융생활 권영훈의 집중탐구 증권 국내증시 해외증시 특징주 매매신호 인기검색종목 연예·스포츠·여행 연예·스타 스포츠 국내여행 해외여행 많이 본 뉴스 RSS | 구독 TV 목록 보기 증권 K-스탁 라이브 굿모닝 한경 글로벌마켓 1,2부 [홈] 마켓인사이트 성공투자 오후증시 1-2부 [홈] HOT 정오의 머니머니 증시투데이 출발증시 투데이 한경 코리아마켓 HOT 한경 글로벌마켓 HOT 대박천국 1-3부 [홈] HOT 대박천국 1부 대박천국 2부 대박천국 3부 대박천국 선데이 1-3부 [홈] 대박천국 프리미엄 주식상담 국고처 프라이데이 1-2부 [홈] 국고처 프라임 국민주식고충처리반 1~5부 [홈] 경제 경제전쟁 꾼 시즌2 경주마 HOT 뉴스플러스 HOT 미네르바 클래스 HOT 쓰리고 아이돌 경제학교 생활경제 건강매거진 1-3부 [홈] 버추얼토크 가상자산 치아건강 닥터스 기업·CEO 기업가정신 콘서트 기업가정신을 말하다 혁신성장코리아 특집방송 바이오 1번지 보스턴에 가다 1-2부 [홈] 와우넷 스페셜 [홈, 19人] HOT 추석 이후 투자전략 1-4부 [홈] 전체 프로그램 고객 참여 기사정정삭제 | 의견 이벤트 이용약관 개인정보처리방침 기사배열기본방침 YouTube 서비스 약관 Google 개인정보처리방침 패밀리사이트 패밀리사이트 한국경제TV 와우넷 와우파 한경 KVINA 한경미디어그룹 한국경제신문 한국경제매거진 BOOK 한경아카데미 텐아시아 모바일앱 한국경제TV앱 주식창앱 와우넷앱 와우밴드앱 한경 KVINA앱 회사소개 상시채용 고객센터 광고안내(인터넷·TV) 제휴문의 사이트맵 고객센터 안내 1599-0700 월 ~ 금 08:00 ~ 23:00 일요일 12:30 ~ 22:30 토·공휴일 10:00 ~ 15:00 (주)한국경제티브이 대표이사 조주현 서울특별시 중구 청파로 463(중림동, 한국경제신문사) (우:04505) 사업자등록번호 : 107-81-70183 통신판매업신고번호 : 서울중구 2022-0572호 호스팅제공자 : (주)한국경제티브이 기사배열 책임자 : 유은길 Copyright&amp;copy 한국경제TV. All Rights Reserved. 인쇄하기 닫기 인쇄하기 인쇄 2016-07-01 15:36 성산일출봉맛집 `장승포식당`, 해마다 증가하는 제주도 관광객 발길 잡는다 본격적인 여름 휴가철이 시작된 가운데 휴가 계획을 세우는 이들이 많아지고 있다. 특히 지친 일상에서 벗어나 아름다운 풍경 속에서 맛있는 음식을 먹으며 휴식을 취할 수 있는 힐링 여행이 선호되고 있다.그 중에서 우리나라 대표 여행지로 꼽을 수 있는 제주도는 힐링 여행과 맛집 탐방을 모두 즐길 수 있어 해마다 방문객이 증가하고 있다.제주도관광협회 통계에 따르면 올해 방문한 내국인 관광객의 경우 전년 동기 대비 14.8%나 증가했다. 또한 급증하는 중국인 관광객들을 비롯해 외국인 관광객도 지속적인 증가세를 보이고 있다. 올해 제주도를 찾은 외국인 방문자의 수는 벌써 약 500만 명을 넘겼다.제주도가 이처럼 관광객들의 발길을 사로잡을 수 있었던 이유는 사계절 내내 아름다운 풍경과 관광 명소, 다양한 특산물을 꼽을 수 있다.제주도는 성산일출봉, 섭지코지, 천지연폭포, 한라산 등 손으로 셀 수 없을 만큼 많은 관광지를 지닌 가운데 그 중에서도 성산일출봉은 특히 관광객들이 선호하는 곳이다.성산일출봉은 천연기념물 제 420호로 오름이 많은 제주도에서 해 뜨는 오름으로 불리며 아름다운 절경과 제주도 특산물 음식을 활용한 맛집들이 많기 때문이다.성산일출봉맛집 중에서도 제주도의 대표적인 특산물로 꼽히는 갈치를 푸짐하게 즐기고 싶다면 `장승포식당`을 방문하는 것도 고려할 만하다.갈치조림을 조리 후 일반 접시가 아닌 냄비에 끓여 제공한다. 이에 따뜻하고 깊은 제주도갈치의 맛을 느낄 수 있다. 또한 갈치조림을 주문할 경우 메인 음식으로도 손색 없는 갈치회를 서비스로 제공해 다양한 갈치 요리를 즐길 수 있다.이 외에도 여러 가지 음식을 모두 즐길 수 있는 코스요리도 마련돼 있다. 다양한 코스요리 가운데 B코스는 해물뚝배기, 갈치조림, 고등어구이, 한치물회, 갈치회 등 푸짐한 메뉴로 구성돼 있어 관광객들이 만족도가 높다는 평가다.또한 이 곳은 성산일출봉과 섭지코지와 가까워 식사와 동시에 절경 감상까지 가능해 눈과 입 모두를 충족시킬 수 있다. 한편 장승포식당은 제주도 서귀포시 성산읍 인근에 위치해 있으며 자세한 문의는 전화로 확인 가능하다. 한국경제TV</t>
+  </si>
+  <si>
+    <t>제주도 내 구입한 관광 상품, 부가세환급 규정 신설 - 日刊 NTN(일간NTN) S2N98 × 전체기사 정책 전체 재정 /예산 / 결산 금융/증권/보험 건설 /주택/ 부동산 자원/에너지/환경 보건 / 복지 / 의료 /건강 고용 / 노동 / 창업 수출 / 무역 /교통 /물류 임금 / 소득 / 재테크 통계 / 지표 / 가계소득 세법 / 세제 / 조세 / 관세 IT/산업/과학 /미래 환율 / 물가 / 경기 생활/ 문화 / 교육 /기타 공무원 /공기업 / 공사 산업·기업 전체 기업일반 / 중소기업 /상공인 IT /과학 / 산업정책 유통/소비자 / 백화점 주류/담배/면세점 기업 공시 /경제 단신 대기업/ 임원/ 총수 자동차 / 물류 / 운송 /해운 자원 / 환경 / 전기,에너지 건설업 / 주택/ 부동산 예술/문화/ 연예/스포츠 은행 / 증권/ 보험 /카드 고용 / 노동/ 임금/ 노조 /소득 의료/건강/생활/여행 財테크/금융가이드/주식/펀드 CEO / 기업 동정 광고/ 이벤트/기타 유권해석 전체 예규 판례 심판례 심사례 헌재결정 상담사례 기타 조세행정 전체 내국세 지방세 관세 기금/부담금 사회보험 국제조세 기타 연말정산 / 환급 오피니언 전체 세정칼럼 데스크칼럼 취재수첩 오피니언 기타 건강칼럼 특별기고 시사영어 해외화제 오늘의 영어 유사단어 세종砲音 테마여행 사람들 전체 프리즘 거꾸로한마디 말말말 기타 동정 인사 부음 잔치 기타 인사기타 인터뷰/르뽀 안테나 전문가 전체 세무사 회계사 변호사 관세사 기타 연구소/ 연구원 교수 / 학계 법무법인/ 회계법인/ 세무법인 동서남북 전체 청와대 / 총리실 /감사원/외교부/통일부/국방부 기재부/통계청/조달청 국세청 / 조세심판원 관세청/지방세관 행자부/지방자치단체/인사혁신처/권익위 금감원/ 금융위 /한은/결제원 검찰 / 경찰/ 법원 /헌재/사고 공정거래위 국토교통부 국회/국회의원/당정회의 공공기관/협회 및 단체/기타 산업통상자원부 /중기청 한국거래소/증권선물위 보건복지/문화체육/미래창조/농림축사/환경/노동부 지방청/세무서 이슈/기획 전체 포커스 기획특집 탐사보도 기고 기타 현장탐방 뉴스브리핑 연재 전체 13th 월급, ‘연말정산 절세포인트’ 최동현세무사, ‘CEO의 절세비법’ 쟁점세법, 금주의 법령해석 성종헌 세무사의 알아두면 유익한 세금구제사례 알기쉬운 OECD모델 조세협약 국세청 법인세 사후검증 사례 한성수 세무학 박사의 알기 쉽게 번역된 2012년 OECD모델조세 협약 김종관 세무사의 조세불복 비법 창간축사 만화 연합뉴스 전체 기타 정치 경제 사회 문화 스포츠/레저 국제 지방 IT/과학 북한 민족 경제 금융 일반 스포츠 특집 연예 UPDATED. 2022-10-11 11:36 (화) 로그인 회원가입 모바일웹 전체 정책 재정 /예산 / 결산 금융/증권/보험 건설 /주택/ 부동산 자원/에너지/환경 보건 / 복지 / 의료 /건강 고용 / 노동 / 창업 수출 / 무역 /교통 /물류 임금 / 소득 / 재테크 통계 / 지표 / 가계소득 세법 / 세제 / 조세 / 관세 IT/산업/과학 /미래 환율 / 물가 / 경기 생활/ 문화 / 교육 /기타 공무원 /공기업 / 공사 산업·기업 기업일반 / 중소기업 /상공인 IT /과학 / 산업정책 유통/소비자 / 백화점 주류/담배/면세점 기업 공시 /경제 단신 대기업/ 임원/ 총수 자동차 / 물류 / 운송 /해운 자원 / 환경 / 전기,에너지 건설업 / 주택/ 부동산 예술/문화/ 연예/스포츠 은행 / 증권/ 보험 /카드 고용 / 노동/ 임금/ 노조 /소득 의료/건강/생활/여행 財테크/금융가이드/주식/펀드 CEO / 기업 동정 광고/ 이벤트/기타 유권해석 예규 판례 심판례 심사례 헌재결정 상담사례 기타 조세행정 내국세 지방세 관세 기금/부담금 사회보험 국제조세 기타 연말정산 / 환급 오피니언 오피니언 세정칼럼 데스크칼럼 취재수첩 기타 건강칼럼 특별기고 시사영어 해외화제 오늘의 영어 유사단어 세종砲音 테마여행 사람들 프리즘 거꾸로한마디 말말말 기타 동정 인사 부음 잔치 기타 인사기타 인터뷰/르뽀 안테나 동서남북 청와대 / 총리실 /감사원/외교부/통일부/국방부 기재부/통계청/조달청 국세청 / 조세심판원 관세청/지방세관 행자부/지방자치단체/인사혁신처/권익위 금감원/ 금융위 /한은/결제원 검찰 / 경찰/ 법원 /헌재/사고 공정거래위 국토교통부 국회/국회의원/당정회의 공공기관/협회 및 단체/기타 산업통상자원부 /중기청 한국거래소/증권선물위 보건복지/문화체육/미래창조/농림축사/환경/노동부 지방청/세무서 본청 서울청 중부청 대전청 광주청 대구청 부산청 기사검색 검색 이전 다음 제주도 내 구입한 관광 상품, 부가세환급 규정 신설 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 동서남북 국회/국회의원/당정회의 제주도 내 구입한 관광 상품, 부가세환급 규정 신설 이혜현 기자 승인 2016.07.15 10:39 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × S2N98 강창일 의원, 조세특례제한법 일부개정 법률안 대표발의 제주특별자치도 여행객에 대한 부가가치세 환급제도가 실시되지 못하고 있는 실정을 개선하려는 움직임이 일고 있다.강창일 더불어민주당 의원은 제주특별자치도 여행객에 대한 부가가치세 환급을 규정하는 것을 골자로 조세특례제한법 일부개정안을 대표 발의했다고 15일 밝혔다.국회는 2011년 5월 제주특별자치도 여행객이 도내에서 구입·소비하는 관광 관련 재화·용역에 대해 조세특례제한법에서 정하는 바에 따라 부가가치세액을 환급할 수 있도록 하는 제주특별자치도 설치 및 국제자유도시 조성을 위한 특별법을 의결해 시행했다.하지만 현재까지 조세특례제한법 개정이 이뤄지지 않아 제주특별자치도 여행객에 대한 부가가치세환급제도가 실시되지 못하고 있는 실정이다.이에 대해 강 의원은 “제주특별자치도 여행객에 대한 부가가치세 환급을 규정함으로써 제주특별자치도의 관광경쟁력을 높일 필요가 있다”고 밝혔다.또 “현행법은 버스, 지하철 등 대중교통수단의 이용대가를 신용카드 등으로 지급 시 해당 금액의 100분의 30을 소득공제하고 있으나 제주특별자치도 도민들은 육지로 이동하기 위해서 주로 항공기를 이용하는 실정을 고려해 신용카드 등을 사용해 항공기의 이용대가를 지급한 경우소득공제 대상으로 규정해야 한다”고 주장했다.강 의원이 발의한 조세특례제한법이 일부 개정안의 주요 내용은 다음과 같다.제주특별자치도 여행객이 제주특별자치도 설치 및 국제자유도시 조성을 위한 특별법 제255조에 따른 관광 관련 재화·용역을 구입·소비하는 경우, 부가가치세액을 환급하는 내용을 담은 제121조의 14 제1항을 신설했다.제주특별자치도 여행객 1인이 환급받을 수 있는 부가가치세액의 한도는 제주특별자치도 방문 1회당 10만원 이하로 정하고 연도별로 6회까지 환급받을 수 있다는 내용을 담은 제121조의 14 제2항 신설했다.그 밖에 제주특별자치도 도민들이 육지로 이동하기 위해 신용카드 등을 사용해 항공기 이용대가를 지급한 경우, 신용카드 등 사용금액에 대한 소득공제를 받을 수 있도록 제126조의 2제2항을 신설했다. 저작권자 © 日刊 NTN(일간NTN) 무단전재 및 재배포 금지 이혜현 기자 che8411@intn.co.kr 다른기사 보기 [인사] 정정회 조세심판원 제5상임심판관 자녀 명의 법인 자금대여 후 고액 이자·원금 받는 편법증여 집중 검증 [판례평석]세무사는 상인에 해당하지 않으며 10년간 보수금 청구를 할 수 있다 거주 이전 위한 ‘부득이한 3주택’…중과세율 적용 안 돼 7일 시간외 금호전기·엔시트론·스킨앤스킨…9.59·8.96·6.06%↑ [국세칼럼] 이른 바 ‘똘똘한 한 채’의 역설 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 가장 많이 본 기사 1[기획] '위기의 세무사' ⓵기장료 20년 제자리…“세무사업 끝났다”? 2검찰 압수수색 대상 국세청 직원, 세무사 사무장과 7000만원대 금전거래 3임광현 전 국세청 차장, 세무대리인으로 제2의 인생 스타트! 4공정거래위원회, "대기업집단 제도 합리적 운영하겠다." 57일 시간외 금호전기·엔시트론·스킨앤스킨…9.59·8.96·6.06%↑ 6박용진 의원, “정부 입김에 흔들리는 무책임한 공정위” 7[사례로 풀어보는 양도소득세] 일반적인 주택의 취득시기는 언제인지? 8국세청, "이달 부가세 예정신고·납부...부당환급 검증 대폭 강화" 96일 시간외 대우부품·대명에너지·상지카일룸…10·9.92·9.90%↑ 10농협, 재무제표 없이 대출해주고 농지 취득 외 목적임을 알면서도 대출해줘 최신 판례 [판례평석]세무사는 상인에 해당하지 않으며 10년간 보수금 청구를 할 수 있다 거주 이전 위한 ‘부득이한 3주택’…중과세율 적용 안 돼 ‘최저가 강요’ 배달앱 요기요, 공정거래법 위반 혐의 1심서 무죄 업무 관련 지인과 골프모임 가진 공무원 “정직 처분 정당” GS그룹 오너 일가도 주식 양도세 소송 승소…“23억 부과 취소” 이시각 헤드라인 기업뉴스 7일 시간외 금호전기·엔시트론·스킨앤스킨…9.59·8.96·6.06%↑ 국민연금, 한샘 주식 약 24만주 매도 6일 시간외 대우부품·대명에너지·상지카일룸…10·9.92·9.90%↑ 6일 시간외 에스티큐브 종가대비 4.99% ↓ 에디슨모터스 회장 등 3명, 구속 영장 심사 연기 신청 세정가 현장리포트 [인사] 정정회 조세심판원 제5상임심판관 [인사] 정정회 조세심판원 제5상임심판관 □국장급 승진조세심판원 제5상임심판관 정정회 □프로필△1967년생 △ 광주 △광주 동신고, 전남대 법학과 △7급공채 △조세심판원 심판조사관 △목포세무서장(인사교류) △조세심판원(舊... 자녀 명의 법인 자금대여 후 고액 이자·원금 받는 편법증여 집중 검증 자녀 명의 법인 자금대여 후 고액 이자·원금 받는 편법증여 집중 검증 사주가 돈이 없는 자녀를 대신해 자녀 명의로 법인에 자금을 대여해 주고 자녀가 법인으로부터 고액의 이자와 원금을 상환 받는 방식의 편법증여 혐의가 적발돼 국세청이 세무조사에 나섰다... 사람들 동정 인사 잔치 부음 대구지방국세청, 6.25 참전용사 돕는다 [동정] 정승환 서울본부세관장, 대전세관 현장 점검 삼정KPMG, 10월 5일 전자-IT산업 대상 ‘ESG 세미나’ 개최 기획재정부의 공공기관 운영 문제점과 개선방안 정책토론회 개최 관세청, 적극행정 우수 직원 선정·포상 [인사] 공정위 국·과장급 승진, 전보(2022.10.08.字) [인사] 관세청 부이사관 승진 [인사] 관세청 고위공무원 승진 전보 [인사] 공정위 과장급 전보(2022.09.20.字) [인사] 공정위 과장급 전보(2022.09.19.字) 임광현 전 국세청 차장, 세무대리인으로 제2의 인생 스타트! [결혼] 정삼진 前 남대문세무서장 아들 [결혼] 이한종 세무법인 화우 대표세무사 장녀 [결혼] 최 훈 세무사(전 중부지방세무사회 부회장) 딸 김재철 전 중부지방국세청장, 세무사로서 제2의 인생 출발 이동준 골드컨트리클럽·코리아컨트리클럽 회장 별세 [부음] 이헌복 미래에셋자산운용 자산배분부문대표 장인상 [부고] 신한은행 홍보부 수석 김은석 부친상 [부고] 송기봉 전 광주지방국세청장 빙모상 [부고] 황영순 세무사(한국세무사회 이사) 모친상 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 마포구 잔다리로3안길 46(서교동), 국세신문사 대표전화 : 02-323-4145~9 팩스 : 02-323-7451 청소년보호책임자 : 이예름 법인명 : (주)국세신문사 제호 : 日刊 NTN(일간NTN) 등록번호 : 서울 아 01606 등록일 : 2011-05-03 발행일 : 2006-01-20 발행인 : 이한구 편집인 : 이한구 日刊 NTN(일간NTN) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 日刊 NTN(일간NTN) . All rights reserved. mail to ntn@intn.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 별장형 오피스텔 ‘더바른’ 분양 - 국토일보 × 전체기사 사설 뉴스 전체 건설 부동산 환경 업계 CM/ENG 자재/장비 철도/항만 에너지 신기술 기획/특집 인터뷰 지방종합 국토문화 기업탐방 인사/동정/부고 입찰공고 입찰정보 특별좌담 논단 글로벌CEO 인터뷰 IT 금융·경제 교통/물류 문화·체육 건설인 축구동호회 탐방 국토정보 안전 오피니언 전체 기자수첩 국토논단 기고/논단 제언 時談事談 (시담사담) 칼럼 전체 의학상식 데스크 칼럼 재테크 칼럼 건설전문가 자유칼럼 국토일보 현장 25時 구인구직 전체 구인/구직 온라인건설일보 건설환경기술대상 건설문화대상 건설사진공모전 카드뉴스 UPDATED. 2022-10-11 12:07 (화) 로그인 회원가입 모바일웹 뉴스 건설 부동산 환경 업계 CM/ENG 자재/장비 철도/항만 에너지 신기술 기획/특집 인터뷰 지방종합 국토문화 안전 칼럼 데스크 칼럼 오피니언 의학상식 기고/논단 전문기자 Review 커뮤니티 공지사항 행사 건설환경기술대상 건설문화대상 건설인 축구대회 건설사진공모전 기사제보 구독신청 국토일보TV 기사검색 검색 이전 다음 제주도 중문관광단지 별장형 오피스텔 ‘더바른’ 분양 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 부동산 제주도 중문관광단지 별장형 오피스텔 ‘더바른’ 분양 이경옥 기자 승인 2016.07.12 11:37 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [국토일보 이경옥 기자] 제주도는 매년 인구가 크게 늘면서 수요가 큰 폭으로 증가 한데 반해 공급이 부족하다 보니 임대수익률이 전국 최고치를 기록하고 있다.통계청 자료에 따르면 2015년 제주도로 유입된 순 이동인구는 1만4,257명으로, 이는 경기도(9만4,768명)와 세종시(5만3,044명)를 제외하고 가장 높은 수치다.이처럼 제주도 인구수는 해마다 증가하고 있는 상태로 이러한 인구증가는 제주도 부동산 시장의 호황으로 이어졌다. 실제로 부동산114에 따르면 지난해 제주도 아파트 평균 매매가격과 평균전세가격은 각각 8.75%, 9.47%가 올랐으며, 땅값도 평균 7.5%가 올랐다.그 중에서도 오피스텔의 수익률이 가장 주목 할만하다. 지난해 제주도의 연간 오피스텔 임대 수익률은 10.1%로 강남권역 수익률 5.0%(2016년 2월 기준)보다 2배 이상 높은 수치를 보였으며, 제주도를 제외하고는 오피스텔 연간 임대수익률이 10%를 넘는 지역이 전무했다.이에 제주도 중에서도 가장 높은 인구 유입률과 개발가능성을 갖추고 있는 서귀포시 일대의 오피스텔이 분양 호황기를 맞고 있는 가운데, 중문관광단지 주변에 위치한 ‘더바른’ 오피스텔이 분양 중이다.서귀포시는 ‘제주 제2공항’ 개발을 비롯해 신화역사공원(외국인카지노, 복합리조트, 컨벤션, 공연장, 쇼핑몰), 헬스케어타운(의료복합단지, 의료연구단지), 영어국제교육도시, 서귀포관광미항, 강정크루즈항 등 다량의 대규모 개발사업들이 집중될 계획으로 더바른 또한 이러한 각종 개발호재를 품을 수 있게 될 전망이다.해당 오피스텔은 전용면적 61.95㎡의 48실과 2가지 타입의 전용면적 35.65㎡ 32실, 총 80실의 2개 단지로 구성되며, 전용면적 61.95㎡은 전 가구 3-bay 평면으로 개방감을 극대화 했다.전 가구 남향배치 된 가구 내로는 시스템에어컨, 세탁기, 냉장고, 제습기 등 생활에 필요한 풀옵션 주거시스템을 갖추고 있으며, 1층 필로티 설계를 통해 넉넉한 주차공간을 확보했다.단지 주변으로 다양한 생활인프라가 조성돼 있는 것도 장점이다. 인근에 대형마트, 체육센터 등이 조성돼 있으며, 도보통학권에 중문초, 중문중학교가 위치하고 있다.또한 입주민들은 서귀포의 대표관광지인 중문해수욕장, 주상절리, 대포항, 중문CC 등을 가깝게 이용할 수 있으며, 단지 1㎞ 내에 조성돼 있는 제주국제컨벤션센터 이용이 편리하다.아시아신탁 및 하이스트 종합건설에서 시공, 현재 계약금 500만원 정액제 및 중도금 60% 무이자 등의 혜택을 제공 중이다. 준공예정일은 2017년 1월이다.이경옥 기자 kolee@ikld.kr 저작권자 © 국토일보 무단전재 및 재배포 금지 이경옥 기자 다른기사 보기 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 뉴스레터 신청하기 이름 회사명 이메일 확인 ​ 인기기사 1SM경남기업, '군산 경남아너스빌 디오션' 11일(화)부터 조건변경 청약 실시 2구미시, 전국 1호 '공항경제권 특례도시' 지정 기대감에 부동산시장 고조 3주택시장 이끄는 GS건설 '자이(Xi)', 대구 남구 대명동에 '대명자이 그랜드시티' 선보여 4대한토목학회, 아시아토목공학협의회 의장국 맡아 5똘똘한 한 채 선호현상 가속화… '힐스테이트 양주옥정 파티오포레' 비규제 프리미엄 각광 6부동산 규제 속 틈새 투자처 ‘수익형 부동산’ 주목 7전문건설공제조합, 이사장 선임... 논란 뜨겁다 8현대로템, 인천 자기부상열차 유지보수 수주 9김포 주상복합 신축현장서 외벽 비계 무너져 10포장재 공제조합, ESG경영·친환경포장 사용확대 추진 최신기사 12일 전남 장흥·13일 경상도 거창~김천 구간 개통 12일 전남 장흥·13일 경상도 거창~김천 구간 개통 [국정감사] 한전 적자 위기, "文정권의 탈원전·전기료 인상 뭉개기가 원인" [국정감사] 한전 적자 위기, "文정권의 탈원전·전기료 인상 뭉개기가 원인" 국토부, 동물 로드킬 저감대책 수립 국토부, 동물 로드킬 저감대책 수립 [환경국감] 지방유역환경청 환경영향평가 사후관리 부실 [환경국감] 지방유역환경청 환경영향평가 사후관리 부실 옥천, 산업단지 조성사업 활발… 미래가치 기대감 고조 옥천, 산업단지 조성사업 활발… 미래가치 기대감 고조 [국정감사] 채용형 인턴에게 일만 시키고 경력 인정 안 하는 한전 [국정감사] 채용형 인턴에게 일만 시키고 경력 인정 안 하는 한전 로앤에이법률사무소, 지역주택조합 사업 정상화 종합 솔루션 제공 로앤에이법률사무소, 지역주택조합 사업 정상화 종합 솔루션 제공 신문사소개 윤리강령 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 동작구 사당로 264-1 썬빌딩 2층 대표전화 : 02-712-5678 팩스 : 02-712-6262 청소년보호책임자 : 김광년 명칭 : 주식회사 국토일보 (1994년 건설일보사로 출범) 제호 : 국토일보 인터넷신문 등록번호 : 서울 아 04947 등록일 : 2018-01-24 발행인·편집인 : 김광년 국토일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국토일보. All rights reserved. mail to kld@ikld.kr 위로</t>
   </si>
 </sst>
 </file>
@@ -434,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,7 +606,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -466,9 +616,6 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
@@ -478,7 +625,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -488,9 +635,6 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
@@ -499,9 +643,6 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
@@ -511,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -522,7 +663,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -532,6 +673,9 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
@@ -541,7 +685,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -552,7 +696,334 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
